--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7B752-B9B0-4414-9B7E-E52BB7BEC33D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F146F-2820-468D-8E05-CC7A6FBB48B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -62,12 +62,18 @@
   <si>
     <t>Total heures</t>
   </si>
+  <si>
+    <t>Lancement du projet : Analyse du dossier de présentation, rattachement au GitHub, Recheches d'informations sur les possibiltés en C#, création du modèle WORD, création du Gantt…</t>
+  </si>
+  <si>
+    <t>Création d'un dossier d'activité, suite du Gantt, création du schéma réseau avec analyse des besoins.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -140,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,6 +191,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -187,14 +234,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,12 +258,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,6 +266,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -552,1166 +621,1185 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="13"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="43.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="13"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>43844</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.125</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>43845</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>43846</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>43847</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>43848</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>43849</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>43850</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>43851</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>43852</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>43853</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="15">
         <v>43854</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="15">
         <v>43855</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="15">
         <v>43856</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="15">
         <v>43857</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="15">
         <v>43858</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="15">
         <v>43859</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="15">
         <v>43860</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="15">
         <v>43861</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="15">
         <v>43862</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="15">
         <v>43863</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="15">
         <v>43864</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="15">
         <v>43865</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="15">
         <v>43866</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="15">
         <v>43867</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="15">
         <v>43868</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="15">
         <v>43869</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="15">
         <v>43870</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="15">
         <v>43871</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="15">
         <v>43872</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="15">
         <v>43873</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="15">
         <v>43874</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="15">
         <v>43875</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="15">
         <v>43876</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="15">
         <v>43877</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="15">
         <v>43878</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="15">
         <v>43879</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="15">
         <v>43880</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="15">
         <v>43881</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="15">
         <v>43882</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="15">
         <v>43883</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="15">
         <v>43884</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="15">
         <v>43885</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="15">
         <v>43886</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="15">
         <v>43887</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="15">
         <v>43888</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="15">
         <v>43889</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="15">
         <v>43890</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="15">
         <v>43891</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="15">
         <v>43892</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="15">
         <v>43893</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="15">
         <v>43894</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="15">
         <v>43895</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="15">
         <v>43896</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="15">
         <v>43897</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="15">
         <v>43898</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="15">
         <v>43899</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="15">
         <v>43900</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="15">
         <v>43901</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="15">
         <v>43902</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="15">
         <v>43903</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="15">
         <v>43904</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="15">
         <v>43905</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="15">
         <v>43906</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="15">
         <v>43907</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="15">
         <v>43908</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="15">
         <v>43909</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="15">
         <v>43910</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="15">
         <v>43911</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="15">
         <v>43912</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="15">
         <v>43913</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="15">
         <v>43914</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="15">
         <v>43915</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="15">
         <v>43916</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="15">
         <v>43917</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="15">
         <v>43918</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="15">
         <v>43919</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="15">
         <v>43920</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="15">
         <v>43921</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="A80" s="15">
         <v>43922</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="15">
         <v>43923</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="15">
         <v>43924</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="15">
         <v>43925</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="15">
         <v>43926</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="15">
         <v>43927</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="15">
         <v>43928</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="15">
         <v>43929</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="A88" s="15">
         <v>43930</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+      <c r="A89" s="15">
         <v>43931</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="A90" s="15">
         <v>43932</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="A91" s="15">
         <v>43933</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="A92" s="15">
         <v>43934</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="A93" s="15">
         <v>43935</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="A94" s="15">
         <v>43936</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="A95" s="15">
         <v>43937</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="A96" s="15">
         <v>43938</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="A97" s="15">
         <v>43939</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="A98" s="15">
         <v>43940</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="A99" s="15">
         <v>43941</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="A100" s="15">
         <v>43942</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="A101" s="15">
         <v>43943</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+      <c r="A102" s="15">
         <v>43944</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="A103" s="15">
         <v>43945</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+      <c r="A104" s="15">
         <v>43946</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
+      <c r="A105" s="15">
         <v>43947</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
+      <c r="A106" s="15">
         <v>43948</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="15">
         <v>43949</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="A108" s="15">
         <v>43950</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+      <c r="A109" s="15">
         <v>43951</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+      <c r="A110" s="15">
         <v>43952</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="A111" s="15">
         <v>43953</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="A112" s="15">
         <v>43954</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
+      <c r="A113" s="15">
         <v>43955</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="A114" s="15">
         <v>43956</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="A115" s="15">
         <v>43957</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+      <c r="A116" s="15">
         <v>43958</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+      <c r="A117" s="15">
         <v>43959</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+      <c r="A118" s="15">
         <v>43960</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
+      <c r="A119" s="15">
         <v>43961</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+      <c r="A120" s="15">
         <v>43962</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+      <c r="A121" s="15">
         <v>43963</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
+      <c r="A122" s="15">
         <v>43964</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
+      <c r="A123" s="15">
         <v>43965</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
+      <c r="A124" s="15">
         <v>43966</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
+      <c r="A125" s="15">
         <v>43967</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
+      <c r="A126" s="15">
         <v>43968</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+      <c r="A127" s="15">
         <v>43969</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+      <c r="A128" s="15">
         <v>43970</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
+      <c r="A129" s="15">
         <v>43971</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
+      <c r="A130" s="15">
         <v>43972</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+      <c r="A131" s="15">
         <v>43973</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+      <c r="A132" s="15">
         <v>43974</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="A133" s="15">
         <v>43975</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
+      <c r="A134" s="15">
         <v>43976</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
+      <c r="A135" s="15">
         <v>43977</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+      <c r="A136" s="15">
         <v>43978</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
+      <c r="A137" s="15">
         <v>43979</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
+      <c r="A138" s="15">
         <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
+      <c r="A139" s="15">
         <v>43981</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+      <c r="A140" s="15">
         <v>43982</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
+      <c r="A141" s="15">
         <v>43983</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+      <c r="A142" s="15">
         <v>43984</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+      <c r="A143" s="15">
         <v>43985</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+      <c r="A144" s="15">
         <v>43986</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
+      <c r="A145" s="15">
         <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+      <c r="A146" s="15">
         <v>43988</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
+      <c r="A147" s="15">
         <v>43989</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
+      <c r="A148" s="15">
         <v>43990</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+      <c r="A149" s="15">
         <v>43991</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="A150" s="15">
         <v>43992</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
+      <c r="A151" s="15">
         <v>43993</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+      <c r="A152" s="15">
         <v>43994</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+      <c r="A153" s="15">
         <v>43995</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
+      <c r="A154" s="15">
         <v>43996</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
+      <c r="A155" s="15">
         <v>43997</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
         <v>0.4375</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="10">
         <f>SUM(F2:F155)</f>
-        <v>0</v>
-      </c>
-      <c r="I159" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="I159" s="11">
         <f>SUM(I2:I155)</f>
         <v>0</v>
       </c>
@@ -1719,5 +1807,6 @@
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F146F-2820-468D-8E05-CC7A6FBB48B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D0B75-45C3-4B6B-9B28-2D72425E0A70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -261,12 +261,6 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,6 +291,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -620,25 +620,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="13"/>
-    <col min="5" max="5" width="43.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
+    <col min="4" max="4" width="11.42578125" style="11"/>
+    <col min="5" max="5" width="43.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="11"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -647,14 +647,14 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>43844</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -673,20 +673,22 @@
       <c r="C2" s="5">
         <v>0.125</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>0.125</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="21">
+        <v>0.125</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>43845</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -695,34 +697,34 @@
       <c r="C3" s="5">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>0.125</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>43846</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>43847</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -731,1077 +733,1077 @@
       <c r="C5" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>43848</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>43849</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>43850</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>43851</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>43852</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>43853</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>43854</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>43855</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>43856</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>43857</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>43858</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>43859</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>43860</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>43861</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>43862</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>43863</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>43864</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>43865</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>43866</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="13">
         <v>43867</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>43868</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <v>43869</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <v>43870</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>43871</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>43872</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>43873</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>43874</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="13">
         <v>43875</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="13">
         <v>43876</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="13">
         <v>43877</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="13">
         <v>43878</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="13">
         <v>43879</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="13">
         <v>43880</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="13">
         <v>43881</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>43882</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="13">
         <v>43883</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="13">
         <v>43884</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="13">
         <v>43885</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>43886</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="13">
         <v>43887</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="A46" s="13">
         <v>43888</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="13">
         <v>43889</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>43890</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="13">
         <v>43891</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+      <c r="A50" s="13">
         <v>43892</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="13">
         <v>43893</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+      <c r="A52" s="13">
         <v>43894</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>43895</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
+      <c r="A54" s="13">
         <v>43896</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="13">
         <v>43897</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
+      <c r="A56" s="13">
         <v>43898</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="13">
         <v>43899</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+      <c r="A58" s="13">
         <v>43900</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="A59" s="13">
         <v>43901</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="13">
         <v>43902</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="13">
         <v>43903</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="13">
         <v>43904</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="13">
         <v>43905</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="13">
         <v>43906</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="13">
         <v>43907</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
+      <c r="A66" s="13">
         <v>43908</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+      <c r="A67" s="13">
         <v>43909</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
+      <c r="A68" s="13">
         <v>43910</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+      <c r="A69" s="13">
         <v>43911</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+      <c r="A70" s="13">
         <v>43912</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+      <c r="A71" s="13">
         <v>43913</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+      <c r="A72" s="13">
         <v>43914</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
+      <c r="A73" s="13">
         <v>43915</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
+      <c r="A74" s="13">
         <v>43916</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
+      <c r="A75" s="13">
         <v>43917</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
+      <c r="A76" s="13">
         <v>43918</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
+      <c r="A77" s="13">
         <v>43919</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
+      <c r="A78" s="13">
         <v>43920</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
+      <c r="A79" s="13">
         <v>43921</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
+      <c r="A80" s="13">
         <v>43922</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
+      <c r="A81" s="13">
         <v>43923</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
+      <c r="A82" s="13">
         <v>43924</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
+      <c r="A83" s="13">
         <v>43925</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15">
+      <c r="A84" s="13">
         <v>43926</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
+      <c r="A85" s="13">
         <v>43927</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
+      <c r="A86" s="13">
         <v>43928</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
+      <c r="A87" s="13">
         <v>43929</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
+      <c r="A88" s="13">
         <v>43930</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
+      <c r="A89" s="13">
         <v>43931</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
+      <c r="A90" s="13">
         <v>43932</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
+      <c r="A91" s="13">
         <v>43933</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
+      <c r="A92" s="13">
         <v>43934</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15">
+      <c r="A93" s="13">
         <v>43935</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
+      <c r="A94" s="13">
         <v>43936</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15">
+      <c r="A95" s="13">
         <v>43937</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
+      <c r="A96" s="13">
         <v>43938</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15">
+      <c r="A97" s="13">
         <v>43939</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
+      <c r="A98" s="13">
         <v>43940</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
+      <c r="A99" s="13">
         <v>43941</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
+      <c r="A100" s="13">
         <v>43942</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
+      <c r="A101" s="13">
         <v>43943</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
+      <c r="A102" s="13">
         <v>43944</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15">
+      <c r="A103" s="13">
         <v>43945</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15">
+      <c r="A104" s="13">
         <v>43946</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
+      <c r="A105" s="13">
         <v>43947</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15">
+      <c r="A106" s="13">
         <v>43948</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15">
+      <c r="A107" s="13">
         <v>43949</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
+      <c r="A108" s="13">
         <v>43950</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15">
+      <c r="A109" s="13">
         <v>43951</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15">
+      <c r="A110" s="13">
         <v>43952</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15">
+      <c r="A111" s="13">
         <v>43953</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15">
+      <c r="A112" s="13">
         <v>43954</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15">
+      <c r="A113" s="13">
         <v>43955</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
+      <c r="A114" s="13">
         <v>43956</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15">
+      <c r="A115" s="13">
         <v>43957</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
+      <c r="A116" s="13">
         <v>43958</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15">
+      <c r="A117" s="13">
         <v>43959</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15">
+      <c r="A118" s="13">
         <v>43960</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15">
+      <c r="A119" s="13">
         <v>43961</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15">
+      <c r="A120" s="13">
         <v>43962</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15">
+      <c r="A121" s="13">
         <v>43963</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
+      <c r="A122" s="13">
         <v>43964</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
+      <c r="A123" s="13">
         <v>43965</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15">
+      <c r="A124" s="13">
         <v>43966</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+      <c r="A125" s="13">
         <v>43967</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15">
+      <c r="A126" s="13">
         <v>43968</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15">
+      <c r="A127" s="13">
         <v>43969</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15">
+      <c r="A128" s="13">
         <v>43970</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15">
+      <c r="A129" s="13">
         <v>43971</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15">
+      <c r="A130" s="13">
         <v>43972</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15">
+      <c r="A131" s="13">
         <v>43973</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15">
+      <c r="A132" s="13">
         <v>43974</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
+      <c r="A133" s="13">
         <v>43975</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15">
+      <c r="A134" s="13">
         <v>43976</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15">
+      <c r="A135" s="13">
         <v>43977</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15">
+      <c r="A136" s="13">
         <v>43978</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15">
+      <c r="A137" s="13">
         <v>43979</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15">
+      <c r="A138" s="13">
         <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15">
+      <c r="A139" s="13">
         <v>43981</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15">
+      <c r="A140" s="13">
         <v>43982</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15">
+      <c r="A141" s="13">
         <v>43983</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15">
+      <c r="A142" s="13">
         <v>43984</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15">
+      <c r="A143" s="13">
         <v>43985</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15">
+      <c r="A144" s="13">
         <v>43986</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="15">
+      <c r="A145" s="13">
         <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="15">
+      <c r="A146" s="13">
         <v>43988</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="15">
+      <c r="A147" s="13">
         <v>43989</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="15">
+      <c r="A148" s="13">
         <v>43990</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="15">
+      <c r="A149" s="13">
         <v>43991</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="15">
+      <c r="A150" s="13">
         <v>43992</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="15">
+      <c r="A151" s="13">
         <v>43993</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="15">
+      <c r="A152" s="13">
         <v>43994</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="15">
+      <c r="A153" s="13">
         <v>43995</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="15">
+      <c r="A154" s="13">
         <v>43996</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="15">
+      <c r="A155" s="13">
         <v>43997</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
         <v>0.4375</v>
       </c>
-      <c r="F159" s="10">
+      <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
         <v>0.25</v>
       </c>
-      <c r="I159" s="11">
+      <c r="I159" s="22">
         <f>SUM(I2:I155)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D0B75-45C3-4B6B-9B28-2D72425E0A70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86C238-04E0-4DB9-9E64-175CDB4F1595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -51,13 +51,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Début des projets : Relecture du dossier de présentation, Création d'un Github ; Utilisation de GitKraken ; Prise de documentation sur l'installation de la Raspberry, de Raspbian et des lecteur de carte RFID</t>
-  </si>
-  <si>
     <t>Création du word pour la revue de projet n°1 et début de ça rédaction (perte du travail, mauvaise utilisation du Git) ; Choix d'un IDE, choix de Pycharm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création d'un journal d'activité commun </t>
   </si>
   <si>
     <t>Total heures</t>
@@ -68,12 +62,18 @@
   <si>
     <t>Création d'un dossier d'activité, suite du Gantt, création du schéma réseau avec analyse des besoins.</t>
   </si>
+  <si>
+    <t>Lancement du projet : Relecture du dossier de présentation, Création d'un Github ; Utilisation de GitKraken ; Prise de documentation sur l'installation de la Raspberry, de Raspbian et des lecteur de carte RFID</t>
+  </si>
+  <si>
+    <t>Création d'un journal d'activité commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun ; Digramme de …</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +106,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,16 +217,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,20 +233,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -268,16 +249,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -286,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,14 +280,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="60 % - Accent1" xfId="6" builtinId="32"/>
+  <cellStyles count="6">
+    <cellStyle name="60 % - Accent1" xfId="5" builtinId="32"/>
     <cellStyle name="Cellule liée" xfId="3" builtinId="24"/>
     <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texte explicatif" xfId="4" builtinId="53"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Total" xfId="5" builtinId="25"/>
+    <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,25 +600,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="11"/>
-    <col min="5" max="5" width="43.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="11"/>
+    <col min="4" max="4" width="11.42578125" style="7"/>
+    <col min="5" max="5" width="43.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="7"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -647,14 +627,14 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -664,1144 +644,1246 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>43844</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43845</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13">
         <v>0.125</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>43845</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>43846</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43847</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>43848</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>43849</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>43850</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>43851</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>43852</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>43853</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>43854</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>43855</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>43856</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>43857</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>43858</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>43859</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>43860</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>43861</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>43862</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>43863</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>43864</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>43865</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>43866</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>43867</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>43868</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>43869</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>43870</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>43871</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="9">
         <v>43872</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>43873</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="9">
         <v>43874</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>43875</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="9">
         <v>43876</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="9">
         <v>43877</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="9">
         <v>43878</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="12"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>43879</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="12"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="9">
         <v>43880</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="12"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>43881</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="12"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="9">
         <v>43882</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="12"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="9">
         <v>43883</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="12"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="A42" s="9">
         <v>43884</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="E42" s="19"/>
+      <c r="B42" s="12"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>43885</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="E43" s="19"/>
+      <c r="B43" s="12"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="9">
         <v>43886</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="9">
         <v>43887</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="9">
         <v>43888</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>43889</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="9">
         <v>43890</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>43891</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="9">
         <v>43892</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="9">
         <v>43893</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="9">
         <v>43894</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="9">
         <v>43895</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="9">
         <v>43896</v>
       </c>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="9">
         <v>43897</v>
       </c>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="9">
         <v>43898</v>
       </c>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="9">
         <v>43899</v>
       </c>
+      <c r="B57" s="12"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="9">
         <v>43900</v>
       </c>
+      <c r="B58" s="12"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="9">
         <v>43901</v>
       </c>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>43902</v>
       </c>
+      <c r="B60" s="12"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>43903</v>
       </c>
+      <c r="B61" s="12"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>43904</v>
       </c>
+      <c r="B62" s="12"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>43905</v>
       </c>
+      <c r="B63" s="12"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>43906</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>43907</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>43908</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>43909</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>43910</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>43911</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>43912</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>43913</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>43914</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>43915</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>43916</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>43917</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>43918</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
         <v>43919</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>43920</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>43921</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>43922</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>43923</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>43924</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>43925</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>43926</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>43927</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>43928</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>43929</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
         <v>43931</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>43932</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
         <v>43933</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
         <v>43934</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
         <v>43935</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>43936</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
         <v>43937</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
         <v>43938</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
         <v>43939</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
         <v>43940</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
         <v>43941</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
         <v>43942</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
         <v>43943</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
         <v>43944</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>43945</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
         <v>43946</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
         <v>43947</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
         <v>43948</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
         <v>43949</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
         <v>43950</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
         <v>43951</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
         <v>43952</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
         <v>43953</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
         <v>43954</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
         <v>43955</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
         <v>43956</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
         <v>43957</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
         <v>43958</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
+      <c r="B116" s="12"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
         <v>43959</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
         <v>43960</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
+      <c r="B118" s="12"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
         <v>43961</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
+      <c r="B119" s="12"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
         <v>43962</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
         <v>43963</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
         <v>43964</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
+      <c r="B122" s="12"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
         <v>43965</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
+      <c r="B123" s="12"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
         <v>43966</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
+      <c r="B124" s="12"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
         <v>43967</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
         <v>43968</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
+      <c r="B126" s="12"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
         <v>43969</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
         <v>43970</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
+      <c r="B128" s="12"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
         <v>43971</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
+      <c r="B129" s="12"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
         <v>43972</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
+      <c r="B130" s="12"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
         <v>43973</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
         <v>43974</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
         <v>43975</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
         <v>43976</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13">
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
         <v>43977</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
         <v>43978</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13">
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
         <v>43979</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
         <v>43980</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="13">
+      <c r="B138" s="12"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
         <v>43981</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="13">
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
         <v>43982</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
+      <c r="B140" s="12"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
         <v>43983</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
+      <c r="B141" s="12"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
         <v>43984</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13">
+      <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
         <v>43985</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
+      <c r="B143" s="12"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
         <v>43986</v>
       </c>
+      <c r="B144" s="12"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="13">
+      <c r="A145" s="9">
         <v>43987</v>
       </c>
+      <c r="B145" s="12"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="13">
+      <c r="A146" s="9">
         <v>43988</v>
       </c>
+      <c r="B146" s="12"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="13">
+      <c r="A147" s="9">
         <v>43989</v>
       </c>
+      <c r="B147" s="12"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="13">
+      <c r="A148" s="9">
         <v>43990</v>
       </c>
+      <c r="B148" s="12"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="13">
+      <c r="A149" s="9">
         <v>43991</v>
       </c>
+      <c r="B149" s="12"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="13">
+      <c r="A150" s="9">
         <v>43992</v>
       </c>
+      <c r="B150" s="12"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="13">
+      <c r="A151" s="9">
         <v>43993</v>
       </c>
+      <c r="B151" s="12"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="13">
+      <c r="A152" s="9">
         <v>43994</v>
       </c>
+      <c r="B152" s="12"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="13">
+      <c r="A153" s="9">
         <v>43995</v>
       </c>
+      <c r="B153" s="12"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="13">
+      <c r="A154" s="9">
         <v>43996</v>
       </c>
+      <c r="B154" s="12"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="13">
+      <c r="A155" s="9">
         <v>43997</v>
       </c>
+      <c r="B155" s="12"/>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="9">
+      <c r="A159" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="5">
         <f>SUM(C2:C155)</f>
         <v>0.4375</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="5">
         <f>SUM(F2:F155)</f>
         <v>0.25</v>
       </c>
-      <c r="I159" s="22">
+      <c r="I159" s="18">
         <f>SUM(I2:I155)</f>
         <v>0.125</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86C238-04E0-4DB9-9E64-175CDB4F1595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7F204-1E03-4EDD-8773-E69578DC08CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -66,7 +66,10 @@
     <t>Lancement du projet : Relecture du dossier de présentation, Création d'un Github ; Utilisation de GitKraken ; Prise de documentation sur l'installation de la Raspberry, de Raspbian et des lecteur de carte RFID</t>
   </si>
   <si>
-    <t>Création d'un journal d'activité commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun ; Digramme de …</t>
+    <t>Rédaction du diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Création d'un journal d'activité commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +711,7 @@
         <v>43847</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>0.20833333333333334</v>
@@ -769,8 +772,12 @@
       <c r="A9" s="9">
         <v>43851</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="12"/>
       <c r="F9" s="14"/>
@@ -1877,7 +1884,7 @@
       </c>
       <c r="C159" s="5">
         <f>SUM(C2:C155)</f>
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F159" s="5">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7F204-1E03-4EDD-8773-E69578DC08CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976B789-D3CC-4FC1-AA4D-9C5D55F13285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -70,6 +72,12 @@
   </si>
   <si>
     <t>Création d'un journal d'activité commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun</t>
+  </si>
+  <si>
+    <t>Redefinition des activités sous forme de compte rendu Word. Rédaction de la planification Gantt commune. Analyse des besoins en UML, début d'un diagramme de séquence.</t>
+  </si>
+  <si>
+    <t>Poursuite du diagramme de séquence propre à l'application de supervision souhaitée.</t>
   </si>
 </sst>
 </file>
@@ -130,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,22 +214,26 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,12 +246,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -249,16 +264,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,6 +291,19 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60 % - Accent1" xfId="5" builtinId="32"/>
@@ -604,1293 +626,1301 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7"/>
-    <col min="5" max="5" width="43.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="43.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="89.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>43844</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.125</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.125</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="17">
+      <c r="I2" s="14">
         <v>0.125</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>43845</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.125</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>43846</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>43847</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>43848</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>43849</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>43850</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>43851</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>43852</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>43853</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>43854</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>43855</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>43856</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>43857</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>43858</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>43859</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>43860</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>43861</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>43862</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>43863</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>43864</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>43865</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>43866</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>43867</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>43868</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>43869</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>43870</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>43871</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>43872</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>43873</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>43874</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>43875</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>43876</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>43877</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>43878</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="9"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>43879</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="9"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>43880</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="E38" s="15"/>
+      <c r="B38" s="9"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>43881</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="9"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>43882</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="E40" s="15"/>
+      <c r="B40" s="9"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>43883</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="E41" s="15"/>
+      <c r="B41" s="9"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>43884</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="E42" s="15"/>
+      <c r="B42" s="9"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>43885</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="9"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43886</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>43887</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>43888</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>43889</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>43890</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>43891</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>43892</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>43893</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>43894</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>43895</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>43896</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>43897</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>43898</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>43899</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>43900</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>43901</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>43902</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>43903</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>43904</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>43905</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>43906</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>43907</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>43908</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>43909</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>43910</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>43911</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>43912</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>43913</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>43914</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>43915</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>43916</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>43917</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>43918</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>43919</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>43920</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>43921</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>43922</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>43923</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>43924</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>43925</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>43926</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="A85" s="7">
         <v>43927</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="7">
         <v>43928</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>43929</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="7">
         <v>43930</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="A89" s="7">
         <v>43931</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="7">
         <v>43932</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="7">
         <v>43933</v>
       </c>
-      <c r="B91" s="12"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="A92" s="7">
         <v>43934</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="7">
         <v>43935</v>
       </c>
-      <c r="B93" s="12"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="7">
         <v>43936</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="A95" s="7">
         <v>43937</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="A96" s="7">
         <v>43938</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="A97" s="7">
         <v>43939</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+      <c r="A98" s="7">
         <v>43940</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="A99" s="7">
         <v>43941</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="A100" s="7">
         <v>43942</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="A101" s="7">
         <v>43943</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="A102" s="7">
         <v>43944</v>
       </c>
-      <c r="B102" s="12"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <v>43945</v>
       </c>
-      <c r="B103" s="12"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="7">
         <v>43946</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="7">
         <v>43947</v>
       </c>
-      <c r="B105" s="12"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="A106" s="7">
         <v>43948</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="A107" s="7">
         <v>43949</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+      <c r="A108" s="7">
         <v>43950</v>
       </c>
-      <c r="B108" s="12"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="A109" s="7">
         <v>43951</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="A110" s="7">
         <v>43952</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="7">
         <v>43953</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+      <c r="A112" s="7">
         <v>43954</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+      <c r="A113" s="7">
         <v>43955</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+      <c r="A114" s="7">
         <v>43956</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+      <c r="A115" s="7">
         <v>43957</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+      <c r="A116" s="7">
         <v>43958</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="A117" s="7">
         <v>43959</v>
       </c>
-      <c r="B117" s="12"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
+      <c r="A118" s="7">
         <v>43960</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="A119" s="7">
         <v>43961</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+      <c r="A120" s="7">
         <v>43962</v>
       </c>
-      <c r="B120" s="12"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+      <c r="A121" s="7">
         <v>43963</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+      <c r="A122" s="7">
         <v>43964</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="A123" s="7">
         <v>43965</v>
       </c>
-      <c r="B123" s="12"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="A124" s="7">
         <v>43966</v>
       </c>
-      <c r="B124" s="12"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="A125" s="7">
         <v>43967</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+      <c r="A126" s="7">
         <v>43968</v>
       </c>
-      <c r="B126" s="12"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+      <c r="A127" s="7">
         <v>43969</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+      <c r="A128" s="7">
         <v>43970</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+      <c r="A129" s="7">
         <v>43971</v>
       </c>
-      <c r="B129" s="12"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+      <c r="A130" s="7">
         <v>43972</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="A131" s="7">
         <v>43973</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="A132" s="7">
         <v>43974</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="A133" s="7">
         <v>43975</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="A134" s="7">
         <v>43976</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
+      <c r="A135" s="7">
         <v>43977</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="A136" s="7">
         <v>43978</v>
       </c>
-      <c r="B136" s="12"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="A137" s="7">
         <v>43979</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
+      <c r="A138" s="7">
         <v>43980</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="A139" s="7">
         <v>43981</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
+      <c r="A140" s="7">
         <v>43982</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
+      <c r="A141" s="7">
         <v>43983</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
+      <c r="A142" s="7">
         <v>43984</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
+      <c r="A143" s="7">
         <v>43985</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
+      <c r="A144" s="7">
         <v>43986</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="A145" s="7">
         <v>43987</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="A146" s="7">
         <v>43988</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
+      <c r="A147" s="7">
         <v>43989</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
+      <c r="A148" s="7">
         <v>43990</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="A149" s="7">
         <v>43991</v>
       </c>
-      <c r="B149" s="12"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
+      <c r="A150" s="7">
         <v>43992</v>
       </c>
-      <c r="B150" s="12"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="A151" s="7">
         <v>43993</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
+      <c r="A152" s="7">
         <v>43994</v>
       </c>
-      <c r="B152" s="12"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
+      <c r="A153" s="7">
         <v>43995</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
+      <c r="A154" s="7">
         <v>43996</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
+      <c r="A155" s="7">
         <v>43997</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="4">
         <f>SUM(C2:C155)</f>
         <v>0.52083333333333337</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="4">
         <f>SUM(F2:F155)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I159" s="18">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="I159" s="15">
         <f>SUM(I2:I155)</f>
         <v>0.125</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50AC839-6212-4A01-BE2C-D1A793987FB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECCC2FF-0F53-470B-96FA-1F49288B6F3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="4425" yWindow="990" windowWidth="18900" windowHeight="11055" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Mise à jours, clonâge du dépôt GitHub sur ordinateur personnel</t>
+  </si>
+  <si>
+    <t>Poursuite de la défénition des taches de l'étudiant 1</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
   <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,8 +908,12 @@
         <v>43852</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.125</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="10" t="s">
         <v>15</v>
@@ -2150,7 +2157,7 @@
       <c r="C159" s="28"/>
       <c r="D159" s="29">
         <f>SUM(D2:D155)</f>
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E159" s="30"/>
       <c r="F159" s="31"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976B789-D3CC-4FC1-AA4D-9C5D55F13285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151F8FB-62F8-4CF9-BC4D-235778DE425D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -78,6 +76,18 @@
   </si>
   <si>
     <t>Poursuite du diagramme de séquence propre à l'application de supervision souhaitée.</t>
+  </si>
+  <si>
+    <t>Lancement du projet : Annalyse du dossier, création du GitHub (GitKraken),  recherche d'information sur Boostrap et Apache. Debut de rédaction de mon document Word de documentation</t>
+  </si>
+  <si>
+    <t>Mise à jour du Gantt et création du diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Recherche d'information sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
+  </si>
+  <si>
+    <t>Rédaction d'un Gantt commun. Rédaction de mon fichier PowerPoint pour l'oral. Poursuite de la rédaction de mon fichier word.</t>
   </si>
 </sst>
 </file>
@@ -246,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,7 +633,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,35 +645,35 @@
     <col min="5" max="5" width="43.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -686,13 +693,15 @@
         <v>0.125</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="14">
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.125</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43845</v>
       </c>
@@ -710,8 +719,12 @@
         <v>0.125</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.125</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,8 +759,12 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -812,8 +829,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1920,9 +1941,9 @@
         <f>SUM(F2:F155)</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="I159" s="15">
+      <c r="I159" s="14">
         <f>SUM(I2:I155)</f>
-        <v>0.125</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECCC2FF-0F53-470B-96FA-1F49288B6F3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3813C61C-B8FA-4B83-83C2-F52184BD016E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="990" windowWidth="18900" windowHeight="11055" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -697,23 +697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="1.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" style="26" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="43.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2" style="17" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="17" customWidth="1"/>
     <col min="9" max="9" width="39.140625" style="11" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="1" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C151F8FB-62F8-4CF9-BC4D-235778DE425D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15993DE-1376-4DB6-BFAC-8F909A2373B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3495" yWindow="2025" windowWidth="18900" windowHeight="11055" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Rédaction d'un Gantt commun. Rédaction de mon fichier PowerPoint pour l'oral. Poursuite de la rédaction de mon fichier word.</t>
+  </si>
+  <si>
+    <t>Rédaction des définition de l'étudiant 1</t>
+  </si>
+  <si>
+    <t>Création du diaporama pour la revue de projet 1 + Rédaction des définition de l'étudiant 1</t>
   </si>
 </sst>
 </file>
@@ -632,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +847,12 @@
       <c r="A10" s="7">
         <v>43852</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.125</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
       <c r="F10" s="11"/>
@@ -921,12 +931,16 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43858</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9"/>
       <c r="F16" s="11"/>
@@ -1935,7 +1949,7 @@
       </c>
       <c r="C159" s="4">
         <f>SUM(C2:C155)</f>
-        <v>0.52083333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="F159" s="4">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15993DE-1376-4DB6-BFAC-8F909A2373B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E918D-6277-49B0-B9DA-C669FA7D3935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2025" windowWidth="18900" windowHeight="11055" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Création du diaporama pour la revue de projet 1 + Rédaction des définition de l'étudiant 1</t>
+  </si>
+  <si>
+    <t>Création du diaporama support pour la revue 1. Pousuite du diagramme de séquences. Poursuite du dossier étudiant.</t>
+  </si>
+  <si>
+    <t>Pousuite du diaporama support pour la revue 1.</t>
   </si>
 </sst>
 </file>
@@ -638,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +849,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43852</v>
       </c>
@@ -854,8 +860,12 @@
         <v>0.125</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.125</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -942,8 +952,12 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1953,7 +1967,7 @@
       </c>
       <c r="F159" s="4">
         <f>SUM(F2:F155)</f>
-        <v>0.54166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I159" s="14">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E918D-6277-49B0-B9DA-C669FA7D3935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5251AF-18F9-4BCA-85DC-3EF725EF295C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +323,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60 % - Accent1" xfId="5" builtinId="32"/>
@@ -644,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +871,9 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="20">
+        <v>0.125</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,7 +965,9 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="20">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -968,13 +975,19 @@
         <v>43859</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,15 +1976,15 @@
       </c>
       <c r="C159" s="4">
         <f>SUM(C2:C155)</f>
-        <v>0.8125</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="F159" s="4">
         <f>SUM(F2:F155)</f>
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="I159" s="14">
         <f>SUM(I2:I155)</f>
-        <v>0.54166666666666674</v>
+        <v>0.91666666666666674</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5251AF-18F9-4BCA-85DC-3EF725EF295C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD17D2-0DD0-46C9-9CA3-8B66680F9ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -87,9 +87,6 @@
     <t>Recherche d'information sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
   </si>
   <si>
-    <t>Rédaction d'un Gantt commun. Rédaction de mon fichier PowerPoint pour l'oral. Poursuite de la rédaction de mon fichier word.</t>
-  </si>
-  <si>
     <t>Rédaction des définition de l'étudiant 1</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>Pousuite du diaporama support pour la revue 1.</t>
+  </si>
+  <si>
+    <t>Rédaction d'un Gantt commun. Rédaction de mon diaporama pour la revu de projet n°1. Poursuite de la rédaction de mon fichier word.</t>
+  </si>
+  <si>
+    <t>Mise a jour de mon diaporama, poursuite des recherches</t>
+  </si>
+  <si>
+    <t>Puirsuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation</t>
   </si>
 </sst>
 </file>
@@ -648,7 +654,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +781,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
         <v>0.20833333333333334</v>
@@ -857,20 +863,22 @@
         <v>43852</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>0.125</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="10">
         <v>0.125</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="20">
         <v>0.125</v>
       </c>
@@ -946,25 +954,27 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43858</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="10">
         <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="20">
         <v>0.16666666666666666</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD17D2-0DD0-46C9-9CA3-8B66680F9ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A928CC-4484-4C93-B085-5A2E4AAE10E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -96,9 +96,6 @@
     <t>Création du diaporama support pour la revue 1. Pousuite du diagramme de séquences. Poursuite du dossier étudiant.</t>
   </si>
   <si>
-    <t>Pousuite du diaporama support pour la revue 1.</t>
-  </si>
-  <si>
     <t>Rédaction d'un Gantt commun. Rédaction de mon diaporama pour la revu de projet n°1. Poursuite de la rédaction de mon fichier word.</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Puirsuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation</t>
+  </si>
+  <si>
+    <t>Poursuite du diaporama support pour la revue 1. Analyse sous forme de diagramme de séquence.</t>
+  </si>
+  <si>
+    <t>Rédefinition de la première page du diaporama pour la revue1. Création d'un chemin de fer.</t>
   </si>
 </sst>
 </file>
@@ -653,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +666,7 @@
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="43.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="42.5703125" customWidth="1"/>
@@ -781,7 +784,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
         <v>0.20833333333333334</v>
@@ -877,7 +880,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="20">
         <v>0.125</v>
@@ -966,21 +969,21 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" s="10">
         <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="20">
         <v>0.16666666666666666</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43859</v>
       </c>
@@ -989,7 +992,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1019,13 +1024,13 @@
         <v>43861</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="5"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A928CC-4484-4C93-B085-5A2E4AAE10E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DB1BE-2B70-4BFA-8020-C461F7C055E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -109,13 +109,33 @@
   </si>
   <si>
     <t>Rédefinition de la première page du diaporama pour la revue1. Création d'un chemin de fer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalisation du diagramme de Gantt, ainsi que de la revue. 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage à la revue 1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,9 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +357,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -657,67 +686,67 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="44.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="44.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5"/>
     <col min="8" max="8" width="42.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>43844</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>0.125</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.125</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2">
@@ -726,24 +755,24 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>43845</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.125</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2">
@@ -752,38 +781,38 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>43846</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>43847</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="2">
@@ -792,68 +821,68 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>43848</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>43849</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>43850</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>43851</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="2">
@@ -862,1144 +891,1158 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>43852</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>0.125</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.125</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>0.125</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>43853</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>43854</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>43855</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>43856</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>43857</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>43858</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>0.16666666666666666</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>43859</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>43860</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>43861</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>43862</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>43863</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>43864</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>43865</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>43866</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>43867</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>43868</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>43869</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>43870</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>43871</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>43872</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>43873</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>43874</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>43875</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>43876</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>43877</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>43878</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>43879</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>43880</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>43881</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="8"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>43882</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>43883</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="8"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>43884</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>43885</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="E43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43886</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43887</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>43888</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>43889</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>43890</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>43891</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>43892</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>43893</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>43894</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>43895</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>43896</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>43897</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>43898</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>43899</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>43900</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>43901</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>43902</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>43903</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>43904</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>43905</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>43906</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>43907</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>43908</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>43909</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>43910</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>43911</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>43912</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>43913</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>43914</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>43915</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>43916</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>43917</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>43918</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>43919</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>43920</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>43921</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>43922</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>43923</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>43924</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>43925</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>43926</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>43927</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>43928</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>43929</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>43930</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>43931</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>43932</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>43933</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>43934</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>43935</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>43936</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>43937</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>43938</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>43939</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>43940</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>43941</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>43942</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>43943</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>43944</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>43945</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>43946</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>43947</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>43948</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>43949</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>43950</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>43951</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>43952</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>43953</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>43954</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>43955</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>43956</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>43957</v>
       </c>
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>43958</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>43959</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>43960</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>43961</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>43962</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>43963</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>43964</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>43965</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>43966</v>
       </c>
-      <c r="B124" s="9"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>43967</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>43968</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>43969</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>43970</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>43971</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>43972</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>43973</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>43974</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>43975</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>43976</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>43977</v>
       </c>
-      <c r="B135" s="9"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>43978</v>
       </c>
-      <c r="B136" s="9"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>43979</v>
       </c>
-      <c r="B137" s="9"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>43980</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>43981</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>43982</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>43983</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>43984</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>43985</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>43986</v>
       </c>
-      <c r="B144" s="9"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>43987</v>
       </c>
-      <c r="B145" s="9"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>43988</v>
       </c>
-      <c r="B146" s="9"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>43989</v>
       </c>
-      <c r="B147" s="9"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>43990</v>
       </c>
-      <c r="B148" s="9"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>43991</v>
       </c>
-      <c r="B149" s="9"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>43992</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>43993</v>
       </c>
-      <c r="B151" s="9"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>43994</v>
       </c>
-      <c r="B152" s="9"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>43995</v>
       </c>
-      <c r="B153" s="9"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>43996</v>
       </c>
-      <c r="B154" s="9"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>43997</v>
       </c>
-      <c r="B155" s="9"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="19">
         <f>SUM(C2:C155)</f>
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F159" s="4">
+        <v>1.1041666666666667</v>
+      </c>
+      <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>0.91666666666666674</v>
-      </c>
-      <c r="I159" s="14">
+        <v>1.125</v>
+      </c>
+      <c r="I159" s="20">
         <f>SUM(I2:I155)</f>
-        <v>0.91666666666666674</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DB1BE-2B70-4BFA-8020-C461F7C055E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A7B80-518A-441F-930C-BE6C18EAB6B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -126,6 +126,15 @@
       </rPr>
       <t>Passage à la revue 1</t>
     </r>
+  </si>
+  <si>
+    <t>Poursuite de l'ébauche, refléxions sur l'application de supervision.</t>
+  </si>
+  <si>
+    <t>Test et tentative de résolution d'un problème rencontré avec la caméra IP.</t>
+  </si>
+  <si>
+    <t>Poursuite et modification majeure de l'ébauche. Rencontre d'un problème avec l'upload d'un fichier de plus de 100Mo dans GitHub.</t>
   </si>
 </sst>
 </file>
@@ -685,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1121,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43865</v>
       </c>
@@ -1121,7 +1130,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1132,15 +1143,19 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43866</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.125</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1160,15 +1175,19 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43868</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2038,7 +2057,7 @@
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A7B80-518A-441F-930C-BE6C18EAB6B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4E4F1-5C68-40C1-A17C-DF1E79DFE571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -135,6 +137,35 @@
   </si>
   <si>
     <t>Poursuite et modification majeure de l'ébauche. Rencontre d'un problème avec l'upload d'un fichier de plus de 100Mo dans GitHub.</t>
+  </si>
+  <si>
+    <t>Création d'un "Fritzing" (modèle de cablage) sur une platine d'essaye + apport Gantt</t>
+  </si>
+  <si>
+    <t>Recherche bus SPI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalisation de la revue 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Travail sur le diapo pour la revue 1</t>
+  </si>
+  <si>
+    <t>Création d'un chemin de fer</t>
   </si>
 </sst>
 </file>
@@ -694,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,21 +802,21 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>0.10416666666666667</v>
+        <v>9.375E-2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="9">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1025,7 +1056,9 @@
       <c r="A17" s="6">
         <v>43859</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1061,7 +1094,9 @@
       <c r="A19" s="6">
         <v>43861</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="2">
         <v>0.125</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>43862</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
@@ -1098,7 +1133,7 @@
         <v>43863</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
@@ -1112,7 +1147,7 @@
         <v>43864</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
@@ -1125,8 +1160,10 @@
       <c r="A23" s="6">
         <v>43865</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="18">
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="4"/>
@@ -1147,8 +1184,12 @@
       <c r="A24" s="6">
         <v>43866</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.125</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
         <v>28</v>
@@ -1166,7 +1207,7 @@
         <v>43867</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
@@ -1179,8 +1220,12 @@
       <c r="A26" s="6">
         <v>43868</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.2638888888888889</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8" t="s">
         <v>29</v>
@@ -1198,7 +1243,7 @@
         <v>43869</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
@@ -1212,7 +1257,7 @@
         <v>43870</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
       <c r="F28" s="10"/>
@@ -1226,7 +1271,7 @@
         <v>43871</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
       <c r="F29" s="10"/>
@@ -1240,7 +1285,7 @@
         <v>43872</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
       <c r="F30" s="10"/>
@@ -2053,20 +2098,20 @@
       </c>
       <c r="C159" s="19">
         <f>SUM(C2:C155)</f>
-        <v>1.1041666666666667</v>
+        <v>1.4826388888888888</v>
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.5</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>
-        <v>1.25</v>
+        <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4E4F1-5C68-40C1-A17C-DF1E79DFE571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36F384-DE7E-4BA3-A39D-13B16E1DAC8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -166,6 +164,9 @@
   </si>
   <si>
     <t>Création d'un chemin de fer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation du câble sur Fritzing + adaptation du câble pour les LEDs + revue du diagrame de séquence </t>
   </si>
 </sst>
 </file>
@@ -726,7 +727,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,21 +803,21 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>9.375E-2</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="9">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1280,12 +1281,16 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43872</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
       <c r="F30" s="10"/>
@@ -2098,15 +2103,15 @@
       </c>
       <c r="C159" s="19">
         <f>SUM(C2:C155)</f>
-        <v>1.4826388888888888</v>
+        <v>1.6909722222222223</v>
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.4583333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>
-        <v>1.2083333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36F384-DE7E-4BA3-A39D-13B16E1DAC8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDCBB0-73A6-41B4-9B18-3CC919DBA967}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -109,23 +109,6 @@
   </si>
   <si>
     <t>Rédefinition de la première page du diaporama pour la revue1. Création d'un chemin de fer.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Finalisation du diagramme de Gantt, ainsi que de la revue. 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage à la revue 1</t>
-    </r>
   </si>
   <si>
     <t>Poursuite de l'ébauche, refléxions sur l'application de supervision.</t>
@@ -168,6 +151,26 @@
   <si>
     <t xml:space="preserve">Finalisation du câble sur Fritzing + adaptation du câble pour les LEDs + revue du diagrame de séquence </t>
   </si>
+  <si>
+    <t>Recherche et aide pour la récupération de l'image provenant de la caméra IP pour le code en C#. Poursuite de la configuration de la caméra IP et création d'un compte MyDlink</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalisation du diagramme de Gantt, ainsi que de la revue. 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage à la revue 1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,15 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -726,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1070,7 @@
         <v>43859</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>8.3333333333333329E-2</v>
@@ -1091,19 +1103,19 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43861</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>0.125</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9">
         <v>0.125</v>
@@ -1162,14 +1174,14 @@
         <v>43865</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="9">
         <v>8.3333333333333329E-2</v>
@@ -1186,14 +1198,14 @@
         <v>43866</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>0.125</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="9">
         <v>0.125</v>
@@ -1222,14 +1234,14 @@
         <v>43868</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <v>0.2638888888888889</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="9">
         <v>0.25</v>
@@ -1281,19 +1293,23 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43872</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2107,7 +2123,7 @@
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDCBB0-73A6-41B4-9B18-3CC919DBA967}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEA4860-FBC8-49F5-93B3-8F98FD99A2ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -170,6 +170,9 @@
       </rPr>
       <t>Passage à la revue 1</t>
     </r>
+  </si>
+  <si>
+    <t>Modificationn et correction des diagrammes de séquences. Séparation d'un global en plusieurs diagrammes détaillés.</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G36:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,15 +1318,19 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43873</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1337,7 +1344,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.6666666666666667</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDCBB0-73A6-41B4-9B18-3CC919DBA967}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8EC3F7-0F9F-4058-A094-C68AAE5784DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -170,6 +170,12 @@
       </rPr>
       <t>Passage à la revue 1</t>
     </r>
+  </si>
+  <si>
+    <t>Diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence + recherche pour client/server socket</t>
   </si>
 </sst>
 </file>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,8 +1325,12 @@
       <c r="A31" s="6">
         <v>43873</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
       <c r="F31" s="10"/>
@@ -1343,12 +1353,16 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43875</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0.25</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
       <c r="F33" s="10"/>
@@ -2119,7 +2133,7 @@
       </c>
       <c r="C159" s="19">
         <f>SUM(C2:C155)</f>
-        <v>1.6909722222222223</v>
+        <v>2.0243055555555554</v>
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8EC3F7-0F9F-4058-A094-C68AAE5784DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463C7F5-9092-41C0-B75B-548B18EE39CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Diagramme de séquence + recherche pour client/server socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remodelage des diagrammes de séquence. Séparation en plusieurs parties plus détaillées.  </t>
+  </si>
+  <si>
+    <t>Poursuite des diagrammes de séquence. Création d'un modèle relationnel pour la base de données. Création d'un diagramme de classes pour l'application de supervision. Renseignement sur fonction "singreton" en C#. Re-définition des besoins en matière de base de données.</t>
   </si>
 </sst>
 </file>
@@ -744,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,9 +1096,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="I17" s="18"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,9 +1132,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="I19" s="18"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1194,9 +1196,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="I23" s="18"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43873</v>
       </c>
@@ -1332,8 +1332,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1353,7 +1357,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43875</v>
       </c>
@@ -1364,8 +1368,12 @@
         <v>0.25</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2137,11 +2145,11 @@
       </c>
       <c r="F159" s="19">
         <f>SUM(F2:F155)</f>
-        <v>1.6666666666666667</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="I159" s="20">
         <f>SUM(I2:I155)</f>
-        <v>1.25</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463C7F5-9092-41C0-B75B-548B18EE39CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E581B0-6FC9-4AEE-BFB4-C2AD65500A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -182,6 +184,9 @@
   </si>
   <si>
     <t>Poursuite des diagrammes de séquence. Création d'un modèle relationnel pour la base de données. Création d'un diagramme de classes pour l'application de supervision. Renseignement sur fonction "singreton" en C#. Re-définition des besoins en matière de base de données.</t>
+  </si>
+  <si>
+    <t>Modification de l'ébauche de l'application. Reprise du diaporama de présentation pour la revue 2.</t>
   </si>
 </sst>
 </file>
@@ -371,7 +376,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,9 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -750,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,38 +762,38 @@
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="44.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="5"/>
     <col min="8" max="8" width="42.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -976,7 +978,7 @@
       <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>0.125</v>
       </c>
       <c r="J10" s="1"/>
@@ -1072,7 +1074,7 @@
       <c r="H16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.16666666666666666</v>
       </c>
       <c r="J16" s="1"/>
@@ -1085,7 +1087,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="8" t="s">
@@ -1096,7 +1098,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,7 +1134,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,7 +1198,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1328,7 +1330,7 @@
       <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D31" s="4"/>
@@ -1364,7 +1366,7 @@
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>0.25</v>
       </c>
       <c r="D33" s="4"/>
@@ -1412,370 +1414,504 @@
         <v>43878</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43879</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43880</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43881</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43882</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43883</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43884</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43885</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43886</v>
       </c>
       <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43887</v>
       </c>
       <c r="B45" s="8"/>
+      <c r="E45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43888</v>
       </c>
       <c r="B46" s="8"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43889</v>
       </c>
       <c r="B47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43890</v>
       </c>
       <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43891</v>
       </c>
       <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43892</v>
       </c>
       <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43893</v>
       </c>
       <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43894</v>
       </c>
       <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43895</v>
       </c>
       <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43896</v>
       </c>
       <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43897</v>
       </c>
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43898</v>
       </c>
       <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43899</v>
       </c>
       <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43900</v>
       </c>
       <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43901</v>
       </c>
       <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43902</v>
       </c>
       <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43903</v>
       </c>
       <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43904</v>
       </c>
       <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43905</v>
       </c>
       <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43906</v>
       </c>
       <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43907</v>
       </c>
       <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43908</v>
       </c>
       <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43909</v>
       </c>
       <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43910</v>
       </c>
       <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43911</v>
       </c>
       <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43912</v>
       </c>
       <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43913</v>
       </c>
       <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43914</v>
       </c>
       <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>43915</v>
       </c>
       <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43916</v>
       </c>
       <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43917</v>
       </c>
       <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43918</v>
       </c>
       <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43919</v>
       </c>
       <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>43920</v>
       </c>
       <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>43921</v>
       </c>
       <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>43922</v>
       </c>
       <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>43923</v>
       </c>
       <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>43924</v>
       </c>
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>43925</v>
       </c>
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43926</v>
       </c>
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>43927</v>
       </c>
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>43928</v>
       </c>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>43929</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43930</v>
       </c>
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>43931</v>
       </c>
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>43932</v>
       </c>
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>43933</v>
       </c>
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>43934</v>
       </c>
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>43935</v>
       </c>
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>43936</v>
       </c>
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>43937</v>
       </c>
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>43938</v>
       </c>
@@ -2139,15 +2275,15 @@
       <c r="A159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="19">
+      <c r="C159" s="18">
         <f>SUM(C2:C155)</f>
-        <v>2.0243055555555554</v>
-      </c>
-      <c r="F159" s="19">
+        <v>1.9826388888888886</v>
+      </c>
+      <c r="F159" s="18">
         <f>SUM(F2:F155)</f>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="I159" s="20">
+        <v>2</v>
+      </c>
+      <c r="I159" s="19">
         <f>SUM(I2:I155)</f>
         <v>0.83333333333333337</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E581B0-6FC9-4AEE-BFB4-C2AD65500A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B3643-0822-438D-995C-9F2FA2200FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -83,9 +81,6 @@
     <t>Lancement du projet : Annalyse du dossier, création du GitHub (GitKraken),  recherche d'information sur Boostrap et Apache. Debut de rédaction de mon document Word de documentation</t>
   </si>
   <si>
-    <t>Mise à jour du Gantt et création du diagramme de séquence</t>
-  </si>
-  <si>
     <t>Recherche d'information sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
   </si>
   <si>
@@ -99,12 +94,6 @@
   </si>
   <si>
     <t>Rédaction d'un Gantt commun. Rédaction de mon diaporama pour la revu de projet n°1. Poursuite de la rédaction de mon fichier word.</t>
-  </si>
-  <si>
-    <t>Mise a jour de mon diaporama, poursuite des recherches</t>
-  </si>
-  <si>
-    <t>Puirsuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation</t>
   </si>
   <si>
     <t>Poursuite du diaporama support pour la revue 1. Analyse sous forme de diagramme de séquence.</t>
@@ -187,6 +176,52 @@
   </si>
   <si>
     <t>Modification de l'ébauche de l'application. Reprise du diaporama de présentation pour la revue 2.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mise au point de l'oral. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Diagramme de séquence pour l'application web recorrigé. Création du diagramme de séquence pour l'application web.</t>
+  </si>
+  <si>
+    <t>Création du chemin de fer et mise à jour du diaporama.</t>
+  </si>
+  <si>
+    <t>Puirsuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation.</t>
+  </si>
+  <si>
+    <t>Mise a jour de mon diaporama, poursuite des recherches.</t>
+  </si>
+  <si>
+    <t>Mise à jour du Gantt et création du diagramme de séquence pour l'application arduino.</t>
+  </si>
+  <si>
+    <t>Reprise du diaporama pour la revu de projet n°2.</t>
+  </si>
+  <si>
+    <t>Poursuite des mises à jour des diagrammes de séquence</t>
+  </si>
+  <si>
+    <t>Création de la base de données et d'un model relationnel pour l'application web. Poursuite des mises à jour des diagrammes de séquence.</t>
+  </si>
+  <si>
+    <t>Recherche d'éléments pour naviguer facilement pour la page web et recherche cablage pour l'application arduino</t>
+  </si>
+  <si>
+    <t>Réflexion général sur mes deux parties</t>
   </si>
 </sst>
 </file>
@@ -376,7 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +466,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60 % - Accent1" xfId="5" builtinId="32"/>
@@ -752,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +876,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2">
         <v>0.125</v>
@@ -880,7 +916,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
         <v>0.20833333333333334</v>
@@ -931,7 +967,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43851</v>
       </c>
@@ -950,7 +986,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2">
         <v>8.3333333333333329E-2</v>
@@ -962,21 +998,21 @@
         <v>43852</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>0.125</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="9">
         <v>0.125</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I10" s="17">
         <v>0.125</v>
@@ -1058,21 +1094,21 @@
         <v>43858</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="9">
         <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I16" s="17">
         <v>0.16666666666666666</v>
@@ -1084,21 +1120,25 @@
         <v>43859</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1120,21 +1160,23 @@
         <v>43861</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>0.125</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="9">
         <v>0.125</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="17">
+        <v>0.125</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,21 +1226,25 @@
         <v>43865</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1206,21 +1252,25 @@
         <v>43866</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>0.125</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24" s="9">
         <v>0.125</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.125</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,21 +1292,25 @@
         <v>43868</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>0.2638888888888889</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="9">
         <v>0.25</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0.25</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,21 +1360,25 @@
         <v>43872</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="9">
         <v>0.16666666666666666</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1328,21 +1386,25 @@
         <v>43873</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1364,21 +1426,25 @@
         <v>43875</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="17">
         <v>0.25</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F33" s="9">
         <v>0.16666666666666666</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1496,12 +1562,18 @@
       </c>
       <c r="B45" s="8"/>
       <c r="E45" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F45" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G45" s="4"/>
+      <c r="H45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -2285,7 +2357,7 @@
       </c>
       <c r="I159" s="19">
         <f>SUM(I2:I155)</f>
-        <v>0.83333333333333337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet Téléthon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B3643-0822-438D-995C-9F2FA2200FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B8A90-C992-4570-923C-8C81B91961B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Réflexion général sur mes deux parties</t>
+  </si>
+  <si>
+    <t>Mise à jour du diagramme de Gantt. Poursuite du diaporama de revue 2. Mise à jour des diagrammes de séquence et mise en commun de certaines parties avec Guillaume.</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1620,13 +1623,17 @@
       <c r="F50" s="10"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43893</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,11 +2360,11 @@
       </c>
       <c r="F159" s="18">
         <f>SUM(F2:F155)</f>
-        <v>2</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="I159" s="19">
         <f>SUM(I2:I155)</f>
-        <v>2</v>
+        <v>1.9583333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B8A90-C992-4570-923C-8C81B91961B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A813B-BD59-48C9-A862-2A8510D01DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Mise à jour du diagramme de Gantt. Poursuite du diaporama de revue 2. Mise à jour des diagrammes de séquence et mise en commun de certaines parties avec Guillaume.</t>
+  </si>
+  <si>
+    <t>Ajout de phase de conception précise dans le diagramme de Gantt. Poursuite des diagrammes de séquences ainsi que du diagramme de classes. Poursuite du diaporama de présentation de la seconde revue de projet.</t>
   </si>
 </sst>
 </file>
@@ -791,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,13 +1639,17 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43894</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.125</v>
+      </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2367,7 @@
       </c>
       <c r="F159" s="18">
         <f>SUM(F2:F155)</f>
-        <v>2.0833333333333335</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="I159" s="19">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A813B-BD59-48C9-A862-2A8510D01DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D15F3B3-1D97-4212-8302-76CDB9E98EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Ajout de phase de conception précise dans le diagramme de Gantt. Poursuite des diagrammes de séquences ainsi que du diagramme de classes. Poursuite du diaporama de présentation de la seconde revue de projet.</t>
+  </si>
+  <si>
+    <t>Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision.</t>
   </si>
 </sst>
 </file>
@@ -417,21 +420,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,24 +443,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,7 +452,18 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60 % - Accent1" xfId="5" builtinId="32"/>
@@ -792,1584 +783,1282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="44.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5"/>
-    <col min="8" max="8" width="42.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="14"/>
+    <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="14"/>
+    <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>43844</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.125</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>0.125</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.125</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>43845</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.13541666666666666</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>0.125</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.125</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43846</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43847</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43848</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43849</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43850</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>43851</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>43852</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.125</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>0.125</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="1">
         <v>0.125</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43853</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43854</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43855</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43856</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="B14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43857</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43858</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43859</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43860</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="B18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43861</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.125</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>0.125</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="17">
+      <c r="I19" s="1">
         <v>0.125</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43862</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="B20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43863</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="B21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43864</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="B22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43865</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43866</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.125</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>0.125</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="1">
         <v>0.125</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43867</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="B25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43868</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.2638888888888889</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>0.25</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="1">
         <v>0.25</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43869</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="B27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43870</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="B28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43871</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="B29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43872</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43873</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43874</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="B32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43875</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="1">
         <v>0.25</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43876</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="B34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43877</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="B35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43878</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="B36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43879</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="B37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43880</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="B38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43881</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="B39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43882</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="B40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43883</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="B41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43884</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="B42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43885</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="B43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43886</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>43887</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="E45" s="10" t="s">
+      <c r="B45" s="5"/>
+      <c r="E45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>43888</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>43889</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>43890</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>43891</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>43892</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>43893</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="E51" s="10" t="s">
+      <c r="B51" s="5"/>
+      <c r="E51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>43894</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="5"/>
+      <c r="E52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="6">
         <v>0.125</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>43895</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>43896</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="B54" s="5"/>
+      <c r="E54" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>43897</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>43898</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>43899</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>43900</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>43901</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>43902</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>43903</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43904</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>43905</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>43906</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>43907</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>43908</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>43909</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>43910</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>43911</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>43912</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>43913</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>43914</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>43915</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>43916</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>43917</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>43918</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>43919</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>43920</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>43921</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>43922</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>43923</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>43924</v>
       </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>43925</v>
       </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>43926</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>43927</v>
       </c>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>43928</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>43929</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>43930</v>
       </c>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>43931</v>
       </c>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>43932</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>43933</v>
       </c>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>43934</v>
       </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>43935</v>
       </c>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>43936</v>
       </c>
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>43937</v>
       </c>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>43938</v>
       </c>
-      <c r="B96" s="8"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="3">
         <v>43939</v>
       </c>
-      <c r="B97" s="8"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="3">
         <v>43940</v>
       </c>
-      <c r="B98" s="8"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="3">
         <v>43941</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="3">
         <v>43942</v>
       </c>
-      <c r="B100" s="8"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="3">
         <v>43943</v>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="3">
         <v>43944</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+      <c r="A103" s="3">
         <v>43945</v>
       </c>
-      <c r="B103" s="8"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+      <c r="A104" s="3">
         <v>43946</v>
       </c>
-      <c r="B104" s="8"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+      <c r="A105" s="3">
         <v>43947</v>
       </c>
-      <c r="B105" s="8"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+      <c r="A106" s="3">
         <v>43948</v>
       </c>
-      <c r="B106" s="8"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+      <c r="A107" s="3">
         <v>43949</v>
       </c>
-      <c r="B107" s="8"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+      <c r="A108" s="3">
         <v>43950</v>
       </c>
-      <c r="B108" s="8"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+      <c r="A109" s="3">
         <v>43951</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
+      <c r="A110" s="3">
         <v>43952</v>
       </c>
-      <c r="B110" s="8"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+      <c r="A111" s="3">
         <v>43953</v>
       </c>
-      <c r="B111" s="8"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
+      <c r="A112" s="3">
         <v>43954</v>
       </c>
-      <c r="B112" s="8"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
+      <c r="A113" s="3">
         <v>43955</v>
       </c>
-      <c r="B113" s="8"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
+      <c r="A114" s="3">
         <v>43956</v>
       </c>
-      <c r="B114" s="8"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
+      <c r="A115" s="3">
         <v>43957</v>
       </c>
-      <c r="B115" s="8"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+      <c r="A116" s="3">
         <v>43958</v>
       </c>
-      <c r="B116" s="8"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
+      <c r="A117" s="3">
         <v>43959</v>
       </c>
-      <c r="B117" s="8"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+      <c r="A118" s="3">
         <v>43960</v>
       </c>
-      <c r="B118" s="8"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+      <c r="A119" s="3">
         <v>43961</v>
       </c>
-      <c r="B119" s="8"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+      <c r="A120" s="3">
         <v>43962</v>
       </c>
-      <c r="B120" s="8"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
+      <c r="A121" s="3">
         <v>43963</v>
       </c>
-      <c r="B121" s="8"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
+      <c r="A122" s="3">
         <v>43964</v>
       </c>
-      <c r="B122" s="8"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
+      <c r="A123" s="3">
         <v>43965</v>
       </c>
-      <c r="B123" s="8"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+      <c r="A124" s="3">
         <v>43966</v>
       </c>
-      <c r="B124" s="8"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+      <c r="A125" s="3">
         <v>43967</v>
       </c>
-      <c r="B125" s="8"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+      <c r="A126" s="3">
         <v>43968</v>
       </c>
-      <c r="B126" s="8"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
+      <c r="A127" s="3">
         <v>43969</v>
       </c>
-      <c r="B127" s="8"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
+      <c r="A128" s="3">
         <v>43970</v>
       </c>
-      <c r="B128" s="8"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
+      <c r="A129" s="3">
         <v>43971</v>
       </c>
-      <c r="B129" s="8"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
+      <c r="A130" s="3">
         <v>43972</v>
       </c>
-      <c r="B130" s="8"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+      <c r="A131" s="3">
         <v>43973</v>
       </c>
-      <c r="B131" s="8"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
+      <c r="A132" s="3">
         <v>43974</v>
       </c>
-      <c r="B132" s="8"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
+      <c r="A133" s="3">
         <v>43975</v>
       </c>
-      <c r="B133" s="8"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
+      <c r="A134" s="3">
         <v>43976</v>
       </c>
-      <c r="B134" s="8"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
+      <c r="A135" s="3">
         <v>43977</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
+      <c r="A136" s="3">
         <v>43978</v>
       </c>
-      <c r="B136" s="8"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
+      <c r="A137" s="3">
         <v>43979</v>
       </c>
-      <c r="B137" s="8"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
+      <c r="A138" s="3">
         <v>43980</v>
       </c>
-      <c r="B138" s="8"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
+      <c r="A139" s="3">
         <v>43981</v>
       </c>
-      <c r="B139" s="8"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
+      <c r="A140" s="3">
         <v>43982</v>
       </c>
-      <c r="B140" s="8"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
+      <c r="A141" s="3">
         <v>43983</v>
       </c>
-      <c r="B141" s="8"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
+      <c r="A142" s="3">
         <v>43984</v>
       </c>
-      <c r="B142" s="8"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
+      <c r="A143" s="3">
         <v>43985</v>
       </c>
-      <c r="B143" s="8"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+      <c r="A144" s="3">
         <v>43986</v>
       </c>
-      <c r="B144" s="8"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
+      <c r="A145" s="3">
         <v>43987</v>
       </c>
-      <c r="B145" s="8"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
+      <c r="A146" s="3">
         <v>43988</v>
       </c>
-      <c r="B146" s="8"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
+      <c r="A147" s="3">
         <v>43989</v>
       </c>
-      <c r="B147" s="8"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
+      <c r="A148" s="3">
         <v>43990</v>
       </c>
-      <c r="B148" s="8"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
+      <c r="A149" s="3">
         <v>43991</v>
       </c>
-      <c r="B149" s="8"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
+      <c r="A150" s="3">
         <v>43992</v>
       </c>
-      <c r="B150" s="8"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
+      <c r="A151" s="3">
         <v>43993</v>
       </c>
-      <c r="B151" s="8"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
+      <c r="A152" s="3">
         <v>43994</v>
       </c>
-      <c r="B152" s="8"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
+      <c r="A153" s="3">
         <v>43995</v>
       </c>
-      <c r="B153" s="8"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
+      <c r="A154" s="3">
         <v>43996</v>
       </c>
-      <c r="B154" s="8"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="6">
+      <c r="A155" s="3">
         <v>43997</v>
       </c>
-      <c r="B155" s="8"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="18">
+      <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
         <v>1.9826388888888886</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>2.2083333333333335</v>
-      </c>
-      <c r="I159" s="19">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
         <v>1.9583333333333333</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D15F3B3-1D97-4212-8302-76CDB9E98EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD2C46-44D5-4E7E-9503-E38067BA3640}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -115,23 +115,6 @@
   </si>
   <si>
     <t>Recherche bus SPI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Finalisation de la revue 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage de la revue 1</t>
-    </r>
   </si>
   <si>
     <t>Travail sur le diapo pour la revue 1</t>
@@ -231,6 +214,40 @@
   </si>
   <si>
     <t>Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision.</t>
+  </si>
+  <si>
+    <r>
+      <t>Finalisation de la revue 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation du digramme de squence pour le serveur socket asynchrone + préparation du diapo pour la revue 2 </t>
+  </si>
+  <si>
+    <t>recherche pour client/server socket</t>
   </si>
 </sst>
 </file>
@@ -296,14 +313,13 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="14"/>
       <color theme="1"/>
@@ -420,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -786,7 +805,7 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +962,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1">
         <v>8.3333333333333329E-2</v>
@@ -966,7 +985,7 @@
         <v>0.125</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1">
         <v>0.125</v>
@@ -1024,7 +1043,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1">
         <v>0.16666666666666666</v>
@@ -1035,7 +1054,7 @@
         <v>43859</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1047,7 +1066,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1065,13 +1084,13 @@
         <v>43861</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>0.125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
         <v>0.125</v>
@@ -1106,7 +1125,7 @@
         <v>43865</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1118,7 +1137,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1141,7 +1160,7 @@
         <v>0.125</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="1">
         <v>0.125</v>
@@ -1171,7 +1190,7 @@
         <v>0.25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="1">
         <v>0.25</v>
@@ -1203,19 +1222,19 @@
         <v>43872</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="1">
         <v>0.16666666666666666</v>
@@ -1226,19 +1245,19 @@
         <v>43873</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1256,22 +1275,22 @@
         <v>43875</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>0.25</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,18 +1374,14 @@
         <v>43887</v>
       </c>
       <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
       <c r="E45" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1386,115 +1401,142 @@
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43891</v>
       </c>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43892</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43893</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43894</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="6">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43895</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43896</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.25</v>
+      </c>
       <c r="E54" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="6">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43897</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43898</v>
       </c>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43899</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43901</v>
       </c>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43902</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43903</v>
       </c>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43904</v>
       </c>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43905</v>
       </c>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43906</v>
       </c>
@@ -2052,15 +2094,15 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>1.9826388888888886</v>
+        <v>2.4409722222222219</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>2.3333333333333335</v>
+        <v>2.4583333333333335</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>1.9583333333333333</v>
+        <v>2.4166666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD2C46-44D5-4E7E-9503-E38067BA3640}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E63A9B-46F4-480A-AE80-676079851A4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="55">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Ajout de phase de conception précise dans le diagramme de Gantt. Poursuite des diagrammes de séquences ainsi que du diagramme de classes. Poursuite du diaporama de présentation de la seconde revue de projet.</t>
-  </si>
-  <si>
-    <t>Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision.</t>
   </si>
   <si>
     <r>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>recherche pour client/server socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision. Modification du diagramme de classes. </t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +482,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -802,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,13 +819,14 @@
     <col min="1" max="1" width="11.42578125" style="14"/>
     <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="14"/>
+    <col min="4" max="4" width="11.42578125" style="16"/>
     <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="14"/>
+    <col min="7" max="7" width="11.42578125" style="16"/>
     <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="11.42578125" style="17"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1125,7 +1132,7 @@
         <v>43865</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1418,7 +1425,7 @@
         <v>43893</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1441,7 +1448,7 @@
         <v>43894</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1">
         <v>0.125</v>
@@ -1462,18 +1469,18 @@
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43896</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>0.25</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F54" s="6">
         <v>0.25</v>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E63A9B-46F4-480A-AE80-676079851A4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49F7A3-B722-4204-8139-BFFFFC48C68F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision. Modification du diagramme de classes. </t>
+  </si>
+  <si>
+    <t>Diagramme de classe + diapo revue 2</t>
   </si>
 </sst>
 </file>
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1514,12 @@
       <c r="A58" s="3">
         <v>43900</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -2101,7 +2109,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>2.4409722222222219</v>
+        <v>2.6076388888888884</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49F7A3-B722-4204-8139-BFFFFC48C68F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0622C01F-833E-4C48-84B9-17BE57646038}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Diagramme de classe + diapo revue 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poursuite du diagramme de classes. Poursuite du diaporama de revue 2. Ajout et modification horaires dans le diagramme de Gantt (achevement des tâches). </t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -1518,6 +1521,15 @@
         <v>55</v>
       </c>
       <c r="C58" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I58" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -2113,11 +2125,11 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>2.4583333333333335</v>
+        <v>2.625</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>2.4166666666666665</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0622C01F-833E-4C48-84B9-17BE57646038}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B4F8F-C26B-49CF-B37D-18E6A2E96505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poursuite du diagramme de classes. Poursuite du diaporama de revue 2. Ajout et modification horaires dans le diagramme de Gantt (achevement des tâches). </t>
+  </si>
+  <si>
+    <t>Poursuite du diagramme de classes (définition des multiplicités et des noms). Ajout de celui-ci dans le diaporama de revue 2. Création d'un chemin de fer dans le diaporama et finalisation / entrainement pour la revue 2.</t>
   </si>
 </sst>
 </file>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E72:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,11 +1536,23 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43901</v>
       </c>
       <c r="B59" s="5"/>
+      <c r="C59" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="I59" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -2121,15 +2136,15 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>2.6076388888888884</v>
+        <v>2.6909722222222219</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>2.583333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B4F8F-C26B-49CF-B37D-18E6A2E96505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967A7D0-0A50-4DAC-9DCF-7DD600C135A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E72:E76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,6 +1565,15 @@
         <v>43903</v>
       </c>
       <c r="B61" s="5"/>
+      <c r="C61" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -2136,15 +2145,15 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>2.6909722222222219</v>
+        <v>2.9409722222222219</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>2.6666666666666665</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SECOND YEAR\Projet Systeme-Escape-Game-Telethon Github\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967A7D0-0A50-4DAC-9DCF-7DD600C135A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6738ACE-5445-404C-A3C6-ACE7E4B6AC9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -258,6 +258,55 @@
   <si>
     <t>Poursuite du diagramme de classes (définition des multiplicités et des noms). Ajout de celui-ci dans le diaporama de revue 2. Création d'un chemin de fer dans le diaporama et finalisation / entrainement pour la revue 2.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage à la revue 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Reprise du modèle relationnel de la BDD. Début du développement en C#. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage à la revue 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Début de l'installation de DEBIAN (erreur carte SD a formatée en ligne de commandes) -&gt; Debian non installé.</t>
+    </r>
+  </si>
+  <si>
+    <t>Diaporama et poursuite de l'UML.</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +379,14 @@
     </font>
     <font>
       <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -819,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1597,9 @@
       <c r="A59" s="3">
         <v>43901</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C59" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1560,17 +1619,23 @@
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43903</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="C61" s="1">
         <v>0.25</v>
       </c>
+      <c r="E61" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F61" s="6">
         <v>0.25</v>
       </c>
+      <c r="H61" s="7"/>
       <c r="I61" s="1">
         <v>0.25</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.guigand\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6738ACE-5445-404C-A3C6-ACE7E4B6AC9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2182CD-285B-4C86-99AE-AD13F6B84190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -306,6 +308,9 @@
   </si>
   <si>
     <t>Diaporama et poursuite de l'UML.</t>
+  </si>
+  <si>
+    <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
   </si>
 </sst>
 </file>
@@ -876,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E70:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,11 +1657,17 @@
       </c>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43906</v>
       </c>
       <c r="B64" s="5"/>
+      <c r="E64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -2214,7 +2225,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3</v>
+        <v>3.125</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2182CD-285B-4C86-99AE-AD13F6B84190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8517B202-BA6E-4903-87F5-B0F66807CAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude appronfondie du convertisseur SOLLAE RS232-Wi-Fi pour l'afficheur (parallèle avec un travail en ESLA). </t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E70:E72"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,97 +1672,103 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
       <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
@@ -2225,7 +2234,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.125</v>
+        <v>3.3125</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2182CD-285B-4C86-99AE-AD13F6B84190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C5E4D-B7D5-4CFC-A0B0-9EFE928E3A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
+  </si>
+  <si>
+    <t>Installation de raspbian + activation de du bus spi, port GPIO + installation de l'IDE phychram(problème d'installation, non finalisé)</t>
+  </si>
+  <si>
+    <t>Reprise du diaporama pour la revue 2</t>
   </si>
 </sst>
 </file>
@@ -881,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E70:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>22</v>
@@ -1465,7 +1471,12 @@
       <c r="A46" s="3">
         <v>43888</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1669,97 +1680,102 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
@@ -2221,7 +2237,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>2.9409722222222219</v>
+        <v>3.1701388888888888</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C5E4D-B7D5-4CFC-A0B0-9EFE928E3A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD25C6-027F-41AA-9F6A-095B743F637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Reprise du diaporama pour la revue 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude approfondie de l'adaptateur RS232 - Wi-Fi (en parallèle avec un travail en ESLA sur ce même adaptateur). </t>
   </si>
 </sst>
 </file>
@@ -887,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E67:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,102 +1683,106 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="E65" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
@@ -2237,11 +2244,11 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.1701388888888888</v>
+        <v>3.0451388888888888</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.125</v>
+        <v>3.3125</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD25C6-027F-41AA-9F6A-095B743F637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF541B-4A34-45C9-994C-76A77C2947EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -320,6 +320,24 @@
   </si>
   <si>
     <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude approfondie de l'adaptateur RS232 - Wi-Fi (en parallèle avec un travail en ESLA sur ce même adaptateur). </t>
+  </si>
+  <si>
+    <t>Correction des diagrammes de sèquences et de classes, poursuite des modification du diaporama pour la revue 2.</t>
+  </si>
+  <si>
+    <t>Programmation du Menu du site web et amorce de la page de connexion.</t>
+  </si>
+  <si>
+    <t>Amorce du ablage de l'arduino avec ces differents composants et amorce de la programmation sur l'arduino.</t>
+  </si>
+  <si>
+    <t>Poursuite des modifications du diaporama, finalisation des diragrammes, ajout des documentation sur le gantt.</t>
+  </si>
+  <si>
+    <t>Maquette du Cablage de l'ensemble de l'application arduino</t>
+  </si>
+  <si>
+    <t>Ajout de fonctions sur mes digrammes de gantt et de séquences et mise à jour. Poursuite des modifications sur le diaporama.</t>
   </si>
 </sst>
 </file>
@@ -890,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E67:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1562,9 @@
       <c r="F52" s="6">
         <v>0.125</v>
       </c>
+      <c r="H52" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I52" s="1">
         <v>0.125</v>
       </c>
@@ -1570,6 +1591,9 @@
       <c r="F54" s="6">
         <v>0.25</v>
       </c>
+      <c r="H54" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="I54" s="1">
         <v>0.25</v>
       </c>
@@ -1608,6 +1632,9 @@
       <c r="F58" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H58" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="I58" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1628,6 +1655,9 @@
       <c r="F59" s="6">
         <v>0.125</v>
       </c>
+      <c r="H59" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I59" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1654,7 +1684,9 @@
       <c r="F61" s="6">
         <v>0.25</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I61" s="1">
         <v>0.25</v>
       </c>
@@ -1682,8 +1714,14 @@
       <c r="F64" s="6">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
@@ -1697,92 +1735,98 @@
       <c r="F65" s="6">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
@@ -2252,7 +2296,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>2.9166666666666665</v>
+        <v>3.2916666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF541B-4A34-45C9-994C-76A77C2947EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0202A-EBE6-46BA-9932-D6D3729E3C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1712,7 @@
         <v>61</v>
       </c>
       <c r="F64" s="6">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>67</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.3125</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0202A-EBE6-46BA-9932-D6D3729E3C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DF2DF-16DF-434B-8C04-D9A04399CEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Ajout de fonctions sur mes digrammes de gantt et de séquences et mise à jour. Poursuite des modifications sur le diaporama.</t>
+  </si>
+  <si>
+    <t>Poursuite de l'application de supervision. Test de l'affichage de la caméra avec le site web stfelixlasalle.fr (utilisation de WebBrowser dans Visual Studio). Structuration globale de l'application (graphique, programmation). Mise en forme globale de la charte graphique choisie dans l'ébauche de l'application. Travail sur la fenêtre principale.</t>
   </si>
 </sst>
 </file>
@@ -1742,11 +1745,17 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
       <c r="B66" s="5"/>
+      <c r="E66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -2292,7 +2301,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446DF2DF-16DF-434B-8C04-D9A04399CEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F0E7B-8B6D-410D-A164-76BF505CC8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Poursuite de l'application de supervision. Test de l'affichage de la caméra avec le site web stfelixlasalle.fr (utilisation de WebBrowser dans Visual Studio). Structuration globale de l'application (graphique, programmation). Mise en forme globale de la charte graphique choisie dans l'ébauche de l'application. Travail sur la fenêtre principale.</t>
+  </si>
+  <si>
+    <t>Poursuite de l'application de supervision. Travail et étude sur la trame et la méthode pour l'envoyée à l'afficheur.</t>
   </si>
 </sst>
 </file>
@@ -911,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,11 +1760,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
+      <c r="E67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -2301,7 +2310,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.5</v>
+        <v>3.625</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F0E7B-8B6D-410D-A164-76BF505CC8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B92527-FA09-401C-A09B-E7DCF1F393D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Poursuite de l'application de supervision. Travail et étude sur la trame et la méthode pour l'envoyée à l'afficheur.</t>
+  </si>
+  <si>
+    <t>Programmation de la page de connexion. Recherche comment avoir deux mots de passe differents pour deux pages differentes</t>
+  </si>
+  <si>
+    <t>Programmation de la page d'administrateur, recherche comment supprimer, ajouter, modifier la bdd depuis la page web</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1765,12 @@
       <c r="F66" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -1771,6 +1783,12 @@
       <c r="F67" s="6">
         <v>0.125</v>
       </c>
+      <c r="H67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -2314,7 +2332,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>3.2916666666666665</v>
+        <v>3.5416666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B92527-FA09-401C-A09B-E7DCF1F393D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA51CE-57AF-4E98-8135-0DE66645B438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Programmation de la page d'administrateur, recherche comment supprimer, ajouter, modifier la bdd depuis la page web</t>
+  </si>
+  <si>
+    <t>Tentative de résolution de l'erreur</t>
   </si>
 </sst>
 </file>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1743,9 @@
       <c r="B65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>64</v>
       </c>
@@ -1758,7 +1763,12 @@
       <c r="A66" s="3">
         <v>43908</v>
       </c>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="E66" s="7" t="s">
         <v>71</v>
       </c>
@@ -2324,7 +2334,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.0451388888888888</v>
+        <v>3.2326388888888888</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA51CE-57AF-4E98-8135-0DE66645B438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FB20F7-4B6E-4F27-AB0B-659E926D0635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Tentative de résolution de l'erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résolutions de l'erreur d'installation (installation pycharm compléter) + installation de jdk </t>
   </si>
 </sst>
 </file>
@@ -923,26 +926,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="14"/>
-    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16"/>
-    <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="16"/>
-    <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="17"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.453125" style="14"/>
+    <col min="2" max="2" width="49.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="16"/>
+    <col min="5" max="5" width="44.81640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="16"/>
+    <col min="8" max="8" width="42.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="17"/>
+    <col min="11" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -965,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43844</v>
       </c>
@@ -988,7 +991,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43845</v>
       </c>
@@ -1011,14 +1014,14 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43846</v>
       </c>
       <c r="B4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43847</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>43848</v>
       </c>
@@ -1051,21 +1054,21 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>43849</v>
       </c>
       <c r="B7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43850</v>
       </c>
       <c r="B8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43851</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43852</v>
       </c>
@@ -1111,42 +1114,42 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43853</v>
       </c>
       <c r="B11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43854</v>
       </c>
       <c r="B12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43855</v>
       </c>
       <c r="B13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43856</v>
       </c>
       <c r="B14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43857</v>
       </c>
       <c r="B15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43858</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43859</v>
       </c>
@@ -1192,14 +1195,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43860</v>
       </c>
       <c r="B18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43861</v>
       </c>
@@ -1219,28 +1222,28 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43862</v>
       </c>
       <c r="B20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43863</v>
       </c>
       <c r="B21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43864</v>
       </c>
       <c r="B22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43865</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43866</v>
       </c>
@@ -1286,14 +1289,14 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43867</v>
       </c>
       <c r="B25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43868</v>
       </c>
@@ -1316,28 +1319,28 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43869</v>
       </c>
       <c r="B27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43870</v>
       </c>
       <c r="B28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43871</v>
       </c>
       <c r="B29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43872</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43873</v>
       </c>
@@ -1383,14 +1386,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43874</v>
       </c>
       <c r="B32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43875</v>
       </c>
@@ -1413,83 +1416,83 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43876</v>
       </c>
       <c r="B34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43877</v>
       </c>
       <c r="B35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43878</v>
       </c>
       <c r="B36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43879</v>
       </c>
       <c r="B37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43880</v>
       </c>
       <c r="B38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43881</v>
       </c>
       <c r="B39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43882</v>
       </c>
       <c r="B40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43883</v>
       </c>
       <c r="B41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43884</v>
       </c>
       <c r="B42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43885</v>
       </c>
       <c r="B43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43886</v>
       </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43887</v>
       </c>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43888</v>
       </c>
@@ -1514,31 +1517,31 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43889</v>
       </c>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43890</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43891</v>
       </c>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43892</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43893</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43894</v>
       </c>
@@ -1584,13 +1587,13 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43895</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43896</v>
       </c>
@@ -1613,25 +1616,25 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>43897</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>43898</v>
       </c>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>43899</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>43901</v>
       </c>
@@ -1677,13 +1680,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>43902</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>43903</v>
       </c>
@@ -1706,19 +1709,19 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>43904</v>
       </c>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>43905</v>
       </c>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>43906</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
@@ -1800,541 +1803,546 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>43923</v>
       </c>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>43924</v>
       </c>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>43925</v>
       </c>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>43926</v>
       </c>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>43927</v>
       </c>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>43928</v>
       </c>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>43931</v>
       </c>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>43932</v>
       </c>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>43933</v>
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>43935</v>
       </c>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>43936</v>
       </c>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>43937</v>
       </c>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>43938</v>
       </c>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>43939</v>
       </c>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>43940</v>
       </c>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>43941</v>
       </c>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>43942</v>
       </c>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>43943</v>
       </c>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>43944</v>
       </c>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>43945</v>
       </c>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>43946</v>
       </c>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>43947</v>
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>43948</v>
       </c>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>43949</v>
       </c>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43950</v>
       </c>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>43951</v>
       </c>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>43952</v>
       </c>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>43953</v>
       </c>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>43954</v>
       </c>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>43955</v>
       </c>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>43956</v>
       </c>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>43957</v>
       </c>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>43958</v>
       </c>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>43959</v>
       </c>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43960</v>
       </c>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43961</v>
       </c>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43962</v>
       </c>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43963</v>
       </c>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43964</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43965</v>
       </c>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43967</v>
       </c>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43968</v>
       </c>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43970</v>
       </c>
       <c r="B128" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43971</v>
       </c>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43972</v>
       </c>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43973</v>
       </c>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43974</v>
       </c>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43975</v>
       </c>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43976</v>
       </c>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43981</v>
       </c>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43982</v>
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>43987</v>
       </c>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>43988</v>
       </c>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>43989</v>
       </c>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>43990</v>
       </c>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>43991</v>
       </c>
       <c r="B149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>43992</v>
       </c>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>43993</v>
       </c>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>43994</v>
       </c>
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>43995</v>
       </c>
       <c r="B153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>43996</v>
       </c>
       <c r="B154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>43997</v>
       </c>
       <c r="B155" s="5"/>
     </row>
-    <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.2326388888888888</v>
+        <v>3.2743055555555554</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
@@ -2345,7 +2353,7 @@
         <v>3.5416666666666665</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FB20F7-4B6E-4F27-AB0B-659E926D0635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181839F2-40C1-4AF0-8048-6E37E9D1BF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t xml:space="preserve">Résolutions de l'erreur d'installation (installation pycharm compléter) + installation de jdk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des différentes fenêtres de l'application de supervision et liens entre elles. Importation de la charte graphique (icônes et formes) dans celle-ci. Recherches sur la base de données. Création de la base de données avec PHPMyAdmin et MYSQL pour liaison avec l'application. Lecture d'un tutoriel permettant cela. </t>
   </si>
 </sst>
 </file>
@@ -926,26 +929,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="14"/>
-    <col min="2" max="2" width="49.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="16"/>
-    <col min="5" max="5" width="44.81640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="16"/>
-    <col min="8" max="8" width="42.54296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="17"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="16"/>
+    <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="16"/>
+    <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="17"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -968,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43844</v>
       </c>
@@ -991,7 +994,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43845</v>
       </c>
@@ -1014,14 +1017,14 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43846</v>
       </c>
       <c r="B4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43847</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43848</v>
       </c>
@@ -1054,21 +1057,21 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43849</v>
       </c>
       <c r="B7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43850</v>
       </c>
       <c r="B8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43851</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43852</v>
       </c>
@@ -1114,42 +1117,42 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43853</v>
       </c>
       <c r="B11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43854</v>
       </c>
       <c r="B12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43855</v>
       </c>
       <c r="B13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43856</v>
       </c>
       <c r="B14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43857</v>
       </c>
       <c r="B15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43858</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43859</v>
       </c>
@@ -1195,14 +1198,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43860</v>
       </c>
       <c r="B18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43861</v>
       </c>
@@ -1222,28 +1225,28 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43862</v>
       </c>
       <c r="B20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43863</v>
       </c>
       <c r="B21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43864</v>
       </c>
       <c r="B22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43865</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43866</v>
       </c>
@@ -1289,14 +1292,14 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43867</v>
       </c>
       <c r="B25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43868</v>
       </c>
@@ -1319,28 +1322,28 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43869</v>
       </c>
       <c r="B27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43870</v>
       </c>
       <c r="B28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43871</v>
       </c>
       <c r="B29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43872</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43873</v>
       </c>
@@ -1386,14 +1389,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43874</v>
       </c>
       <c r="B32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43875</v>
       </c>
@@ -1416,83 +1419,83 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43876</v>
       </c>
       <c r="B34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43877</v>
       </c>
       <c r="B35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43878</v>
       </c>
       <c r="B36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43879</v>
       </c>
       <c r="B37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43880</v>
       </c>
       <c r="B38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43881</v>
       </c>
       <c r="B39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43882</v>
       </c>
       <c r="B40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43883</v>
       </c>
       <c r="B41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43884</v>
       </c>
       <c r="B42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43885</v>
       </c>
       <c r="B43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43886</v>
       </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43887</v>
       </c>
@@ -1506,7 +1509,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43888</v>
       </c>
@@ -1517,31 +1520,31 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43889</v>
       </c>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43890</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43891</v>
       </c>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43892</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43893</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43894</v>
       </c>
@@ -1587,13 +1590,13 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43895</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43896</v>
       </c>
@@ -1616,25 +1619,25 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43897</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43898</v>
       </c>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43899</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43901</v>
       </c>
@@ -1680,13 +1683,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43902</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43903</v>
       </c>
@@ -1709,19 +1712,19 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43904</v>
       </c>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43905</v>
       </c>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43906</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43908</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43909</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
@@ -1813,530 +1816,536 @@
       <c r="C68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43911</v>
       </c>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43912</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43918</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43919</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43923</v>
       </c>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43924</v>
       </c>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43925</v>
       </c>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43926</v>
       </c>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43927</v>
       </c>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43928</v>
       </c>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43931</v>
       </c>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43932</v>
       </c>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43933</v>
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43935</v>
       </c>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43936</v>
       </c>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43937</v>
       </c>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43938</v>
       </c>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43939</v>
       </c>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43940</v>
       </c>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43941</v>
       </c>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43942</v>
       </c>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43943</v>
       </c>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43944</v>
       </c>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43945</v>
       </c>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43946</v>
       </c>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43947</v>
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43948</v>
       </c>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43949</v>
       </c>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43950</v>
       </c>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43951</v>
       </c>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43952</v>
       </c>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43953</v>
       </c>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43954</v>
       </c>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43955</v>
       </c>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43956</v>
       </c>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43957</v>
       </c>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43958</v>
       </c>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43959</v>
       </c>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43960</v>
       </c>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43961</v>
       </c>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43962</v>
       </c>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43963</v>
       </c>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43964</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43965</v>
       </c>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43967</v>
       </c>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43968</v>
       </c>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43970</v>
       </c>
       <c r="B128" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43971</v>
       </c>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43972</v>
       </c>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43973</v>
       </c>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43974</v>
       </c>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43975</v>
       </c>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43976</v>
       </c>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43981</v>
       </c>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43982</v>
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43987</v>
       </c>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43988</v>
       </c>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43989</v>
       </c>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43990</v>
       </c>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43991</v>
       </c>
       <c r="B149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43992</v>
       </c>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>43993</v>
       </c>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>43994</v>
       </c>
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>43995</v>
       </c>
       <c r="B153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43996</v>
       </c>
       <c r="B154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>43997</v>
       </c>
       <c r="B155" s="5"/>
     </row>
-    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -2346,14 +2355,14 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.625</v>
+        <v>3.7916666666666665</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
         <v>3.5416666666666665</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181839F2-40C1-4AF0-8048-6E37E9D1BF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212BB53-DECD-41FA-B9AA-25C080A27B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Création des différentes fenêtres de l'application de supervision et liens entre elles. Importation de la charte graphique (icônes et formes) dans celle-ci. Recherches sur la base de données. Création de la base de données avec PHPMyAdmin et MYSQL pour liaison avec l'application. Lecture d'un tutoriel permettant cela. </t>
+  </si>
+  <si>
+    <t>Application de supervision : Etude et comparaison de possibilités pour l'envoi d'un indice à l'afficheur.</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,11 +1838,17 @@
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43913</v>
       </c>
       <c r="B71" s="5"/>
+      <c r="E71" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -2355,7 +2364,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.7916666666666665</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212BB53-DECD-41FA-B9AA-25C080A27B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350A5B3-0C61-4739-BA9E-BD94313693C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Application de supervision : Etude et comparaison de possibilités pour l'envoi d'un indice à l'afficheur.</t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid</t>
   </si>
 </sst>
 </file>
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1845,12 @@
       <c r="A71" s="3">
         <v>43913</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E71" s="7" t="s">
         <v>78</v>
       </c>
@@ -2360,7 +2368,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.2743055555555554</v>
+        <v>3.3576388888888888</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350A5B3-0C61-4739-BA9E-BD94313693C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD544B6-7F0D-4736-8100-3B8540C75511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>Tentative de récupération de l'uid</t>
+  </si>
+  <si>
+    <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,11 +1861,17 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43914</v>
       </c>
       <c r="B72" s="5"/>
+      <c r="E72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -2372,7 +2381,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>3.9166666666666665</v>
+        <v>4.0416666666666661</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD544B6-7F0D-4736-8100-3B8540C75511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF091A3F-636A-41AD-93B6-BB7E40B19FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile)</t>
   </si>
 </sst>
 </file>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1868,12 @@
       <c r="A72" s="3">
         <v>43914</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>80</v>
       </c>
@@ -2377,7 +2385,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.3576388888888888</v>
+        <v>3.4618055555555554</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF091A3F-636A-41AD-93B6-BB7E40B19FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B1A4C-44E5-4A6E-9154-88FC19ECDF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -370,7 +370,7 @@
     <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
   </si>
   <si>
-    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile)</t>
+    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilité</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1872,7 @@
         <v>81</v>
       </c>
       <c r="C72" s="1">
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>80</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.4618055555555554</v>
+        <v>3.4826388888888888</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B1A4C-44E5-4A6E-9154-88FC19ECDF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BFAED-A52A-4CE0-9828-1440D0E55B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilité</t>
+  </si>
+  <si>
+    <t>Programmation page de modification, d'ajout, de suppression d'un compte superviseur</t>
+  </si>
+  <si>
+    <t>Branchement et ajout d'un programme permettant de faire sonner le buzzer</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,6 +1869,12 @@
       <c r="F71" s="6">
         <v>0.125</v>
       </c>
+      <c r="H71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="1">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -1880,6 +1892,12 @@
       <c r="F72" s="6">
         <v>0.125</v>
       </c>
+      <c r="H72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -2393,7 +2411,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>3.5416666666666665</v>
+        <v>3.8125</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BFAED-A52A-4CE0-9828-1440D0E55B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455FF42-ACBA-48EC-9B0B-363632EFAD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Branchement et ajout d'un programme permettant de faire sonner le buzzer</t>
+  </si>
+  <si>
+    <t>Connexion de la base de données (tables équipe et indice) avec l'application. Test d'envoi de requêtes. (Fonctionnel pour l'envoi d'indice mais a appronfondir pour les équipes).</t>
   </si>
 </sst>
 </file>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,11 +1902,17 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
+      <c r="E73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -2407,7 +2416,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.0416666666666661</v>
+        <v>4.208333333333333</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455FF42-ACBA-48EC-9B0B-363632EFAD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11AACF-0111-4531-A47E-A278D7880AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Connexion de la base de données (tables équipe et indice) avec l'application. Test d'envoi de requêtes. (Fonctionnel pour l'envoi d'indice mais a appronfondir pour les équipes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recontre d'un problème avec l'envoi des données de l'équipe vers la Base de données. Recherches sur forum et résolution avec la fonction de requête "NOW()" de MYSQL. </t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,11 +1917,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
       <c r="B74" s="5"/>
+      <c r="E74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -2416,7 +2425,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.208333333333333</v>
+        <v>4.375</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11AACF-0111-4531-A47E-A278D7880AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7F2B4-2B9F-4152-A75B-6D018BABCDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t xml:space="preserve">Recontre d'un problème avec l'envoi des données de l'équipe vers la Base de données. Recherches sur forum et résolution avec la fonction de requête "NOW()" de MYSQL. </t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (difficulté de récupération des fonction de la library)</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="B145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1924,12 @@
       <c r="A74" s="3">
         <v>43916</v>
       </c>
-      <c r="B74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E74" s="7" t="s">
         <v>85</v>
       </c>
@@ -2421,7 +2429,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.4826388888888888</v>
+        <v>3.5659722222222223</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7F2B4-2B9F-4152-A75B-6D018BABCDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B388A-C886-493F-A4D9-0F7C5D665907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>Tentative de récupération de l'uid (difficulté de récupération des fonction de la library)</t>
+  </si>
+  <si>
+    <t>Programmation page superviseur, pour gerer les créneaux (formulaire d'ajout, de suppression, de modification)</t>
+  </si>
+  <si>
+    <t>Programmation page pour reserver un créneau ( calendrier avec les dates disponibles et formulaire de réservation). Ajout d'une table MySQL "events" pour gerer les événements du calendrier</t>
   </si>
 </sst>
 </file>
@@ -956,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1925,14 @@
       <c r="F73" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43916</v>
       </c>
@@ -1935,6 +1947,12 @@
       </c>
       <c r="F74" s="6">
         <v>0.16666666666666666</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2437,7 +2455,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>3.8125</v>
+        <v>4.104166666666667</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B388A-C886-493F-A4D9-0F7C5D665907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FE2A5-6F3A-409C-AF73-7F2FC525C626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Programmation page pour reserver un créneau ( calendrier avec les dates disponibles et formulaire de réservation). Ajout d'une table MySQL "events" pour gerer les événements du calendrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et test (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
   </si>
 </sst>
 </file>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,11 +1958,17 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43917</v>
       </c>
       <c r="B75" s="5"/>
+      <c r="E75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -2451,7 +2460,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.375</v>
+        <v>4.5625</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FE2A5-6F3A-409C-AF73-7F2FC525C626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0E0B7-27D1-46E7-9523-CC2F64294861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et test (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation et tests du chronometre. Création de la fenêtre de fin de partie et création de la méthode permettant l'ouverture de celle-ci lorsque le temps est écoulé. </t>
   </si>
 </sst>
 </file>
@@ -966,7 +969,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="F82" sqref="F79:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,11 +1985,17 @@
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43920</v>
       </c>
       <c r="B78" s="5"/>
+      <c r="E78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
@@ -2460,7 +2469,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.5625</v>
+        <v>4.729166666666667</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0E0B7-27D1-46E7-9523-CC2F64294861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892AC6E-4947-4346-98F3-BDBCBBFD60B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finalisation et tests du chronometre. Création de la fenêtre de fin de partie et création de la méthode permettant l'ouverture de celle-ci lorsque le temps est écoulé. </t>
+  </si>
+  <si>
+    <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et test validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
   </si>
 </sst>
 </file>
@@ -968,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F82" sqref="F79:F82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,11 +2000,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43921</v>
       </c>
       <c r="B79" s="5"/>
+      <c r="E79" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
@@ -2469,7 +2478,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.729166666666667</v>
+        <v>4.8958333333333339</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892AC6E-4947-4346-98F3-BDBCBBFD60B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4EE12-0ECF-45F2-B5F8-7B1E6A6BB9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et test validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
+  </si>
+  <si>
+    <t>Mise à jour de la bdd, essayer de comprendre les roles et comment cela marche</t>
+  </si>
+  <si>
+    <t>Déploiement d'un nouveau calendrier de creneaux plus simple.</t>
+  </si>
+  <si>
+    <t>Nettoyage de l'applcation web, enlever les fichier innutile …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essaie de programmer le statut bloquant ou non bloquant à une réservation de créneaux </t>
   </si>
 </sst>
 </file>
@@ -971,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,6 +1987,12 @@
       <c r="F75" s="6">
         <v>0.1875</v>
       </c>
+      <c r="H75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -1999,6 +2017,12 @@
       <c r="F78" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H78" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
@@ -2011,12 +2035,21 @@
       <c r="F79" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43922</v>
       </c>
       <c r="B80" s="5"/>
+      <c r="H80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -2482,7 +2515,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>4.104166666666667</v>
+        <v>4.4375</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4EE12-0ECF-45F2-B5F8-7B1E6A6BB9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E06C0-AED0-4FD2-8653-906CC71D478A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t xml:space="preserve">Essaie de programmer le statut bloquant ou non bloquant à une réservation de créneaux </t>
+  </si>
+  <si>
+    <t>Méthode pour enregistrer le score d'une équipe à la fin d'une partie. Tests validés.</t>
   </si>
 </sst>
 </file>
@@ -983,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,6 +2047,12 @@
         <v>43922</v>
       </c>
       <c r="B80" s="5"/>
+      <c r="E80" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="H80" s="7" t="s">
         <v>93</v>
       </c>
@@ -2511,7 +2520,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>4.8958333333333339</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E06C0-AED0-4FD2-8653-906CC71D478A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0198EE-E3AD-40A3-B2B4-99304961F41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Méthode pour enregistrer le score d'une équipe à la fin d'une partie. Tests validés.</t>
+  </si>
+  <si>
+    <t>Mise à jour des requêtes SQL en remplacant l'id par la date pour la récupération des informations d'équipes. Mise à jour de la base de données en changant le parametre DATE par DATETIME pour éviter des erreurs.</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,97 +2063,104 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43923</v>
       </c>
       <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43924</v>
       </c>
       <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43925</v>
       </c>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43926</v>
       </c>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43927</v>
       </c>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43928</v>
       </c>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43931</v>
       </c>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43932</v>
       </c>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43933</v>
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43935</v>
       </c>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43936</v>
       </c>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43937</v>
       </c>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43938</v>
       </c>
@@ -2520,7 +2530,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.0000000000000009</v>
+        <v>5.0833333333333339</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0198EE-E3AD-40A3-B2B4-99304961F41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA33CB-171B-4167-9EAD-D37E5D7093EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Mise à jour des requêtes SQL en remplacant l'id par la date pour la récupération des informations d'équipes. Mise à jour de la base de données en changant le parametre DATE par DATETIME pour éviter des erreurs.</t>
+  </si>
+  <si>
+    <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
   </si>
 </sst>
 </file>
@@ -989,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,6 +2090,7 @@
         <v>43925</v>
       </c>
       <c r="B83" s="5"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
@@ -2094,11 +2098,17 @@
       </c>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43927</v>
       </c>
       <c r="B85" s="5"/>
+      <c r="E85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
@@ -2530,7 +2540,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.0833333333333339</v>
+        <v>5.2500000000000009</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA33CB-171B-4167-9EAD-D37E5D7093EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424DCB1-82C7-4C46-A39E-E5B13304BEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -422,6 +422,21 @@
   </si>
   <si>
     <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
+  </si>
+  <si>
+    <t>Résolution de problème de lié à la librérie et de son emplacement pour que le programme puisse y avoir accès.</t>
+  </si>
+  <si>
+    <t>Identification du problème des librérires avec la fonction "wait_for_tag" qui pose problème.</t>
+  </si>
+  <si>
+    <t>Programme ne ce lance pas avec le message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Programme ne ce lance pas avec même message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Recherche dans les différents chemins de fichier pour trouver l'origine du problème lier à l'erreur.</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +2004,12 @@
       <c r="A75" s="3">
         <v>43917</v>
       </c>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E75" s="7" t="s">
         <v>89</v>
       </c>
@@ -2019,7 +2039,12 @@
       <c r="A78" s="3">
         <v>43920</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E78" s="7" t="s">
         <v>90</v>
       </c>
@@ -2037,7 +2062,12 @@
       <c r="A79" s="3">
         <v>43921</v>
       </c>
-      <c r="B79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E79" s="7" t="s">
         <v>91</v>
       </c>
@@ -2077,7 +2107,12 @@
       <c r="A82" s="3">
         <v>43924</v>
       </c>
-      <c r="B82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E82" s="7" t="s">
         <v>97</v>
       </c>
@@ -2102,7 +2137,12 @@
       <c r="A85" s="3">
         <v>43927</v>
       </c>
-      <c r="B85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E85" s="7" t="s">
         <v>98</v>
       </c>
@@ -2536,7 +2576,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.5659722222222223</v>
+        <v>3.9826388888888893</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424DCB1-82C7-4C46-A39E-E5B13304BEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F636F-6647-4A14-9F66-51032E022F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-11145" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>Recherche dans les différents chemins de fichier pour trouver l'origine du problème lier à l'erreur.</t>
+  </si>
+  <si>
+    <t>mise à jour bdd, programmation sur l'application Arduino</t>
+  </si>
+  <si>
+    <t>Programmation Lien entre ajout de créneaux et calendrier</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,14 +2102,14 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43923</v>
       </c>
       <c r="B81" s="5"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43924</v>
       </c>
@@ -2119,21 +2125,27 @@
       <c r="F82" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43925</v>
       </c>
       <c r="B83" s="5"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43926</v>
       </c>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43927</v>
       </c>
@@ -2149,68 +2161,74 @@
       <c r="F85" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43928</v>
       </c>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43931</v>
       </c>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43932</v>
       </c>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43933</v>
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43935</v>
       </c>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43936</v>
       </c>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43937</v>
       </c>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43938</v>
       </c>
@@ -2584,7 +2602,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>4.4375</v>
+        <v>4.729166666666667</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F636F-6647-4A14-9F66-51032E022F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395D364-D413-49A0-8444-5B55B0490195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11145" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Programmation Lien entre ajout de créneaux et calendrier</t>
+  </si>
+  <si>
+    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Non aboutissement de celles-ci.</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,17 +2171,24 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43928</v>
       </c>
       <c r="B86" s="5"/>
+      <c r="E86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
@@ -2598,7 +2608,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.2500000000000009</v>
+        <v>5.3541666666666679</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395D364-D413-49A0-8444-5B55B0490195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F36403-1460-44F9-8854-49E2A25B8139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Non aboutissement de celles-ci.</t>
+  </si>
+  <si>
+    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Création de zones de saisies de texte pour l'envoi d'un nouvel indice à la base de données. Création et rédaction du rapport de conception.</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,12 +2186,17 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43929</v>
       </c>
       <c r="B87" s="5"/>
-      <c r="F87" s="6"/>
+      <c r="E87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
@@ -2608,7 +2616,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.3541666666666679</v>
+        <v>5.5208333333333348</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F36403-1460-44F9-8854-49E2A25B8139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB470AAD-2918-4C01-AE74-F540F4CD9BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Création de zones de saisies de texte pour l'envoi d'un nouvel indice à la base de données. Création et rédaction du rapport de conception.</t>
+  </si>
+  <si>
+    <t>test d'un remplacement du "self" part "rdr" dans la fonction wait_for_tag. Sans changement.</t>
+  </si>
+  <si>
+    <t>Recherche de post qui aurait la même erreur. Rien de probant trouver.</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2184,12 @@
       <c r="A86" s="3">
         <v>43928</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E86" s="7" t="s">
         <v>106</v>
       </c>
@@ -2190,7 +2201,12 @@
       <c r="A87" s="3">
         <v>43929</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E87" s="7" t="s">
         <v>107</v>
       </c>
@@ -2612,7 +2628,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>3.9826388888888893</v>
+        <v>4.1493055555555554</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB470AAD-2918-4C01-AE74-F540F4CD9BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30579818-D078-475F-9CAE-28B79A417F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Recherche de post qui aurait la même erreur. Rien de probant trouver.</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="E92" sqref="E90:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,11 +2217,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
+      <c r="E88" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -2632,7 +2641,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.5208333333333348</v>
+        <v>5.6250000000000018</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30579818-D078-475F-9CAE-28B79A417F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA9FFC-2D9C-4866-82CB-79ED27A58E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-10290" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
+  </si>
+  <si>
+    <t>Programmation d'un événement cliquable et d'une page de résérvation de créneaux avec les informations du créneau cliqué</t>
+  </si>
+  <si>
+    <t>Programmation Arduino, connexion de tous les composants + programme permettant d'activer buzzer et afficheur lcd  quand le bon code est rentré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation site web en général, nettyage, esthétique </t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E90:E92"/>
+    <sheetView tabSelected="1" topLeftCell="E80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,6 +2208,12 @@
       <c r="F86" s="6">
         <v>0.10416666666666667</v>
       </c>
+      <c r="H86" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
@@ -2216,8 +2231,14 @@
       <c r="F87" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43930</v>
       </c>
@@ -2228,6 +2249,12 @@
       <c r="F88" s="6">
         <v>0.10416666666666667</v>
       </c>
+      <c r="H88" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -2645,7 +2672,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>4.729166666666667</v>
+        <v>5.229166666666667</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA9FFC-2D9C-4866-82CB-79ED27A58E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138D80D-D5D2-4BE8-8888-3DEBBD1E7AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10290" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -161,22 +161,6 @@
   </si>
   <si>
     <t>Modification de l'ébauche de l'application. Reprise du diaporama de présentation pour la revue 2.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mise au point de l'oral. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage de la revue 1</t>
-    </r>
   </si>
   <si>
     <t>Diagramme de séquence pour l'application web recorrigé. Création du diagramme de séquence pour l'application web.</t>
@@ -280,13 +264,179 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Reprise du modèle relationnel de la BDD. Début du développement en C#. </t>
+      <t>. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Début de l'installation de DEBIAN (erreur carte SD a formatée en ligne de commandes) -&gt; Debian non installé.</t>
     </r>
+  </si>
+  <si>
+    <t>Diaporama et poursuite de l'UML.</t>
+  </si>
+  <si>
+    <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
+  </si>
+  <si>
+    <t>Installation de raspbian + activation de du bus spi, port GPIO + installation de l'IDE phychram(problème d'installation, non finalisé)</t>
+  </si>
+  <si>
+    <t>Reprise du diaporama pour la revue 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude approfondie de l'adaptateur RS232 - Wi-Fi (en parallèle avec un travail en ESLA sur ce même adaptateur). </t>
+  </si>
+  <si>
+    <t>Correction des diagrammes de sèquences et de classes, poursuite des modification du diaporama pour la revue 2.</t>
+  </si>
+  <si>
+    <t>Programmation du Menu du site web et amorce de la page de connexion.</t>
+  </si>
+  <si>
+    <t>Amorce du ablage de l'arduino avec ces differents composants et amorce de la programmation sur l'arduino.</t>
+  </si>
+  <si>
+    <t>Poursuite des modifications du diaporama, finalisation des diragrammes, ajout des documentation sur le gantt.</t>
+  </si>
+  <si>
+    <t>Maquette du Cablage de l'ensemble de l'application arduino</t>
+  </si>
+  <si>
+    <t>Ajout de fonctions sur mes digrammes de gantt et de séquences et mise à jour. Poursuite des modifications sur le diaporama.</t>
+  </si>
+  <si>
+    <t>Poursuite de l'application de supervision. Test de l'affichage de la caméra avec le site web stfelixlasalle.fr (utilisation de WebBrowser dans Visual Studio). Structuration globale de l'application (graphique, programmation). Mise en forme globale de la charte graphique choisie dans l'ébauche de l'application. Travail sur la fenêtre principale.</t>
+  </si>
+  <si>
+    <t>Poursuite de l'application de supervision. Travail et étude sur la trame et la méthode pour l'envoyée à l'afficheur.</t>
+  </si>
+  <si>
+    <t>Programmation de la page de connexion. Recherche comment avoir deux mots de passe differents pour deux pages differentes</t>
+  </si>
+  <si>
+    <t>Programmation de la page d'administrateur, recherche comment supprimer, ajouter, modifier la bdd depuis la page web</t>
+  </si>
+  <si>
+    <t>Tentative de résolution de l'erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résolutions de l'erreur d'installation (installation pycharm compléter) + installation de jdk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des différentes fenêtres de l'application de supervision et liens entre elles. Importation de la charte graphique (icônes et formes) dans celle-ci. Recherches sur la base de données. Création de la base de données avec PHPMyAdmin et MYSQL pour liaison avec l'application. Lecture d'un tutoriel permettant cela. </t>
+  </si>
+  <si>
+    <t>Application de supervision : Etude et comparaison de possibilités pour l'envoi d'un indice à l'afficheur.</t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid</t>
+  </si>
+  <si>
+    <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilité</t>
+  </si>
+  <si>
+    <t>Programmation page de modification, d'ajout, de suppression d'un compte superviseur</t>
+  </si>
+  <si>
+    <t>Branchement et ajout d'un programme permettant de faire sonner le buzzer</t>
+  </si>
+  <si>
+    <t>Connexion de la base de données (tables équipe et indice) avec l'application. Test d'envoi de requêtes. (Fonctionnel pour l'envoi d'indice mais a appronfondir pour les équipes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recontre d'un problème avec l'envoi des données de l'équipe vers la Base de données. Recherches sur forum et résolution avec la fonction de requête "NOW()" de MYSQL. </t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (difficulté de récupération des fonction de la library)</t>
+  </si>
+  <si>
+    <t>Programmation page superviseur, pour gerer les créneaux (formulaire d'ajout, de suppression, de modification)</t>
+  </si>
+  <si>
+    <t>Programmation page pour reserver un créneau ( calendrier avec les dates disponibles et formulaire de réservation). Ajout d'une table MySQL "events" pour gerer les événements du calendrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et test (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation et tests du chronometre. Création de la fenêtre de fin de partie et création de la méthode permettant l'ouverture de celle-ci lorsque le temps est écoulé. </t>
+  </si>
+  <si>
+    <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et test validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
+  </si>
+  <si>
+    <t>Mise à jour de la bdd, essayer de comprendre les roles et comment cela marche</t>
+  </si>
+  <si>
+    <t>Déploiement d'un nouveau calendrier de creneaux plus simple.</t>
+  </si>
+  <si>
+    <t>Nettoyage de l'applcation web, enlever les fichier innutile …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essaie de programmer le statut bloquant ou non bloquant à une réservation de créneaux </t>
+  </si>
+  <si>
+    <t>Méthode pour enregistrer le score d'une équipe à la fin d'une partie. Tests validés.</t>
+  </si>
+  <si>
+    <t>Mise à jour des requêtes SQL en remplacant l'id par la date pour la récupération des informations d'équipes. Mise à jour de la base de données en changant le parametre DATE par DATETIME pour éviter des erreurs.</t>
+  </si>
+  <si>
+    <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
+  </si>
+  <si>
+    <t>Résolution de problème de lié à la librérie et de son emplacement pour que le programme puisse y avoir accès.</t>
+  </si>
+  <si>
+    <t>Identification du problème des librérires avec la fonction "wait_for_tag" qui pose problème.</t>
+  </si>
+  <si>
+    <t>Programme ne ce lance pas avec le message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Programme ne ce lance pas avec même message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Recherche dans les différents chemins de fichier pour trouver l'origine du problème lier à l'erreur.</t>
+  </si>
+  <si>
+    <t>mise à jour bdd, programmation sur l'application Arduino</t>
+  </si>
+  <si>
+    <t>Programmation Lien entre ajout de créneaux et calendrier</t>
+  </si>
+  <si>
+    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Non aboutissement de celles-ci.</t>
+  </si>
+  <si>
+    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Création de zones de saisies de texte pour l'envoi d'un nouvel indice à la base de données. Création et rédaction du rapport de conception.</t>
+  </si>
+  <si>
+    <t>test d'un remplacement du "self" part "rdr" dans la fonction wait_for_tag. Sans changement.</t>
+  </si>
+  <si>
+    <t>Recherche de post qui aurait la même erreur. Rien de probant trouver.</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
+  </si>
+  <si>
+    <t>Programmation d'un événement cliquable et d'une page de résérvation de créneaux avec les informations du créneau cliqué</t>
+  </si>
+  <si>
+    <t>Programmation Arduino, connexion de tous les composants + programme permettant d'activer buzzer et afficheur lcd  quand le bon code est rentré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation site web en général, nettyage, esthétique </t>
+  </si>
+  <si>
+    <t>Poursuite des recherches et nouveaux tests pour la récupération des résultats de la requête SQL dans un tableau.</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -297,176 +447,32 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Début de l'installation de DEBIAN (erreur carte SD a formatée en ligne de commandes) -&gt; Debian non installé.</t>
+      <t xml:space="preserve">. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Reprise du modèle relationnel de la BDD. Début du développement en C#. </t>
     </r>
   </si>
   <si>
-    <t>Diaporama et poursuite de l'UML.</t>
-  </si>
-  <si>
-    <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
-  </si>
-  <si>
-    <t>Installation de raspbian + activation de du bus spi, port GPIO + installation de l'IDE phychram(problème d'installation, non finalisé)</t>
-  </si>
-  <si>
-    <t>Reprise du diaporama pour la revue 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude approfondie de l'adaptateur RS232 - Wi-Fi (en parallèle avec un travail en ESLA sur ce même adaptateur). </t>
-  </si>
-  <si>
-    <t>Correction des diagrammes de sèquences et de classes, poursuite des modification du diaporama pour la revue 2.</t>
-  </si>
-  <si>
-    <t>Programmation du Menu du site web et amorce de la page de connexion.</t>
-  </si>
-  <si>
-    <t>Amorce du ablage de l'arduino avec ces differents composants et amorce de la programmation sur l'arduino.</t>
-  </si>
-  <si>
-    <t>Poursuite des modifications du diaporama, finalisation des diragrammes, ajout des documentation sur le gantt.</t>
-  </si>
-  <si>
-    <t>Maquette du Cablage de l'ensemble de l'application arduino</t>
-  </si>
-  <si>
-    <t>Ajout de fonctions sur mes digrammes de gantt et de séquences et mise à jour. Poursuite des modifications sur le diaporama.</t>
-  </si>
-  <si>
-    <t>Poursuite de l'application de supervision. Test de l'affichage de la caméra avec le site web stfelixlasalle.fr (utilisation de WebBrowser dans Visual Studio). Structuration globale de l'application (graphique, programmation). Mise en forme globale de la charte graphique choisie dans l'ébauche de l'application. Travail sur la fenêtre principale.</t>
-  </si>
-  <si>
-    <t>Poursuite de l'application de supervision. Travail et étude sur la trame et la méthode pour l'envoyée à l'afficheur.</t>
-  </si>
-  <si>
-    <t>Programmation de la page de connexion. Recherche comment avoir deux mots de passe differents pour deux pages differentes</t>
-  </si>
-  <si>
-    <t>Programmation de la page d'administrateur, recherche comment supprimer, ajouter, modifier la bdd depuis la page web</t>
-  </si>
-  <si>
-    <t>Tentative de résolution de l'erreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résolutions de l'erreur d'installation (installation pycharm compléter) + installation de jdk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création des différentes fenêtres de l'application de supervision et liens entre elles. Importation de la charte graphique (icônes et formes) dans celle-ci. Recherches sur la base de données. Création de la base de données avec PHPMyAdmin et MYSQL pour liaison avec l'application. Lecture d'un tutoriel permettant cela. </t>
-  </si>
-  <si>
-    <t>Application de supervision : Etude et comparaison de possibilités pour l'envoi d'un indice à l'afficheur.</t>
-  </si>
-  <si>
-    <t>Tentative de récupération de l'uid</t>
-  </si>
-  <si>
-    <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
-  </si>
-  <si>
-    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilité</t>
-  </si>
-  <si>
-    <t>Programmation page de modification, d'ajout, de suppression d'un compte superviseur</t>
-  </si>
-  <si>
-    <t>Branchement et ajout d'un programme permettant de faire sonner le buzzer</t>
-  </si>
-  <si>
-    <t>Connexion de la base de données (tables équipe et indice) avec l'application. Test d'envoi de requêtes. (Fonctionnel pour l'envoi d'indice mais a appronfondir pour les équipes).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recontre d'un problème avec l'envoi des données de l'équipe vers la Base de données. Recherches sur forum et résolution avec la fonction de requête "NOW()" de MYSQL. </t>
-  </si>
-  <si>
-    <t>Tentative de récupération de l'uid (difficulté de récupération des fonction de la library)</t>
-  </si>
-  <si>
-    <t>Programmation page superviseur, pour gerer les créneaux (formulaire d'ajout, de suppression, de modification)</t>
-  </si>
-  <si>
-    <t>Programmation page pour reserver un créneau ( calendrier avec les dates disponibles et formulaire de réservation). Ajout d'une table MySQL "events" pour gerer les événements du calendrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et test (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalisation et tests du chronometre. Création de la fenêtre de fin de partie et création de la méthode permettant l'ouverture de celle-ci lorsque le temps est écoulé. </t>
-  </si>
-  <si>
-    <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et test validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
-  </si>
-  <si>
-    <t>Mise à jour de la bdd, essayer de comprendre les roles et comment cela marche</t>
-  </si>
-  <si>
-    <t>Déploiement d'un nouveau calendrier de creneaux plus simple.</t>
-  </si>
-  <si>
-    <t>Nettoyage de l'applcation web, enlever les fichier innutile …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essaie de programmer le statut bloquant ou non bloquant à une réservation de créneaux </t>
-  </si>
-  <si>
-    <t>Méthode pour enregistrer le score d'une équipe à la fin d'une partie. Tests validés.</t>
-  </si>
-  <si>
-    <t>Mise à jour des requêtes SQL en remplacant l'id par la date pour la récupération des informations d'équipes. Mise à jour de la base de données en changant le parametre DATE par DATETIME pour éviter des erreurs.</t>
-  </si>
-  <si>
-    <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
-  </si>
-  <si>
-    <t>Résolution de problème de lié à la librérie et de son emplacement pour que le programme puisse y avoir accès.</t>
-  </si>
-  <si>
-    <t>Identification du problème des librérires avec la fonction "wait_for_tag" qui pose problème.</t>
-  </si>
-  <si>
-    <t>Programme ne ce lance pas avec le message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
-  </si>
-  <si>
-    <t>Programme ne ce lance pas avec même message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
-  </si>
-  <si>
-    <t>Recherche dans les différents chemins de fichier pour trouver l'origine du problème lier à l'erreur.</t>
-  </si>
-  <si>
-    <t>mise à jour bdd, programmation sur l'application Arduino</t>
-  </si>
-  <si>
-    <t>Programmation Lien entre ajout de créneaux et calendrier</t>
-  </si>
-  <si>
-    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Non aboutissement de celles-ci.</t>
-  </si>
-  <si>
-    <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Création de zones de saisies de texte pour l'envoi d'un nouvel indice à la base de données. Création et rédaction du rapport de conception.</t>
-  </si>
-  <si>
-    <t>test d'un remplacement du "self" part "rdr" dans la fonction wait_for_tag. Sans changement.</t>
-  </si>
-  <si>
-    <t>Recherche de post qui aurait la même erreur. Rien de probant trouver.</t>
-  </si>
-  <si>
-    <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
-  </si>
-  <si>
-    <t>Programmation d'un événement cliquable et d'une page de résérvation de créneaux avec les informations du créneau cliqué</t>
-  </si>
-  <si>
-    <t>Programmation Arduino, connexion de tous les composants + programme permettant d'activer buzzer et afficheur lcd  quand le bon code est rentré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmation site web en général, nettyage, esthétique </t>
+    <r>
+      <t xml:space="preserve">Mise au point de l'oral. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +555,23 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -663,7 +686,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,6 +737,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1079,10 @@
     <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="16"/>
-    <col min="5" max="5" width="44.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="16"/>
-    <col min="8" max="8" width="42.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="20" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="17"/>
     <col min="11" max="16384" width="11.42578125" style="2"/>
@@ -1066,13 +1098,13 @@
       <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1130,7 +1162,6 @@
         <v>43846</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1163,21 +1194,18 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43849</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43850</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1196,7 +1224,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1219,7 +1247,7 @@
         <v>0.125</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>0.125</v>
@@ -1230,35 +1258,30 @@
         <v>43853</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43854</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43855</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43856</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43857</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1277,7 +1300,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1">
         <v>0.16666666666666666</v>
@@ -1300,7 +1323,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1311,7 +1334,6 @@
         <v>43860</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1338,28 +1360,25 @@
         <v>43862</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43863</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43864</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43865</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1371,7 +1390,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="I23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1394,7 +1413,7 @@
         <v>0.125</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1">
         <v>0.125</v>
@@ -1405,7 +1424,6 @@
         <v>43867</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1424,7 +1442,7 @@
         <v>0.25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="1">
         <v>0.25</v>
@@ -1435,21 +1453,18 @@
         <v>43869</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43870</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43871</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1468,7 +1483,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1">
         <v>0.16666666666666666</v>
@@ -1491,7 +1506,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1502,7 +1517,6 @@
         <v>43874</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -1521,7 +1535,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="1">
         <v>0.25</v>
@@ -1532,70 +1546,60 @@
         <v>43876</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43877</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43878</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43879</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43880</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43881</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43882</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43883</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43884</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43885</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1609,20 +1613,20 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F45" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43888</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1">
         <v>6.25E-2</v>
@@ -1657,19 +1661,19 @@
         <v>43893</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>49</v>
+      <c r="E51" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F51" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>44</v>
+      <c r="H51" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I51" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1680,19 +1684,19 @@
         <v>43894</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
         <v>0.125</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>50</v>
+      <c r="E52" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F52" s="6">
         <v>0.125</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>69</v>
+      <c r="H52" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I52" s="1">
         <v>0.125</v>
@@ -1709,19 +1713,19 @@
         <v>43896</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1">
         <v>0.25</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>54</v>
+      <c r="E54" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F54" s="6">
         <v>0.25</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>70</v>
+      <c r="H54" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I54" s="1">
         <v>0.25</v>
@@ -1750,19 +1754,19 @@
         <v>43900</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>56</v>
+      <c r="E58" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F58" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>70</v>
+      <c r="H58" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I58" s="1">
         <v>0.16666666666666666</v>
@@ -1773,19 +1777,19 @@
         <v>43901</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>57</v>
+      <c r="E59" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F59" s="6">
         <v>0.125</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>68</v>
+      <c r="H59" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I59" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1802,19 +1806,19 @@
         <v>43903</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1">
         <v>0.25</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>58</v>
+      <c r="E61" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F61" s="6">
         <v>0.25</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>65</v>
+      <c r="H61" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I61" s="1">
         <v>0.25</v>
@@ -1837,14 +1841,14 @@
         <v>43906</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="E64" s="7" t="s">
-        <v>61</v>
+      <c r="E64" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F64" s="6">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>67</v>
+      <c r="H64" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I64" s="1">
         <v>0.16666666666666666</v>
@@ -1855,19 +1859,19 @@
         <v>43907</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F65" s="6">
         <v>0.1875</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>66</v>
+      <c r="H65" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="I65" s="1">
         <v>0.20833333333333334</v>
@@ -1878,19 +1882,19 @@
         <v>43908</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>71</v>
+      <c r="E66" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F66" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>73</v>
+      <c r="H66" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I66" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1901,31 +1905,31 @@
         <v>43909</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F67" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="I67" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43910</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>77</v>
+      <c r="E68" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F68" s="6">
         <v>0.16666666666666666</v>
@@ -1948,19 +1952,19 @@
         <v>43913</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>78</v>
+      <c r="E71" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F71" s="6">
         <v>0.125</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>83</v>
+      <c r="H71" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I71" s="1">
         <v>6.25E-2</v>
@@ -1971,19 +1975,19 @@
         <v>43914</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="1">
         <v>0.125</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="I72" s="1">
         <v>0.20833333333333334</v>
@@ -1994,14 +1998,14 @@
         <v>43915</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="E73" s="7" t="s">
-        <v>84</v>
+      <c r="E73" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F73" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>87</v>
+      <c r="H73" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="I73" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2012,19 +2016,19 @@
         <v>43916</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>85</v>
+      <c r="E74" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F74" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>88</v>
+      <c r="H74" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I74" s="1">
         <v>0.20833333333333334</v>
@@ -2035,19 +2039,19 @@
         <v>43917</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1">
         <v>0.125</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>89</v>
+      <c r="E75" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="F75" s="6">
         <v>0.1875</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>92</v>
+      <c r="H75" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="I75" s="1">
         <v>0.125</v>
@@ -2070,19 +2074,19 @@
         <v>43920</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>90</v>
+      <c r="E78" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="F78" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>94</v>
+      <c r="H78" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="I78" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2093,19 +2097,19 @@
         <v>43921</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>91</v>
+      <c r="E79" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F79" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>95</v>
+      <c r="H79" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2113,14 +2117,14 @@
         <v>43922</v>
       </c>
       <c r="B80" s="5"/>
-      <c r="E80" s="7" t="s">
-        <v>96</v>
+      <c r="E80" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F80" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>93</v>
+      <c r="H80" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I80" s="1">
         <v>0.125</v>
@@ -2138,19 +2142,19 @@
         <v>43924</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C82" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>97</v>
+      <c r="E82" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F82" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H82" s="7" t="s">
-        <v>104</v>
+      <c r="H82" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="I82" s="1">
         <v>0.125</v>
@@ -2174,19 +2178,19 @@
         <v>43927</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>98</v>
+      <c r="E85" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F85" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>105</v>
+      <c r="H85" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I85" s="1">
         <v>0.16666666666666666</v>
@@ -2197,19 +2201,19 @@
         <v>43928</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C86" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>106</v>
+      <c r="E86" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F86" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>111</v>
+      <c r="H86" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="I86" s="1">
         <v>0.16666666666666666</v>
@@ -2220,19 +2224,19 @@
         <v>43929</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>107</v>
+      <c r="E87" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F87" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>113</v>
+      <c r="H87" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="I87" s="1">
         <v>0.125</v>
@@ -2243,24 +2247,30 @@
         <v>43930</v>
       </c>
       <c r="B88" s="5"/>
-      <c r="E88" s="7" t="s">
-        <v>110</v>
+      <c r="E88" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F88" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>112</v>
+      <c r="H88" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I88" s="1">
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43931</v>
       </c>
       <c r="B89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
@@ -2668,7 +2678,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.6250000000000018</v>
+        <v>5.7083333333333348</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138D80D-D5D2-4BE8-8888-3DEBBD1E7AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3CCEF-6BEE-474F-BD7B-FB7043A619EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -473,6 +473,9 @@
       </rPr>
       <t>Passage de la revue 1</t>
     </r>
+  </si>
+  <si>
+    <t>Révision du câblage. UID récupérer. Le problème venait du cable qui était relier au port "IRQ".</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2249,12 @@
       <c r="A88" s="3">
         <v>43930</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
       </c>
@@ -2264,7 +2272,12 @@
       <c r="A89" s="3">
         <v>43931</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6.25E-2</v>
+      </c>
       <c r="E89" s="5" t="s">
         <v>112</v>
       </c>
@@ -2284,11 +2297,16 @@
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -2674,7 +2692,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>4.1493055555555554</v>
+        <v>4.5034722222222214</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3CCEF-6BEE-474F-BD7B-FB7043A619EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB3032-4B41-49CF-919E-79B9092970C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Révision du câblage. UID récupérer. Le problème venait du cable qui était relier au port "IRQ".</t>
+  </si>
+  <si>
+    <t>Recherches sur la récupération de données SQL dans une listbox et mise en place avec la fenêtre d'envoi d'indice à l'afficheur. Il est désormais possible de selectionner un indice prédéfini (actualisation systématique) et d'en créer un nouveau (enregistrer après envoi).</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +698,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +759,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1072,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,12 +2322,20 @@
       <c r="C92" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43935</v>
       </c>
       <c r="B93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
@@ -2696,7 +2719,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.7083333333333348</v>
+        <v>5.8750000000000018</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB3032-4B41-49CF-919E-79B9092970C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB003E9-7AA0-4A0F-AEA8-52911B1EAA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Recherches sur la récupération de données SQL dans une listbox et mise en place avec la fenêtre d'envoi d'indice à l'afficheur. Il est désormais possible de selectionner un indice prédéfini (actualisation systématique) et d'en créer un nouveau (enregistrer après envoi).</t>
+  </si>
+  <si>
+    <t>Création d'un programme pour l'allumage de la led si l'uid est valide. UID est bien prit en compte mais la LED ne s'allume pas. Mettre plusieurs lecteurs RFID impossible car il y un manque de cables.</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2332,12 @@
       <c r="A93" s="3">
         <v>43935</v>
       </c>
-      <c r="B93" s="5"/>
+      <c r="B93" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E93" s="5" t="s">
         <v>116</v>
       </c>
@@ -2715,7 +2723,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>4.5034722222222214</v>
+        <v>4.6701388888888884</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB003E9-7AA0-4A0F-AEA8-52911B1EAA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA727BF6-7AEF-43E0-9784-6CAFC2989EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Création d'un programme pour l'allumage de la led si l'uid est valide. UID est bien prit en compte mais la LED ne s'allume pas. Mettre plusieurs lecteurs RFID impossible car il y un manque de cables.</t>
+  </si>
+  <si>
+    <t>Poursuite de la fenêtre d'envoi d'indice à l'afficheur et de ses fonctions. Avancement des recherches pour la mise en tableau des resultats d'une requête SQL (fin de la partie). Avancement de la rédaction du rapport de conception.</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,11 +2348,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43936</v>
       </c>
       <c r="B94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -2727,7 +2736,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>5.8750000000000018</v>
+        <v>6.0416666666666687</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA727BF6-7AEF-43E0-9784-6CAFC2989EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F516EF7-6FBE-49CA-9D08-1ED252C8845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Poursuite de la fenêtre d'envoi d'indice à l'afficheur et de ses fonctions. Avancement des recherches pour la mise en tableau des resultats d'une requête SQL (fin de la partie). Avancement de la rédaction du rapport de conception.</t>
+  </si>
+  <si>
+    <t>Mise a jour du programme pour que la LED s'allume en fonction de l'état du lecteur RFID. Programme fonctionnel.</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2355,12 @@
       <c r="A94" s="3">
         <v>43936</v>
       </c>
-      <c r="B94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E94" s="5" t="s">
         <v>118</v>
       </c>
@@ -2732,7 +2740,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>4.6701388888888884</v>
+        <v>4.8784722222222214</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F516EF7-6FBE-49CA-9D08-1ED252C8845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79FA606-38DF-4D4B-B75D-551D5D7714A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Mise a jour du programme pour que la LED s'allume en fonction de l'état du lecteur RFID. Programme fonctionnel.</t>
+  </si>
+  <si>
+    <t>Recherches sur le serveur/client socket asynchrone, non abouties. Reprises des recherches sur le tableau des équipes et des scores en fin de partie. Adaptation d'un tutotiel avec les requêtes et méthodes personnalisées. Bonne piste avec ListView, non terminée, à suivre.</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,11 +2371,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43937</v>
       </c>
       <c r="B95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -2744,7 +2753,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.0416666666666687</v>
+        <v>6.2291666666666687</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79FA606-38DF-4D4B-B75D-551D5D7714A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937189A-19A6-4BA8-A12A-61F6A792B089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Recherches sur le serveur/client socket asynchrone, non abouties. Reprises des recherches sur le tableau des équipes et des scores en fin de partie. Adaptation d'un tutotiel avec les requêtes et méthodes personnalisées. Bonne piste avec ListView, non terminée, à suivre.</t>
+  </si>
+  <si>
+    <t>Après vérification en postant une discussion sur un forum, il est impossible d'utiliser une ListView sur une fenêtre WPF C#. Utiliser un GridView avec liaison BDD (assez complexe et long). Pour palier au problème, création d'une form qui recupère les équipes, la date du jeu et leur score. Cette form est appelée par un bouton présent dans la fenêtre de fin de partie (classement des équipes). Tests fonctionnels, reste à reproduire la charte graphique sur cette form.</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,11 +2386,17 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43938</v>
       </c>
       <c r="B96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -2753,7 +2762,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.2291666666666687</v>
+        <v>6.4166666666666687</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937189A-19A6-4BA8-A12A-61F6A792B089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F22E0-B9FC-4622-8D11-4773CF964624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Après vérification en postant une discussion sur un forum, il est impossible d'utiliser une ListView sur une fenêtre WPF C#. Utiliser un GridView avec liaison BDD (assez complexe et long). Pour palier au problème, création d'une form qui recupère les équipes, la date du jeu et leur score. Cette form est appelée par un bouton présent dans la fenêtre de fin de partie (classement des équipes). Tests fonctionnels, reste à reproduire la charte graphique sur cette form.</t>
+  </si>
+  <si>
+    <t>Mise en forme du classement des équipes. Reproduction de format sur les différents boutons de l'application. Test du chronometre sur 20 min et observation d'un écart de 15 secondes. Poursuite du rapport de conception (partie personnelle).</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,97 +2401,103 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43939</v>
       </c>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43940</v>
       </c>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43941</v>
       </c>
       <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E99" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43942</v>
       </c>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43943</v>
       </c>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43944</v>
       </c>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43945</v>
       </c>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43946</v>
       </c>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43947</v>
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43948</v>
       </c>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43949</v>
       </c>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43950</v>
       </c>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43951</v>
       </c>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43952</v>
       </c>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43953</v>
       </c>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43954</v>
       </c>
@@ -2762,7 +2771,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.4166666666666687</v>
+        <v>6.5833333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F22E0-B9FC-4622-8D11-4773CF964624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D6459-9305-4455-ADD5-E2BF2D79A72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Mise en forme du classement des équipes. Reproduction de format sur les différents boutons de l'application. Test du chronometre sur 20 min et observation d'un écart de 15 secondes. Poursuite du rapport de conception (partie personnelle).</t>
+  </si>
+  <si>
+    <t>Création d'une fenêtre de confirmation d'annulation de partie volontaire (possibilié de retourner à la partie). Poursuite du rapport de conception (partie personnelle).</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,11 +2428,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43942</v>
       </c>
       <c r="B100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -2771,7 +2780,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.5833333333333357</v>
+        <v>6.7500000000000027</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D6459-9305-4455-ADD5-E2BF2D79A72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A08ED8-52CC-44FC-838A-D5240CA66AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Création d'une fenêtre de confirmation d'annulation de partie volontaire (possibilié de retourner à la partie). Poursuite du rapport de conception (partie personnelle).</t>
+  </si>
+  <si>
+    <t>Poursuite du développement de la fenêtre d'annulation de fin de partie. Configuration et recherches sur l'adaptateur RS232/Wi-Fi SOLLAE, problème rencontré avec la connexion à l'ordinateur…</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,11 +2443,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43943</v>
       </c>
       <c r="B101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -2780,7 +2789,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.7500000000000027</v>
+        <v>6.9166666666666696</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A08ED8-52CC-44FC-838A-D5240CA66AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148033A-D802-43E5-A0C9-63407E91BA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Poursuite du développement de la fenêtre d'annulation de fin de partie. Configuration et recherches sur l'adaptateur RS232/Wi-Fi SOLLAE, problème rencontré avec la connexion à l'ordinateur…</t>
+  </si>
+  <si>
+    <t>Recherches et tests de fermeture de la fenêtre principale depuis une autre fenêtre. Non abouties. Poursuite de la tentative de paramétrage de l'adaptateur RS232/Wi-Fi, sans succès. Signe de défaillance matérielle ?</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,11 +2458,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43944</v>
       </c>
       <c r="B102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -2789,7 +2798,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>6.9166666666666696</v>
+        <v>7.0208333333333366</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148033A-D802-43E5-A0C9-63407E91BA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C4572-60A2-40C6-8B59-AEE1A9E11E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="127">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Recherches et tests de fermeture de la fenêtre principale depuis une autre fenêtre. Non abouties. Poursuite de la tentative de paramétrage de l'adaptateur RS232/Wi-Fi, sans succès. Signe de défaillance matérielle ?</t>
+  </si>
+  <si>
+    <t>Poursuite de la tentative de configuration de l'adaptateur RS232/Wi-Fi, sans succès mais peut-être résolution après mise à jour de Windows… Test de longue durée (40min) de l'application avec ses diverses fonctions.</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,11 +2473,17 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43945</v>
       </c>
       <c r="B103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -2798,7 +2807,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.0208333333333366</v>
+        <v>7.1250000000000036</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C4572-60A2-40C6-8B59-AEE1A9E11E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46AD691-57F5-4938-A1D0-2EA33D3B70E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>Poursuite de la tentative de configuration de l'adaptateur RS232/Wi-Fi, sans succès mais peut-être résolution après mise à jour de Windows… Test de longue durée (40min) de l'application avec ses diverses fonctions.</t>
+  </si>
+  <si>
+    <t>Création de deux textblock permettant de récupérer le dernier indice envoyé à la base de données ainsi que l'équipe en cours. Affichage de ces deux données sur la fenêtre principale. Tentative de configuration de l'adaptateur et demande d'aide mais sans succès.</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,11 +2500,17 @@
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43948</v>
       </c>
       <c r="B106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -2807,7 +2816,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.1250000000000036</v>
+        <v>7.3125000000000036</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46AD691-57F5-4938-A1D0-2EA33D3B70E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E789ACF-9124-4615-AE96-239D084E593D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>Création de deux textblock permettant de récupérer le dernier indice envoyé à la base de données ainsi que l'équipe en cours. Affichage de ces deux données sur la fenêtre principale. Tentative de configuration de l'adaptateur et demande d'aide mais sans succès.</t>
+  </si>
+  <si>
+    <t>Modifications des interfaces graphiques de l'application et poursuite de la récupération du nom de l'équipe et du dernier indice envoyé. Réalisation de tests de l'ensemble des fonctions.</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,11 +2515,17 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43949</v>
       </c>
       <c r="B107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -2816,7 +2825,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.3125000000000036</v>
+        <v>7.3958333333333366</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E789ACF-9124-4615-AE96-239D084E593D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B7EED-F7E7-4F4B-A8B0-7C6B0307DE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Modifications des interfaces graphiques de l'application et poursuite de la récupération du nom de l'équipe et du dernier indice envoyé. Réalisation de tests de l'ensemble des fonctions.</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport de conception et étude de certains élements pour présentation. Apport de quelques corrections sur l'application de supervision avec l'aide en Visio de Monsieur HOURDIN. Changement des paramètres de la fenêtre de confirmation de fin de partie et création d'une fonction "Terminer Partie()" auquel Guillaume pourra déposer la partie Socket Client-Serveur.</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,11 +2530,17 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43950</v>
       </c>
       <c r="B108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -2825,7 +2834,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.3958333333333366</v>
+        <v>7.5833333333333366</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B7EED-F7E7-4F4B-A8B0-7C6B0307DE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97915E-31A1-4875-AB64-E7CC62F1D462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t>Poursuite du rapport de conception et étude de certains élements pour présentation. Apport de quelques corrections sur l'application de supervision avec l'aide en Visio de Monsieur HOURDIN. Changement des paramètres de la fenêtre de confirmation de fin de partie et création d'une fonction "Terminer Partie()" auquel Guillaume pourra déposer la partie Socket Client-Serveur.</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport de conception</t>
+  </si>
+  <si>
+    <t>Ecriture du programme pour le module relais.</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport de conception.</t>
+  </si>
+  <si>
+    <t>Reception des jumpers manquant pour faire correctement les tests. Test du programme pour le module relais (programme tourne correctement mais aucun son de déclanchement entendu). Branchement de deux lecteur RFID et test des deux lecteurs, seul le premier branché fonctionne. Recherche sur les thread en python asynchrone qui permettrait de n'avoir aucune boucle "d'écoute" bloquante.</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2450,12 @@
       <c r="A99" s="3">
         <v>43941</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E99" s="5" t="s">
         <v>122</v>
       </c>
@@ -2450,7 +2467,12 @@
       <c r="A100" s="3">
         <v>43942</v>
       </c>
-      <c r="B100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E100" s="5" t="s">
         <v>123</v>
       </c>
@@ -2462,7 +2484,12 @@
       <c r="A101" s="3">
         <v>43943</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E101" s="5" t="s">
         <v>124</v>
       </c>
@@ -2474,7 +2501,12 @@
       <c r="A102" s="3">
         <v>43944</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E102" s="5" t="s">
         <v>125</v>
       </c>
@@ -2486,7 +2518,12 @@
       <c r="A103" s="3">
         <v>43945</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E103" s="5" t="s">
         <v>126</v>
       </c>
@@ -2510,7 +2547,12 @@
       <c r="A106" s="3">
         <v>43948</v>
       </c>
-      <c r="B106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E106" s="5" t="s">
         <v>127</v>
       </c>
@@ -2522,7 +2564,12 @@
       <c r="A107" s="3">
         <v>43949</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.25</v>
+      </c>
       <c r="E107" s="5" t="s">
         <v>128</v>
       </c>
@@ -2534,7 +2581,12 @@
       <c r="A108" s="3">
         <v>43950</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="E108" s="5" t="s">
         <v>129</v>
       </c>
@@ -2830,7 +2882,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>4.8784722222222214</v>
+        <v>6.2951388888888875</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97915E-31A1-4875-AB64-E7CC62F1D462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C650A25-646E-4B25-847E-B127F6C93385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -530,6 +530,33 @@
   </si>
   <si>
     <t>Reception des jumpers manquant pour faire correctement les tests. Test du programme pour le module relais (programme tourne correctement mais aucun son de déclanchement entendu). Branchement de deux lecteur RFID et test des deux lecteurs, seul le premier branché fonctionne. Recherche sur les thread en python asynchrone qui permettrait de n'avoir aucune boucle "d'écoute" bloquante.</t>
+  </si>
+  <si>
+    <t>Développement de l'esthétisme et de quelques améliorations de la page web et rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Développement des exigences du système, essaie de récuperer l'id du superviseur qui modifie, supprime ou ajoute un créneau</t>
+  </si>
+  <si>
+    <t>Poursuite du développement des exigences du système et de la rédaction du rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettoyage de NetBeans </t>
+  </si>
+  <si>
+    <t>Rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Poursuite de la rédaction du rapport et programmation de la musique au claire de la lune du buzzer</t>
+  </si>
+  <si>
+    <t>Développement web, gestions créneaux</t>
+  </si>
+  <si>
+    <t>Développement  de la gestions utilisateur (admin et superviseur), rediréction en fonction du mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction du rapport </t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,6 +2377,12 @@
       <c r="F89" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="H89" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
@@ -2363,7 +2396,7 @@
       </c>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43934</v>
       </c>
@@ -2375,6 +2408,12 @@
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="22"/>
+      <c r="H92" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -2421,6 +2460,12 @@
       <c r="F95" s="6">
         <v>0.1875</v>
       </c>
+      <c r="H95" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -2433,20 +2478,26 @@
       <c r="F96" s="6">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43939</v>
       </c>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43940</v>
       </c>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43941</v>
       </c>
@@ -2462,8 +2513,14 @@
       <c r="F99" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="H99" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43942</v>
       </c>
@@ -2479,8 +2536,14 @@
       <c r="F100" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H100" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43943</v>
       </c>
@@ -2496,8 +2559,14 @@
       <c r="F101" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43944</v>
       </c>
@@ -2513,8 +2582,14 @@
       <c r="F102" s="6">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H102" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43945</v>
       </c>
@@ -2530,20 +2605,26 @@
       <c r="F103" s="6">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43946</v>
       </c>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43947</v>
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43948</v>
       </c>
@@ -2559,8 +2640,14 @@
       <c r="F106" s="6">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="H106" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43949</v>
       </c>
@@ -2576,8 +2663,14 @@
       <c r="F107" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="H107" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43950</v>
       </c>
@@ -2593,26 +2686,32 @@
       <c r="F108" s="6">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43951</v>
       </c>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43952</v>
       </c>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43953</v>
       </c>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43954</v>
       </c>
@@ -2890,7 +2989,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>5.229166666666667</v>
+        <v>7.2291666666666652</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C650A25-646E-4B25-847E-B127F6C93385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B6361-D0F3-41FF-A963-021B9C4BBC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rédaction du rapport </t>
+  </si>
+  <si>
+    <t>Résolution de quelques erreurs de programmation dans l'application de supervision. Poursuite du rapport de conception. Création de la structure complète du rapport d'analyse et de spécifications et intégration du diagramme de classe, des diagrmmes de séquences, présentation du projet dans celui-ci.</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,11 +2696,17 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43951</v>
       </c>
       <c r="B109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
@@ -2985,7 +2994,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.5833333333333366</v>
+        <v>7.8333333333333366</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B6361-D0F3-41FF-A963-021B9C4BBC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF9962-ECE1-427E-8A48-5B7FCF46A298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2700,12 @@
       <c r="A109" s="3">
         <v>43951</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E109" s="5" t="s">
         <v>143</v>
       </c>
@@ -2712,7 +2717,12 @@
       <c r="A110" s="3">
         <v>43952</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -2990,7 +3000,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>6.2951388888888875</v>
+        <v>6.6284722222222205</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF9962-ECE1-427E-8A48-5B7FCF46A298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24091E43-593B-480A-805F-1C07BB77F55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Résolution de quelques erreurs de programmation dans l'application de supervision. Poursuite du rapport de conception. Création de la structure complète du rapport d'analyse et de spécifications et intégration du diagramme de classe, des diagrmmes de séquences, présentation du projet dans celui-ci.</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport d'analyse et de spécification.</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2716,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43952</v>
       </c>
@@ -2722,6 +2725,12 @@
       </c>
       <c r="C110" s="1">
         <v>0.20833333333333334</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,7 +3013,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>7.8333333333333366</v>
+        <v>8.0000000000000036</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24091E43-593B-480A-805F-1C07BB77F55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C310182-6A5B-46D0-9C2E-BF530FEB65A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="146">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Poursuite du rapport d'analyse et de spécification.</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport d'analyse et de conception</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,6 +2718,12 @@
       <c r="F109" s="6">
         <v>0.25</v>
       </c>
+      <c r="H109" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
@@ -2732,6 +2741,12 @@
       <c r="F110" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H110" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -3017,7 +3032,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>7.2291666666666652</v>
+        <v>7.6458333333333313</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C310182-6A5B-46D0-9C2E-BF530FEB65A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DAEDF-7575-4F29-8579-B792F58C6236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Rédaction du rapport d'analyse et de conception</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport de conception + rapport d'annalyse .</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,17 +2751,27 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43953</v>
       </c>
-      <c r="B111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43954</v>
       </c>
-      <c r="B112" s="5"/>
+      <c r="B112" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -3024,7 +3037,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>6.6284722222222205</v>
+        <v>7.0451388888888875</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DAEDF-7575-4F29-8579-B792F58C6236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694C402-FE7C-47C8-95C2-3E8473B0E6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Rédaction du rapport de conception + rapport d'annalyse .</t>
+  </si>
+  <si>
+    <t>Finalisation des versions intermédiaires des rapports de conception (regroupement de l'ensemble des rapports en un seul) et du rapport de spécifications &amp; analyses. Dépôt effectué à 12h dans le SharePoint des projets.</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,6 +2764,12 @@
       <c r="C111" s="1">
         <v>0.25</v>
       </c>
+      <c r="E111" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
@@ -2773,97 +2782,103 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43955</v>
       </c>
       <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E113" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43956</v>
       </c>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43957</v>
       </c>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43958</v>
       </c>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43959</v>
       </c>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43960</v>
       </c>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43961</v>
       </c>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43962</v>
       </c>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43963</v>
       </c>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43964</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43965</v>
       </c>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43967</v>
       </c>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43968</v>
       </c>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43970</v>
       </c>
@@ -3041,7 +3056,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.0000000000000036</v>
+        <v>8.2916666666666696</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694C402-FE7C-47C8-95C2-3E8473B0E6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF494E-8439-4D34-BF38-8486F9104CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="149">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>Finalisation des versions intermédiaires des rapports de conception (regroupement de l'ensemble des rapports en un seul) et du rapport de spécifications &amp; analyses. Dépôt effectué à 12h dans le SharePoint des projets.</t>
+  </si>
+  <si>
+    <t>Apport de quelques modifications graphiques sur l'application de supervision. Recherches sur le calcul d'un pourcentage de réussite des équipes en fin de partie avec les resultats de la base de données.</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,11 +2797,17 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43956</v>
       </c>
       <c r="B114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -3056,7 +3065,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.2916666666666696</v>
+        <v>8.3958333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF494E-8439-4D34-BF38-8486F9104CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E9F00-40DE-4FD2-B270-318856CCF71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>Apport de quelques modifications graphiques sur l'application de supervision. Recherches sur le calcul d'un pourcentage de réussite des équipes en fin de partie avec les resultats de la base de données.</t>
+  </si>
+  <si>
+    <t>Apport de modifications sur le tableau de classement des équipes en fin de partie. Création d'une nouvelle fenêtre de type "A propos". Création d'un choix de nombre de joueurs sur la fenêtre de lancement et liaison avec la base de données.</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
@@ -2809,11 +2812,17 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43957</v>
       </c>
       <c r="B115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
@@ -3065,7 +3074,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.3958333333333357</v>
+        <v>8.5208333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E9F00-40DE-4FD2-B270-318856CCF71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E7D850-3119-495A-B96A-8674C9DDED20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>Apport de modifications sur le tableau de classement des équipes en fin de partie. Création d'une nouvelle fenêtre de type "A propos". Création d'un choix de nombre de joueurs sur la fenêtre de lancement et liaison avec la base de données.</t>
+  </si>
+  <si>
+    <t>Finalisations des premières version des rapport + recherche sur la différentiation des lecteurs RFID</t>
+  </si>
+  <si>
+    <t>Recherche sur la différentiation des lecteurs RFID</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2798,12 @@
       <c r="A113" s="3">
         <v>43955</v>
       </c>
-      <c r="B113" s="5"/>
+      <c r="B113" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E113" s="5" t="s">
         <v>147</v>
       </c>
@@ -2804,7 +2815,12 @@
       <c r="A114" s="3">
         <v>43956</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.15277777777777776</v>
+      </c>
       <c r="E114" s="5" t="s">
         <v>148</v>
       </c>
@@ -3070,7 +3086,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>7.0451388888888875</v>
+        <v>7.3020833333333321</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E7D850-3119-495A-B96A-8674C9DDED20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF41D834-179A-40C2-A6FC-93D2F4F1F570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>Recherche sur la différentiation des lecteurs RFID</t>
+  </si>
+  <si>
+    <t>Récupération de l'id du superviseur qui modifie un créneau (toujour en cours)</t>
+  </si>
+  <si>
+    <t>Affichage d'une alert avec le numéro de téléphone quand le superviseur supprime un créneau réservé</t>
+  </si>
+  <si>
+    <t>Faire en sorte de ne pas pouvoir inserer un creneaux déjà existant et qu'il y ai un minimum de 30 min entre les créneaux (toujours en cours)</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,6 +2791,12 @@
       <c r="F111" s="6">
         <v>0.10416666666666667</v>
       </c>
+      <c r="H111" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
@@ -2793,8 +2808,14 @@
       <c r="C112" s="1">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H112" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I112" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43955</v>
       </c>
@@ -2810,8 +2831,14 @@
       <c r="F113" s="6">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H113" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43956</v>
       </c>
@@ -2827,8 +2854,14 @@
       <c r="F114" s="6">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="H114" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43957</v>
       </c>
@@ -2839,80 +2872,86 @@
       <c r="F115" s="6">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43958</v>
       </c>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43959</v>
       </c>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43960</v>
       </c>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43961</v>
       </c>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43962</v>
       </c>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43963</v>
       </c>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43964</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43965</v>
       </c>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43967</v>
       </c>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43968</v>
       </c>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43970</v>
       </c>
@@ -3094,7 +3133,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>7.6458333333333313</v>
+        <v>8.3958333333333304</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF41D834-179A-40C2-A6FC-93D2F4F1F570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7D434-62C2-4B24-925A-D6952A6FDBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>Faire en sorte de ne pas pouvoir inserer un creneaux déjà existant et qu'il y ai un minimum de 30 min entre les créneaux (toujours en cours)</t>
+  </si>
+  <si>
+    <t>Ecriture de commentaires dans le code. Reprise de certains boutons et trie des données dans la base de données. Point de projet.</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,11 +2882,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43958</v>
       </c>
       <c r="B116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -3129,7 +3138,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.5208333333333357</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7D434-62C2-4B24-925A-D6952A6FDBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF5353B-6508-4DF5-8B12-51DD0FEF5878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>Ecriture de commentaires dans le code. Reprise de certains boutons et trie des données dans la base de données. Point de projet.</t>
+  </si>
+  <si>
+    <t>Commentage de la partie code. Poursuite du rapport de conception avec l'étude du réseau Wi-Fi pour la partie physique appliquée.</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,11 +2915,17 @@
       </c>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43962</v>
       </c>
       <c r="B120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
@@ -3138,7 +3147,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.6666666666666696</v>
+        <v>8.7916666666666696</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF5353B-6508-4DF5-8B12-51DD0FEF5878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCBA39-C170-4DE6-8242-E8E7490A4FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>Commentage de la partie code. Poursuite du rapport de conception avec l'étude du réseau Wi-Fi pour la partie physique appliquée.</t>
+  </si>
+  <si>
+    <t>Finalisation et validation de la partie physique appliquée sur le réseau Wi-Fi (validée par Monsieur Bridonneeau).</t>
+  </si>
+  <si>
+    <t>Apport de corrections dans le rapport d'analyses et de spécifications et poursuite du rapport de conception.</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,17 +2933,29 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43963</v>
       </c>
       <c r="B121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E121" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43964</v>
       </c>
       <c r="B122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -3147,7 +3165,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>8.7916666666666696</v>
+        <v>9.1458333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCBA39-C170-4DE6-8242-E8E7490A4FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5709A8-366A-4473-A27E-6750B5C77A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>Apport de corrections dans le rapport d'analyses et de spécifications et poursuite du rapport de conception.</t>
+  </si>
+  <si>
+    <t>Mise à jour du rapport + ajout fiche recette</t>
+  </si>
+  <si>
+    <t>Ajout liaison entre créneaux et superviseur</t>
+  </si>
+  <si>
+    <t>Envoi d'un mail quand un joueur réserve un créneau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des horaires </t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,6 +2914,12 @@
       <c r="F116" s="6">
         <v>0.14583333333333334</v>
       </c>
+      <c r="H116" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -2932,6 +2950,12 @@
       <c r="F120" s="6">
         <v>0.125</v>
       </c>
+      <c r="H120" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
@@ -2944,6 +2968,12 @@
       <c r="F121" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H121" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
@@ -2956,6 +2986,12 @@
       <c r="F122" s="6">
         <v>0.1875</v>
       </c>
+      <c r="H122" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -3169,7 +3205,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>8.3958333333333304</v>
+        <v>9.0624999999999982</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5709A8-366A-4473-A27E-6750B5C77A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14AC4C9-2BF7-497E-AE28-ADA80939D326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="166">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gestion des horaires </t>
+  </si>
+  <si>
+    <t>Rédaction rapport</t>
+  </si>
+  <si>
+    <t>Recherche sur le changement du pin de contrôle du lecteur RFID</t>
+  </si>
+  <si>
+    <t>Recherche sur le changement du pin de contrôle du lecteur RFID + recherche sur comment controler les deux lecteurs en même temps</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2392,7 @@
         <v>107</v>
       </c>
       <c r="C87" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>105</v>
@@ -2406,7 +2415,7 @@
         <v>107</v>
       </c>
       <c r="C88" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
@@ -2429,7 +2438,7 @@
         <v>107</v>
       </c>
       <c r="C89" s="1">
-        <v>6.25E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>112</v>
@@ -2634,7 +2643,7 @@
         <v>130</v>
       </c>
       <c r="C102" s="1">
-        <v>0.10416666666666667</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>125</v>
@@ -2657,7 +2666,7 @@
         <v>132</v>
       </c>
       <c r="C103" s="1">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>126</v>
@@ -2847,7 +2856,7 @@
         <v>150</v>
       </c>
       <c r="C113" s="1">
-        <v>0.10416666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>147</v>
@@ -2907,7 +2916,12 @@
       <c r="A116" s="3">
         <v>43958</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E116" s="5" t="s">
         <v>155</v>
       </c>
@@ -2921,11 +2935,16 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43959</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
@@ -2943,7 +2962,12 @@
       <c r="A120" s="3">
         <v>43962</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E120" s="5" t="s">
         <v>156</v>
       </c>
@@ -2961,7 +2985,12 @@
       <c r="A121" s="3">
         <v>43963</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E121" s="5" t="s">
         <v>157</v>
       </c>
@@ -2979,7 +3008,12 @@
       <c r="A122" s="3">
         <v>43964</v>
       </c>
-      <c r="B122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E122" s="5" t="s">
         <v>158</v>
       </c>
@@ -2997,7 +3031,12 @@
       <c r="A123" s="3">
         <v>43965</v>
       </c>
-      <c r="B123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -3197,7 +3236,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>7.3020833333333321</v>
+        <v>8.7395833333333321</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14AC4C9-2BF7-497E-AE28-ADA80939D326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AB27E-1935-4CB0-8D37-F6774A16A608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>Recherche sur le changement du pin de contrôle du lecteur RFID + recherche sur comment controler les deux lecteurs en même temps</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport de conception (principalement sur la partie application). Etude de potentielles fiches recettes en fonction du diagramme de cas d'utilisation.</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,7 +3021,7 @@
         <v>158</v>
       </c>
       <c r="F122" s="6">
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="H122" s="20" t="s">
         <v>159</v>
@@ -3038,11 +3041,17 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
       <c r="B124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -3240,7 +3249,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>9.1458333333333357</v>
+        <v>9.3750000000000018</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AB27E-1935-4CB0-8D37-F6774A16A608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907AC0F-FD90-44B9-A9E5-7322498E1A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -628,7 +628,7 @@
     <t>Recherche sur le changement du pin de contrôle du lecteur RFID + recherche sur comment controler les deux lecteurs en même temps</t>
   </si>
   <si>
-    <t>Poursuite du rapport de conception (principalement sur la partie application). Etude de potentielles fiches recettes en fonction du diagramme de cas d'utilisation.</t>
+    <t>Poursuite du rapport de conception (principalement sur la partie application). Etude de potentielles fiches recettes en fonction du diagramme de cas d'utilisation. Création et validation d'un test unitaire.</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3041,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43966</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>166</v>
       </c>
       <c r="F124" s="6">
-        <v>0.1875</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>9.3750000000000018</v>
+        <v>9.4583333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907AC0F-FD90-44B9-A9E5-7322498E1A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0871110D-3B24-47CB-B808-76404A024DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>Poursuite du rapport de conception (principalement sur la partie application). Etude de potentielles fiches recettes en fonction du diagramme de cas d'utilisation. Création et validation d'un test unitaire.</t>
+  </si>
+  <si>
+    <t>Poursuite du rapport de conception (finalisation du test unitaire, ajout d'annexes, determination des futures fiches recettes et début de mise en forme des démarches dans un tableur excel).</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,11 +3068,17 @@
       </c>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
       <c r="B127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -3249,7 +3258,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>9.4583333333333357</v>
+        <v>9.6041666666666696</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0871110D-3B24-47CB-B808-76404A024DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049C85E-A10A-4B2C-B8D7-FF0F21CA05BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -633,6 +633,23 @@
   <si>
     <t>Poursuite du rapport de conception (finalisation du test unitaire, ajout d'annexes, determination des futures fiches recettes et début de mise en forme des démarches dans un tableur excel).</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poursuite des rapports de conception et d'analyse. Finalisation de ceux-ci et regroupement des rapports de conception individuels. Apport de corrections, reprise de la mise en forme des rapports. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dépôt sur le SharePoint.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +748,15 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1240,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,11 +3106,17 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="91.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43970</v>
       </c>
       <c r="B128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -3258,7 +3290,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>9.6041666666666696</v>
+        <v>9.8958333333333357</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0871110D-3B24-47CB-B808-76404A024DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC4B374-49BF-4E84-A684-A1E93C12CA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,7 +3048,12 @@
       <c r="A124" s="3">
         <v>43966</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E124" s="5" t="s">
         <v>166</v>
       </c>
@@ -3060,19 +3065,34 @@
       <c r="A125" s="3">
         <v>43967</v>
       </c>
-      <c r="B125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43968</v>
       </c>
-      <c r="B126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43969</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E127" s="5" t="s">
         <v>167</v>
       </c>
@@ -3084,7 +3104,12 @@
       <c r="A128" s="3">
         <v>43970</v>
       </c>
-      <c r="B128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -3254,7 +3279,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>8.7395833333333321</v>
+        <v>9.6562499999999982</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC4B374-49BF-4E84-A684-A1E93C12CA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA588C11-DAE1-400F-A74E-70D018609B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,97 +3111,100 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43971</v>
       </c>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43972</v>
       </c>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43973</v>
       </c>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43974</v>
       </c>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43975</v>
       </c>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43976</v>
       </c>
       <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43981</v>
       </c>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43982</v>
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>9.6562499999999982</v>
+        <v>9.8229166666666643</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA588C11-DAE1-400F-A74E-70D018609B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DD136-21F1-4ABA-839D-61ADD84497C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="172">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -632,6 +632,18 @@
   </si>
   <si>
     <t>Poursuite du rapport de conception (finalisation du test unitaire, ajout d'annexes, determination des futures fiches recettes et début de mise en forme des démarches dans un tableur excel).</t>
+  </si>
+  <si>
+    <t>Lecture des deux UID en simultané sans problème apparent.</t>
+  </si>
+  <si>
+    <t>Test de lecture de deux UID, un lecteur fonctionnel.</t>
+  </si>
+  <si>
+    <t>Test de lecture de deux UID fonctionnel mais avec un temps de réponse très élevé.</t>
+  </si>
+  <si>
+    <t>Test d'allumage des LED en simultané.</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,28 +3157,45 @@
       <c r="A134" s="3">
         <v>43976</v>
       </c>
-      <c r="B134" s="5"/>
+      <c r="B134" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="C134" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
-      <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
-      <c r="B136" s="5"/>
+      <c r="B136" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
-      <c r="B137" s="5"/>
+      <c r="B137" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -3282,7 +3311,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>9.8229166666666643</v>
+        <v>10.322916666666664</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DD136-21F1-4ABA-839D-61ADD84497C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACC5F4-4386-4664-8B67-EE90AAD8C0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="3390" yWindow="660" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>Test d'allumage des LED en simultané.</t>
+  </si>
+  <si>
+    <t>Mise à jour du rapport</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,6 +3058,12 @@
       <c r="C123" s="1">
         <v>0.1875</v>
       </c>
+      <c r="H123" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -3072,6 +3081,12 @@
       <c r="F124" s="6">
         <v>0.27083333333333331</v>
       </c>
+      <c r="H124" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -3111,6 +3126,12 @@
       <c r="F127" s="6">
         <v>0.14583333333333334</v>
       </c>
+      <c r="H127" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -3122,6 +3143,12 @@
       <c r="C128" s="1">
         <v>0.125</v>
       </c>
+      <c r="H128" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I128" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -3319,7 +3346,7 @@
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>
-        <v>9.0624999999999982</v>
+        <v>9.6249999999999982</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACC5F4-4386-4664-8B67-EE90AAD8C0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD7905-87EC-43E5-A529-372EF9624906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="660" windowWidth="21600" windowHeight="11385" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>Mise à jour du rapport</t>
+  </si>
+  <si>
+    <t>Allumage des LEDs en simultané fonctionnel sans clignotement + réduction du code avec une fonction</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+      <selection activeCell="C148" sqref="C147:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,11 +3227,16 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -3338,7 +3346,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>10.322916666666664</v>
+        <v>10.61458333333333</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD7905-87EC-43E5-A529-372EF9624906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25CD35-E7C8-44AE-81DE-69A879B75FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>Allumage des LEDs en simultané fonctionnel sans clignotement + réduction du code avec une fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fonction ne fonctionne que pour la première qui est appelé + Test d'appelé les fonction en thread, aucun changement du comportement initiale + déclenchement du module relais si les deux UID sont valide + Confirmation de la nécéssite d'utilisé un deuxième bus spi  </t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C148" sqref="C147:C148"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,11 +3253,16 @@
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -3346,7 +3354,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>10.61458333333333</v>
+        <v>10.947916666666664</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25CD35-E7C8-44AE-81DE-69A879B75FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE31CFC-51AC-4CFC-8ED7-CF03149E5436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="178">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t xml:space="preserve">La fonction ne fonctionne que pour la première qui est appelé + Test d'appelé les fonction en thread, aucun changement du comportement initiale + déclenchement du module relais si les deux UID sont valide + Confirmation de la nécéssite d'utilisé un deuxième bus spi  </t>
+  </si>
+  <si>
+    <t>Création du diaporama de revue finale. Mise en place et préparation de la revue.</t>
+  </si>
+  <si>
+    <t>Poursuite du diaporama de revue finale et refelxions sur le calcul du score de fin de partie.</t>
+  </si>
+  <si>
+    <t>Reflexions de calcul du pourcentage de reussite avec MySQL.</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,37 +3165,37 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43971</v>
       </c>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43972</v>
       </c>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43973</v>
       </c>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43974</v>
       </c>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43975</v>
       </c>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43976</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
@@ -3229,8 +3238,14 @@
       <c r="C137" s="1">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E137" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F137" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
@@ -3240,20 +3255,26 @@
       <c r="C138" s="1">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E138" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43981</v>
       </c>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43982</v>
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
@@ -3264,19 +3285,25 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
       <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E142" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F142" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
@@ -3358,7 +3385,7 @@
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>
-        <v>9.6041666666666696</v>
+        <v>9.9583333333333375</v>
       </c>
       <c r="I159" s="10">
         <f>SUM(I2:I155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE31CFC-51AC-4CFC-8ED7-CF03149E5436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865D1A7-19D9-40BD-978C-22A6F99FE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="180">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -662,6 +662,12 @@
   </si>
   <si>
     <t>Reflexions de calcul du pourcentage de reussite avec MySQL.</t>
+  </si>
+  <si>
+    <t>Activation du SPI1 + rajout du lecteur 3 +  déclenchement du module relais et du client socket (mit en commentraire car bloquant si le serveur socket n'est pas actif) si les trois UID sont valide + Lancement du programme au boot de la raspberry</t>
+  </si>
+  <si>
+    <t>PASSAGE REVUE FINAL</t>
   </si>
 </sst>
 </file>
@@ -881,7 +887,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,6 +954,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1270,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,11 +3297,16 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="E142" s="5" t="s">
         <v>176</v>
       </c>
@@ -3337,7 +3354,15 @@
       <c r="A149" s="3">
         <v>43991</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
@@ -3381,7 +3406,7 @@
       </c>
       <c r="C159" s="9">
         <f>SUM(C2:C155)</f>
-        <v>10.947916666666664</v>
+        <v>11.23958333333333</v>
       </c>
       <c r="F159" s="9">
         <f>SUM(F2:F155)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865D1A7-19D9-40BD-978C-22A6F99FE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6933A-FBB2-4181-ADF9-68DCA742D13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="182">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Création du word pour la revue de projet n°1 et début de ça rédaction (perte du travail, mauvaise utilisation du Git) ; Choix d'un IDE, choix de Pycharm.</t>
-  </si>
-  <si>
     <t>Total heures</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Rédaction du diagramme de séquence</t>
   </si>
   <si>
-    <t>Création d'un journal d'activité commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun</t>
-  </si>
-  <si>
     <t>Redefinition des activités sous forme de compte rendu Word. Rédaction de la planification Gantt commune. Analyse des besoins en UML, début d'un diagramme de séquence.</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>Recherche d'information sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
   </si>
   <si>
-    <t>Rédaction des définition de l'étudiant 1</t>
-  </si>
-  <si>
-    <t>Création du diaporama pour la revue de projet 1 + Rédaction des définition de l'étudiant 1</t>
-  </si>
-  <si>
     <t>Création du diaporama support pour la revue 1. Pousuite du diagramme de séquences. Poursuite du dossier étudiant.</t>
   </si>
   <si>
@@ -113,12 +101,6 @@
     <t>Poursuite et modification majeure de l'ébauche. Rencontre d'un problème avec l'upload d'un fichier de plus de 100Mo dans GitHub.</t>
   </si>
   <si>
-    <t>Création d'un "Fritzing" (modèle de cablage) sur une platine d'essaye + apport Gantt</t>
-  </si>
-  <si>
-    <t>Recherche bus SPI</t>
-  </si>
-  <si>
     <t>Travail sur le diapo pour la revue 1</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Finalisation du câble sur Fritzing + adaptation du câble pour les LEDs + revue du diagrame de séquence </t>
-  </si>
-  <si>
-    <t>Recherche et aide pour la récupération de l'image provenant de la caméra IP pour le code en C#. Poursuite de la configuration de la caméra IP et création d'un compte MyDlink</t>
   </si>
   <si>
     <r>
@@ -151,13 +130,7 @@
     <t>Diagramme de séquence</t>
   </si>
   <si>
-    <t>Diagramme de séquence + recherche pour client/server socket</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remodelage des diagrammes de séquence. Séparation en plusieurs parties plus détaillées.  </t>
-  </si>
-  <si>
-    <t>Poursuite des diagrammes de séquence. Création d'un modèle relationnel pour la base de données. Création d'un diagramme de classes pour l'application de supervision. Renseignement sur fonction "singreton" en C#. Re-définition des besoins en matière de base de données.</t>
   </si>
   <si>
     <t>Modification de l'ébauche de l'application. Reprise du diaporama de présentation pour la revue 2.</t>
@@ -227,12 +200,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Finalisation du digramme de squence pour le serveur socket asynchrone + préparation du diapo pour la revue 2 </t>
-  </si>
-  <si>
-    <t>recherche pour client/server socket</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction des diagrammes de séquences et ajout de nouvelles fonctions. Poursuite du diaporama de revue 2. Apport dans l'ébauche de l'application de supervision. Modification du diagramme de classes. </t>
   </si>
   <si>
@@ -245,38 +212,12 @@
     <t>Poursuite du diagramme de classes (définition des multiplicités et des noms). Ajout de celui-ci dans le diaporama de revue 2. Création d'un chemin de fer dans le diaporama et finalisation / entrainement pour la revue 2.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage à la revue 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Début de l'installation de DEBIAN (erreur carte SD a formatée en ligne de commandes) -&gt; Debian non installé.</t>
-    </r>
-  </si>
-  <si>
     <t>Diaporama et poursuite de l'UML.</t>
   </si>
   <si>
     <t>Mise à jour et intégration du projet dans la Visual Studio sur mon ordinateur personnel. Tentative de correction des erreures liées aux librairies manquantes.</t>
   </si>
   <si>
-    <t>Installation de raspbian + activation de du bus spi, port GPIO + installation de l'IDE phychram(problème d'installation, non finalisé)</t>
-  </si>
-  <si>
     <t>Reprise du diaporama pour la revue 2</t>
   </si>
   <si>
@@ -316,9 +257,6 @@
     <t>Tentative de résolution de l'erreur</t>
   </si>
   <si>
-    <t xml:space="preserve">Résolutions de l'erreur d'installation (installation pycharm compléter) + installation de jdk </t>
-  </si>
-  <si>
     <t xml:space="preserve">Création des différentes fenêtres de l'application de supervision et liens entre elles. Importation de la charte graphique (icônes et formes) dans celle-ci. Recherches sur la base de données. Création de la base de données avec PHPMyAdmin et MYSQL pour liaison avec l'application. Lecture d'un tutoriel permettant cela. </t>
   </si>
   <si>
@@ -328,12 +266,6 @@
     <t>Tentative de récupération de l'uid</t>
   </si>
   <si>
-    <t>Application de supervision : Etude la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
-  </si>
-  <si>
-    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilité</t>
-  </si>
-  <si>
     <t>Programmation page de modification, d'ajout, de suppression d'un compte superviseur</t>
   </si>
   <si>
@@ -346,24 +278,15 @@
     <t xml:space="preserve">Recontre d'un problème avec l'envoi des données de l'équipe vers la Base de données. Recherches sur forum et résolution avec la fonction de requête "NOW()" de MYSQL. </t>
   </si>
   <si>
-    <t>Tentative de récupération de l'uid (difficulté de récupération des fonction de la library)</t>
-  </si>
-  <si>
     <t>Programmation page superviseur, pour gerer les créneaux (formulaire d'ajout, de suppression, de modification)</t>
   </si>
   <si>
     <t>Programmation page pour reserver un créneau ( calendrier avec les dates disponibles et formulaire de réservation). Ajout d'une table MySQL "events" pour gerer les événements du calendrier</t>
   </si>
   <si>
-    <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et test (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Finalisation et tests du chronometre. Création de la fenêtre de fin de partie et création de la méthode permettant l'ouverture de celle-ci lorsque le temps est écoulé. </t>
   </si>
   <si>
-    <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et test validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
-  </si>
-  <si>
     <t>Mise à jour de la bdd, essayer de comprendre les roles et comment cela marche</t>
   </si>
   <si>
@@ -385,21 +308,6 @@
     <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
   </si>
   <si>
-    <t>Résolution de problème de lié à la librérie et de son emplacement pour que le programme puisse y avoir accès.</t>
-  </si>
-  <si>
-    <t>Identification du problème des librérires avec la fonction "wait_for_tag" qui pose problème.</t>
-  </si>
-  <si>
-    <t>Programme ne ce lance pas avec le message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
-  </si>
-  <si>
-    <t>Programme ne ce lance pas avec même message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
-  </si>
-  <si>
-    <t>Recherche dans les différents chemins de fichier pour trouver l'origine du problème lier à l'erreur.</t>
-  </si>
-  <si>
     <t>mise à jour bdd, programmation sur l'application Arduino</t>
   </si>
   <si>
@@ -413,9 +321,6 @@
   </si>
   <si>
     <t>test d'un remplacement du "self" part "rdr" dans la fonction wait_for_tag. Sans changement.</t>
-  </si>
-  <si>
-    <t>Recherche de post qui aurait la même erreur. Rien de probant trouver.</t>
   </si>
   <si>
     <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
@@ -475,9 +380,6 @@
     </r>
   </si>
   <si>
-    <t>Révision du câblage. UID récupérer. Le problème venait du cable qui était relier au port "IRQ".</t>
-  </si>
-  <si>
     <t>Recherches sur la récupération de données SQL dans une listbox et mise en place avec la fenêtre d'envoi d'indice à l'afficheur. Il est désormais possible de selectionner un indice prédéfini (actualisation systématique) et d'en créer un nouveau (enregistrer après envoi).</t>
   </si>
   <si>
@@ -529,9 +431,6 @@
     <t>Rédaction du rapport de conception.</t>
   </si>
   <si>
-    <t>Reception des jumpers manquant pour faire correctement les tests. Test du programme pour le module relais (programme tourne correctement mais aucun son de déclanchement entendu). Branchement de deux lecteur RFID et test des deux lecteurs, seul le premier branché fonctionne. Recherche sur les thread en python asynchrone qui permettrait de n'avoir aucune boucle "d'écoute" bloquante.</t>
-  </si>
-  <si>
     <t>Développement de l'esthétisme et de quelques améliorations de la page web et rédaction du rapport</t>
   </si>
   <si>
@@ -580,12 +479,6 @@
     <t>Apport de modifications sur le tableau de classement des équipes en fin de partie. Création d'une nouvelle fenêtre de type "A propos". Création d'un choix de nombre de joueurs sur la fenêtre de lancement et liaison avec la base de données.</t>
   </si>
   <si>
-    <t>Finalisations des premières version des rapport + recherche sur la différentiation des lecteurs RFID</t>
-  </si>
-  <si>
-    <t>Recherche sur la différentiation des lecteurs RFID</t>
-  </si>
-  <si>
     <t>Récupération de l'id du superviseur qui modifie un créneau (toujour en cours)</t>
   </si>
   <si>
@@ -622,12 +515,6 @@
     <t>Rédaction rapport</t>
   </si>
   <si>
-    <t>Recherche sur le changement du pin de contrôle du lecteur RFID</t>
-  </si>
-  <si>
-    <t>Recherche sur le changement du pin de contrôle du lecteur RFID + recherche sur comment controler les deux lecteurs en même temps</t>
-  </si>
-  <si>
     <t>Poursuite du rapport de conception (principalement sur la partie application). Etude de potentielles fiches recettes en fonction du diagramme de cas d'utilisation. Création et validation d'un test unitaire.</t>
   </si>
   <si>
@@ -652,9 +539,6 @@
     <t>Allumage des LEDs en simultané fonctionnel sans clignotement + réduction du code avec une fonction</t>
   </si>
   <si>
-    <t xml:space="preserve">La fonction ne fonctionne que pour la première qui est appelé + Test d'appelé les fonction en thread, aucun changement du comportement initiale + déclenchement du module relais si les deux UID sont valide + Confirmation de la nécéssite d'utilisé un deuxième bus spi  </t>
-  </si>
-  <si>
     <t>Création du diaporama de revue finale. Mise en place et préparation de la revue.</t>
   </si>
   <si>
@@ -664,10 +548,134 @@
     <t>Reflexions de calcul du pourcentage de reussite avec MySQL.</t>
   </si>
   <si>
-    <t>Activation du SPI1 + rajout du lecteur 3 +  déclenchement du module relais et du client socket (mit en commentraire car bloquant si le serveur socket n'est pas actif) si les trois UID sont valide + Lancement du programme au boot de la raspberry</t>
-  </si>
-  <si>
-    <t>PASSAGE REVUE FINAL</t>
+    <t>Poursuite du diaporama de revue finale et entrainement de passage à l'oral. Adaptation de la partie physique appliquée pour l'oral.</t>
+  </si>
+  <si>
+    <t>PASSAGE REVUE FINALE</t>
+  </si>
+  <si>
+    <t>Création du word pour la revue de projet n°1 et début de sa rédaction (perte du travail, mauvaise utilisation du Git) ; Choix d'un IDE, choix de Pycharm.</t>
+  </si>
+  <si>
+    <t>Création d'un journal d'activités commun ; Rédaction du word revue de projet n°1 ; Rédaction du Gantt commun</t>
+  </si>
+  <si>
+    <t>Rédaction des définitions de l'étudiant 1</t>
+  </si>
+  <si>
+    <t>Création du diaporama pour la revue de projet 1 + Rédaction des définitions de l'étudiant 1</t>
+  </si>
+  <si>
+    <t>Recherches bus SPI</t>
+  </si>
+  <si>
+    <t>Création d'un "Fritzing" (modèle de cablage) sur une platine d'essai + apport Gantt</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence + recherches pour client/server socket</t>
+  </si>
+  <si>
+    <t>Travail sur l'ébauche de l'application.</t>
+  </si>
+  <si>
+    <t>Recherches pour client/server socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation du diagramme de séquence pour le serveur socket asynchrone + préparation du diapo pour la revue 2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage à la revue 2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Poursuite du diaporama de revue. Poursuite et reinterprétation des analyses UML. Début de l'installation de DEBIAN (erreur carte SD à formatée en ligne de commandes) -&gt; Debian non installé.</t>
+    </r>
+  </si>
+  <si>
+    <t>Installation de raspbian + activation de du bus spi, port GPIO + installation de l'IDE phychram(problème d'installation, non finalisée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résolution de l'erreur d'installation (installation pycharm complete) + installation de jdk </t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (bug clavier, rend la navigation difficile) + Installation d'Anydesk pour une prise en main facilisée</t>
+  </si>
+  <si>
+    <t>Tentative de récupération de l'uid (difficulté de récupération des fonctions de la librairie)</t>
+  </si>
+  <si>
+    <t>Résolution de problème lié à la librairie et de son emplacement pour que le programme puisse y avoir accès.</t>
+  </si>
+  <si>
+    <t>Programme ne se lance pas avec le message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Programme ne se lance pas avec même message d'erreur suivant "python: can't open file 'RecupUID.py': [Errno 2] No such file or directory".</t>
+  </si>
+  <si>
+    <t>Identification du problème des librairies avec la fonction "wait_for_tag" qui pose problème.</t>
+  </si>
+  <si>
+    <t>Recherches dans les différents chemins de fichier pour trouver l'origine du problème lié à l'erreur.</t>
+  </si>
+  <si>
+    <t>Recherches de posts qui auraient la même erreur. Rien de probant trouver.</t>
+  </si>
+  <si>
+    <t>Révision du câblage. UID récupéré. Le problème venait du cable qui était relié au port "IRQ".</t>
+  </si>
+  <si>
+    <t>Reception des jumpers manquant pour faire correctement les tests. Test du programme pour le module relais (programme tourne correctement mais aucun son de déclanchement entendu). Branchement de deux lecteurs RFID et test des deux lecteurs, seul le premier branché fonctionne. Recherche sur les thread en python asynchrone qui permettrait de n'avoir aucune boucle "d'écoute" bloquante.</t>
+  </si>
+  <si>
+    <t>Finalisations des premières versions des rapport + recherches sur la différentiation des lecteurs RFID</t>
+  </si>
+  <si>
+    <t>Recherches sur la différentiation des lecteurs RFID</t>
+  </si>
+  <si>
+    <t>Recherches sur le changement du pin de contrôle du lecteur RFID</t>
+  </si>
+  <si>
+    <t>Recherches sur le changement du pin de contrôle du lecteur RFID + recherche sur comment controler les deux lecteurs en même temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fonction ne fonctionne que pour la première qui est appelé + Test d'appel des fonctions en thread, aucun changement du comportement initial + déclenchement du module relais si les deux UID sont valide + Confirmation de la nécéssite d'utiliser un deuxième bus spi  </t>
+  </si>
+  <si>
+    <t>Activation du SPI1 + rajout du lecteur 3 +  déclenchement du module relais et du client socket (mis en commentraire car bloquant si le serveur socket n'est pas actif) si les trois UID sont valide + Lancement du programme au boot de la raspberry</t>
+  </si>
+  <si>
+    <t>Recherches et aide pour la récupération de l'image provenant de la caméra IP pour le code en C#. Poursuite de la configuration de la caméra IP et création d'un compte MyDlink</t>
+  </si>
+  <si>
+    <t>Poursuite des diagrammes de séquence. Création d'un modèle relationnel pour la base de données. Création d'un diagramme de classes pour l'application de supervision. Renseignement sur fonction "singleton" en C#. Re-définition des besoins en matière de base de données.</t>
+  </si>
+  <si>
+    <t>Application de supervision : Etude de la connexion avec la base de données (tutoriel) et début de mise en œuvre pour la fenêtre d'envoi d'indice. Résolution d'un problème avec une surcharge de Teams rendant impossible l'utilisation de Visual Studio (30 min).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poursuite des tests et approfondissement de la communication entre la base de données et l'application. Extraction du script de la BDD. Recherches et tests (implémentation) de code pour l'affichage du chronometre dans la fenêtre principale. </t>
+  </si>
+  <si>
+    <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et tests validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
   </si>
 </sst>
 </file>
@@ -677,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,14 +756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -772,8 +772,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,7 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +908,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,12 +934,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,19 +946,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -955,10 +967,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,45 +1309,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="B142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="11.42578125" style="12"/>
     <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16"/>
+    <col min="4" max="4" width="11.42578125" style="13"/>
     <col min="5" max="5" width="44.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="16"/>
-    <col min="8" max="8" width="42.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="13"/>
+    <col min="8" max="8" width="42.5703125" style="17" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="17"/>
+    <col min="10" max="10" width="11.42578125" style="14"/>
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1329,19 +1356,19 @@
         <v>43844</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>0.125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6">
         <v>0.125</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>0.125</v>
@@ -1352,19 +1379,19 @@
         <v>43845</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1">
         <v>0.13541666666666666</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6">
         <v>0.125</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1">
         <v>0.125</v>
@@ -1381,19 +1408,19 @@
         <v>43847</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6">
         <v>0.20833333333333334</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
         <v>0.20833333333333334</v>
@@ -1425,19 +1452,19 @@
         <v>43851</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1448,19 +1475,19 @@
         <v>43852</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1">
         <v>0.125</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6">
         <v>0.125</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1">
         <v>0.125</v>
@@ -1501,19 +1528,19 @@
         <v>43858</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
         <v>0.16666666666666666</v>
@@ -1524,19 +1551,19 @@
         <v>43859</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1553,13 +1580,13 @@
         <v>43861</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>0.125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6">
         <v>0.125</v>
@@ -1591,19 +1618,19 @@
         <v>43865</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1614,19 +1641,19 @@
         <v>43866</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1">
         <v>0.125</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F24" s="6">
         <v>0.125</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1">
         <v>0.125</v>
@@ -1643,19 +1670,19 @@
         <v>43868</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1">
         <v>0.2638888888888889</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="6">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1">
         <v>0.25</v>
@@ -1684,19 +1711,19 @@
         <v>43872</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="F30" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1">
         <v>0.16666666666666666</v>
@@ -1707,19 +1734,19 @@
         <v>43873</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1736,19 +1763,19 @@
         <v>43875</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1">
         <v>0.25</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I33" s="1">
         <v>0.25</v>
@@ -1783,6 +1810,12 @@
         <v>43880</v>
       </c>
       <c r="B38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -1827,7 +1860,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="E45" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F45" s="6">
         <v>8.3333333333333329E-2</v>
@@ -1839,7 +1872,7 @@
         <v>43888</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
         <v>6.25E-2</v>
@@ -1874,19 +1907,19 @@
         <v>43893</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C51" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F51" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I51" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1897,19 +1930,19 @@
         <v>43894</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1">
         <v>0.125</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F52" s="6">
         <v>0.125</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I52" s="1">
         <v>0.125</v>
@@ -1925,20 +1958,20 @@
       <c r="A54" s="3">
         <v>43896</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>51</v>
+      <c r="B54" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C54" s="1">
         <v>0.25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F54" s="6">
         <v>0.25</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I54" s="1">
         <v>0.25</v>
@@ -1967,19 +2000,19 @@
         <v>43900</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I58" s="1">
         <v>0.16666666666666666</v>
@@ -1990,19 +2023,19 @@
         <v>43901</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F59" s="6">
         <v>0.125</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I59" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2018,20 +2051,20 @@
       <c r="A61" s="3">
         <v>43903</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>57</v>
+      <c r="B61" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C61" s="1">
         <v>0.25</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F61" s="6">
         <v>0.25</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I61" s="1">
         <v>0.25</v>
@@ -2055,13 +2088,13 @@
       </c>
       <c r="B64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F64" s="6">
         <v>0.14583333333333334</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I64" s="1">
         <v>0.16666666666666666</v>
@@ -2072,19 +2105,19 @@
         <v>43907</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1">
         <v>0.125</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F65" s="6">
         <v>0.1875</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I65" s="1">
         <v>0.20833333333333334</v>
@@ -2095,19 +2128,19 @@
         <v>43908</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F66" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I66" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2119,13 +2152,13 @@
       </c>
       <c r="B67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F67" s="6">
         <v>0.125</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I67" s="1">
         <v>0.16666666666666666</v>
@@ -2136,13 +2169,13 @@
         <v>43910</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F68" s="6">
         <v>0.16666666666666666</v>
@@ -2165,19 +2198,19 @@
         <v>43913</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F71" s="6">
         <v>0.125</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I71" s="1">
         <v>6.25E-2</v>
@@ -2188,19 +2221,19 @@
         <v>43914</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C72" s="1">
         <v>0.125</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="F72" s="6">
         <v>0.125</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I72" s="1">
         <v>0.20833333333333334</v>
@@ -2212,13 +2245,13 @@
       </c>
       <c r="B73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F73" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="I73" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2229,19 +2262,19 @@
         <v>43916</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C74" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F74" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I74" s="1">
         <v>0.20833333333333334</v>
@@ -2252,19 +2285,19 @@
         <v>43917</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1">
         <v>0.125</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="F75" s="6">
         <v>0.1875</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I75" s="1">
         <v>0.125</v>
@@ -2287,19 +2320,19 @@
         <v>43920</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F78" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I78" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2310,19 +2343,19 @@
         <v>43921</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C79" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="F79" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2331,13 +2364,13 @@
       </c>
       <c r="B80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F80" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I80" s="1">
         <v>0.125</v>
@@ -2355,19 +2388,19 @@
         <v>43924</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C82" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F82" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I82" s="1">
         <v>0.125</v>
@@ -2391,19 +2424,19 @@
         <v>43927</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F85" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I85" s="1">
         <v>0.16666666666666666</v>
@@ -2414,19 +2447,19 @@
         <v>43928</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F86" s="6">
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="I86" s="1">
         <v>0.16666666666666666</v>
@@ -2437,19 +2470,19 @@
         <v>43929</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C87" s="1">
         <v>0.125</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F87" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I87" s="1">
         <v>0.125</v>
@@ -2460,19 +2493,19 @@
         <v>43930</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C88" s="1">
         <v>0.125</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F88" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="I88" s="1">
         <v>0.20833333333333334</v>
@@ -2483,19 +2516,19 @@
         <v>43931</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C89" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F89" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H89" s="20" t="s">
-        <v>140</v>
+      <c r="H89" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="I89" s="1">
         <v>0.125</v>
@@ -2518,15 +2551,15 @@
         <v>43934</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C92" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
       <c r="H92" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="I92" s="1">
         <v>0.20833333333333334</v>
@@ -2537,13 +2570,13 @@
         <v>43935</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F93" s="6">
         <v>0.16666666666666666</v>
@@ -2554,13 +2587,13 @@
         <v>43936</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F94" s="6">
         <v>0.16666666666666666</v>
@@ -2572,13 +2605,13 @@
       </c>
       <c r="B95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F95" s="6">
         <v>0.1875</v>
       </c>
-      <c r="H95" s="20" t="s">
-        <v>142</v>
+      <c r="H95" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="I95" s="1">
         <v>0.125</v>
@@ -2590,13 +2623,13 @@
       </c>
       <c r="B96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F96" s="6">
         <v>0.1875</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="I96" s="1">
         <v>0.20833333333333334</v>
@@ -2619,19 +2652,19 @@
         <v>43941</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C99" s="1">
         <v>0.125</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F99" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H99" s="20" t="s">
-        <v>138</v>
+      <c r="H99" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="I99" s="1">
         <v>0.125</v>
@@ -2642,19 +2675,19 @@
         <v>43942</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C100" s="1">
         <v>0.125</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F100" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H100" s="20" t="s">
-        <v>137</v>
+      <c r="H100" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="I100" s="1">
         <v>0.125</v>
@@ -2665,19 +2698,19 @@
         <v>43943</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F101" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="I101" s="1">
         <v>0.125</v>
@@ -2688,19 +2721,19 @@
         <v>43944</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C102" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F102" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="I102" s="1">
         <v>0.20833333333333334</v>
@@ -2711,19 +2744,19 @@
         <v>43945</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C103" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F103" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="I103" s="1">
         <v>0.20833333333333334</v>
@@ -2746,19 +2779,19 @@
         <v>43948</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F106" s="6">
         <v>0.1875</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I106" s="1">
         <v>0.20833333333333334</v>
@@ -2769,19 +2802,19 @@
         <v>43949</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C107" s="1">
         <v>0.25</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F107" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="I107" s="1">
         <v>0.20833333333333334</v>
@@ -2792,19 +2825,19 @@
         <v>43950</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C108" s="1">
         <v>0.39583333333333331</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F108" s="6">
         <v>0.1875</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="I108" s="1">
         <v>0.125</v>
@@ -2815,19 +2848,19 @@
         <v>43951</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C109" s="1">
         <v>0.125</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F109" s="6">
         <v>0.25</v>
       </c>
-      <c r="H109" s="20" t="s">
-        <v>145</v>
+      <c r="H109" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="I109" s="1">
         <v>0.20833333333333334</v>
@@ -2838,19 +2871,19 @@
         <v>43952</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C110" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F110" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H110" s="20" t="s">
-        <v>145</v>
+      <c r="H110" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="I110" s="1">
         <v>0.20833333333333334</v>
@@ -2861,19 +2894,19 @@
         <v>43953</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1">
         <v>0.25</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F111" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H111" s="20" t="s">
-        <v>145</v>
+      <c r="H111" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="I111" s="1">
         <v>0.125</v>
@@ -2884,13 +2917,13 @@
         <v>43954</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C112" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H112" s="20" t="s">
-        <v>145</v>
+      <c r="H112" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="I112" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2901,19 +2934,19 @@
         <v>43955</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1">
         <v>0.1875</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F113" s="6">
         <v>0.1875</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I113" s="1">
         <v>0.20833333333333334</v>
@@ -2924,19 +2957,19 @@
         <v>43956</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1">
         <v>0.15277777777777776</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="F114" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I114" s="1">
         <v>0.16666666666666666</v>
@@ -2948,13 +2981,13 @@
       </c>
       <c r="B115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F115" s="6">
         <v>0.125</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I115" s="1">
         <v>0.16666666666666666</v>
@@ -2965,19 +2998,19 @@
         <v>43958</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1">
         <v>0.125</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F116" s="6">
         <v>0.14583333333333334</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I116" s="1">
         <v>0.20833333333333334</v>
@@ -2988,7 +3021,7 @@
         <v>43959</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1">
         <v>0.20833333333333334</v>
@@ -3011,19 +3044,19 @@
         <v>43962</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C120" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F120" s="6">
         <v>0.125</v>
       </c>
-      <c r="H120" s="20" t="s">
-        <v>160</v>
+      <c r="H120" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I120" s="1">
         <v>0.125</v>
@@ -3034,19 +3067,19 @@
         <v>43963</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C121" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F121" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H121" s="20" t="s">
-        <v>162</v>
+      <c r="H121" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="I121" s="1">
         <v>0.125</v>
@@ -3057,19 +3090,19 @@
         <v>43964</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C122" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F122" s="6">
         <v>0.22916666666666666</v>
       </c>
-      <c r="H122" s="20" t="s">
-        <v>159</v>
+      <c r="H122" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="I122" s="1">
         <v>0.20833333333333334</v>
@@ -3080,13 +3113,13 @@
         <v>43965</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C123" s="1">
         <v>0.1875</v>
       </c>
-      <c r="H123" s="20" t="s">
-        <v>172</v>
+      <c r="H123" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="I123" s="1">
         <v>0.1875</v>
@@ -3097,19 +3130,19 @@
         <v>43966</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C124" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F124" s="6">
         <v>0.27083333333333331</v>
       </c>
-      <c r="H124" s="20" t="s">
-        <v>172</v>
+      <c r="H124" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="I124" s="1">
         <v>0.16666666666666666</v>
@@ -3120,7 +3153,7 @@
         <v>43967</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C125" s="1">
         <v>0.20833333333333334</v>
@@ -3131,7 +3164,7 @@
         <v>43968</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C126" s="1">
         <v>0.25</v>
@@ -3142,19 +3175,19 @@
         <v>43969</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C127" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="F127" s="6">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H127" s="20" t="s">
-        <v>172</v>
+      <c r="H127" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="I127" s="1">
         <v>0.125</v>
@@ -3165,13 +3198,13 @@
         <v>43970</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C128" s="1">
         <v>0.125</v>
       </c>
-      <c r="H128" s="20" t="s">
-        <v>172</v>
+      <c r="H128" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="I128" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3212,7 +3245,7 @@
         <v>43976</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C134" s="1">
         <v>0.16666666666666666</v>
@@ -3223,7 +3256,7 @@
         <v>43977</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C135" s="1">
         <v>0.16666666666666666</v>
@@ -3234,7 +3267,7 @@
         <v>43978</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C136" s="1">
         <v>0.20833333333333334</v>
@@ -3245,13 +3278,13 @@
         <v>43979</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C137" s="1">
         <v>0.125</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F137" s="6">
         <v>8.3333333333333329E-2</v>
@@ -3262,13 +3295,13 @@
         <v>43980</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C138" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F138" s="6">
         <v>0.125</v>
@@ -3291,7 +3324,7 @@
         <v>43983</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141" s="1">
         <v>0.33333333333333331</v>
@@ -3302,23 +3335,29 @@
         <v>43984</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C142" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F142" s="6">
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
       <c r="B143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
@@ -3350,18 +3389,28 @@
       </c>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43991</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>179</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C149" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D149" s="22"/>
       <c r="E149" s="23" t="s">
-        <v>179</v>
+        <v>147</v>
+      </c>
+      <c r="F149" s="21">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>179</v>
+        <v>147</v>
+      </c>
+      <c r="I149" s="20">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3402,19 +3451,19 @@
     </row>
     <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="9">
+        <v>6</v>
+      </c>
+      <c r="C159" s="25">
         <f>SUM(C2:C155)</f>
-        <v>11.23958333333333</v>
-      </c>
-      <c r="F159" s="9">
+        <v>11.260416666666664</v>
+      </c>
+      <c r="F159" s="25">
         <f>SUM(F2:F155)</f>
-        <v>9.9583333333333375</v>
-      </c>
-      <c r="I159" s="10">
+        <v>10.375000000000002</v>
+      </c>
+      <c r="I159" s="26">
         <f>SUM(I2:I155)</f>
-        <v>9.6249999999999982</v>
+        <v>9.6666666666666643</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6933A-FBB2-4181-ADF9-68DCA742D13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8E973-8031-4AF5-A0D8-899DB9A87E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="183">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -74,18 +74,9 @@
     <t>Poursuite du diagramme de séquence propre à l'application de supervision souhaitée.</t>
   </si>
   <si>
-    <t>Lancement du projet : Annalyse du dossier, création du GitHub (GitKraken),  recherche d'information sur Boostrap et Apache. Debut de rédaction de mon document Word de documentation</t>
-  </si>
-  <si>
-    <t>Recherche d'information sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
-  </si>
-  <si>
     <t>Création du diaporama support pour la revue 1. Pousuite du diagramme de séquences. Poursuite du dossier étudiant.</t>
   </si>
   <si>
-    <t>Rédaction d'un Gantt commun. Rédaction de mon diaporama pour la revu de projet n°1. Poursuite de la rédaction de mon fichier word.</t>
-  </si>
-  <si>
     <t>Poursuite du diaporama support pour la revue 1. Analyse sous forme de diagramme de séquence.</t>
   </si>
   <si>
@@ -110,23 +101,6 @@
     <t xml:space="preserve">Finalisation du câble sur Fritzing + adaptation du câble pour les LEDs + revue du diagrame de séquence </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Finalisation du diagramme de Gantt, ainsi que de la revue. 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage à la revue 1</t>
-    </r>
-  </si>
-  <si>
     <t>Diagramme de séquence</t>
   </si>
   <si>
@@ -142,12 +116,6 @@
     <t>Création du chemin de fer et mise à jour du diaporama.</t>
   </si>
   <si>
-    <t>Puirsuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation.</t>
-  </si>
-  <si>
-    <t>Mise a jour de mon diaporama, poursuite des recherches.</t>
-  </si>
-  <si>
     <t>Mise à jour du Gantt et création du diagramme de séquence pour l'application arduino.</t>
   </si>
   <si>
@@ -161,9 +129,6 @@
   </si>
   <si>
     <t>Recherche d'éléments pour naviguer facilement pour la page web et recherche cablage pour l'application arduino</t>
-  </si>
-  <si>
-    <t>Réflexion général sur mes deux parties</t>
   </si>
   <si>
     <t>Mise à jour du diagramme de Gantt. Poursuite du diaporama de revue 2. Mise à jour des diagrammes de séquence et mise en commun de certaines parties avec Guillaume.</t>
@@ -224,18 +189,9 @@
     <t xml:space="preserve">Finalisation de la configuration de Visual Studio. Poursuite de l'application de supervision. Etude approfondie de l'adaptateur RS232 - Wi-Fi (en parallèle avec un travail en ESLA sur ce même adaptateur). </t>
   </si>
   <si>
-    <t>Correction des diagrammes de sèquences et de classes, poursuite des modification du diaporama pour la revue 2.</t>
-  </si>
-  <si>
     <t>Programmation du Menu du site web et amorce de la page de connexion.</t>
   </si>
   <si>
-    <t>Amorce du ablage de l'arduino avec ces differents composants et amorce de la programmation sur l'arduino.</t>
-  </si>
-  <si>
-    <t>Poursuite des modifications du diaporama, finalisation des diragrammes, ajout des documentation sur le gantt.</t>
-  </si>
-  <si>
     <t>Maquette du Cablage de l'ensemble de l'application arduino</t>
   </si>
   <si>
@@ -248,12 +204,6 @@
     <t>Poursuite de l'application de supervision. Travail et étude sur la trame et la méthode pour l'envoyée à l'afficheur.</t>
   </si>
   <si>
-    <t>Programmation de la page de connexion. Recherche comment avoir deux mots de passe differents pour deux pages differentes</t>
-  </si>
-  <si>
-    <t>Programmation de la page d'administrateur, recherche comment supprimer, ajouter, modifier la bdd depuis la page web</t>
-  </si>
-  <si>
     <t>Tentative de résolution de l'erreur</t>
   </si>
   <si>
@@ -308,12 +258,6 @@
     <t>Création des bases pour les rapports d'analyse et de conception communs. Recherches et tests de plusieurs méthodes avec DATASET pour classer les résultats d'une requête SQL dans un tableau de la fenêtre. Recherches non abouties.</t>
   </si>
   <si>
-    <t>mise à jour bdd, programmation sur l'application Arduino</t>
-  </si>
-  <si>
-    <t>Programmation Lien entre ajout de créneaux et calendrier</t>
-  </si>
-  <si>
     <t>Poursuite des recherches pour la récupération de la requête SQL dans un tableau C#. Non aboutissement de celles-ci.</t>
   </si>
   <si>
@@ -324,15 +268,6 @@
   </si>
   <si>
     <t>Poursuite du rapport de conception et modification de la schématisation réseau. Recheches sur plusieurs protocoles.</t>
-  </si>
-  <si>
-    <t>Programmation d'un événement cliquable et d'une page de résérvation de créneaux avec les informations du créneau cliqué</t>
-  </si>
-  <si>
-    <t>Programmation Arduino, connexion de tous les composants + programme permettant d'activer buzzer et afficheur lcd  quand le bon code est rentré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmation site web en général, nettyage, esthétique </t>
   </si>
   <si>
     <t>Poursuite des recherches et nouveaux tests pour la récupération des résultats de la requête SQL dans un tableau.</t>
@@ -363,26 +298,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mise au point de l'oral. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passage de la revue 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Recherches sur la récupération de données SQL dans une listbox et mise en place avec la fenêtre d'envoi d'indice à l'afficheur. Il est désormais possible de selectionner un indice prédéfini (actualisation systématique) et d'en créer un nouveau (enregistrer après envoi).</t>
-  </si>
-  <si>
     <t>Création d'un programme pour l'allumage de la led si l'uid est valide. UID est bien prit en compte mais la LED ne s'allume pas. Mettre plusieurs lecteurs RFID impossible car il y un manque de cables.</t>
   </si>
   <si>
@@ -416,9 +331,6 @@
     <t>Création de deux textblock permettant de récupérer le dernier indice envoyé à la base de données ainsi que l'équipe en cours. Affichage de ces deux données sur la fenêtre principale. Tentative de configuration de l'adaptateur et demande d'aide mais sans succès.</t>
   </si>
   <si>
-    <t>Modifications des interfaces graphiques de l'application et poursuite de la récupération du nom de l'équipe et du dernier indice envoyé. Réalisation de tests de l'ensemble des fonctions.</t>
-  </si>
-  <si>
     <t>Poursuite du rapport de conception et étude de certains élements pour présentation. Apport de quelques corrections sur l'application de supervision avec l'aide en Visio de Monsieur HOURDIN. Changement des paramètres de la fenêtre de confirmation de fin de partie et création d'une fonction "Terminer Partie()" auquel Guillaume pourra déposer la partie Socket Client-Serveur.</t>
   </si>
   <si>
@@ -434,33 +346,15 @@
     <t>Développement de l'esthétisme et de quelques améliorations de la page web et rédaction du rapport</t>
   </si>
   <si>
-    <t>Développement des exigences du système, essaie de récuperer l'id du superviseur qui modifie, supprime ou ajoute un créneau</t>
-  </si>
-  <si>
-    <t>Poursuite du développement des exigences du système et de la rédaction du rapport</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nettoyage de NetBeans </t>
   </si>
   <si>
     <t>Rédaction du rapport</t>
   </si>
   <si>
-    <t>Poursuite de la rédaction du rapport et programmation de la musique au claire de la lune du buzzer</t>
-  </si>
-  <si>
-    <t>Développement web, gestions créneaux</t>
-  </si>
-  <si>
-    <t>Développement  de la gestions utilisateur (admin et superviseur), rediréction en fonction du mot de passe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rédaction du rapport </t>
   </si>
   <si>
-    <t>Résolution de quelques erreurs de programmation dans l'application de supervision. Poursuite du rapport de conception. Création de la structure complète du rapport d'analyse et de spécifications et intégration du diagramme de classe, des diagrmmes de séquences, présentation du projet dans celui-ci.</t>
-  </si>
-  <si>
     <t>Poursuite du rapport d'analyse et de spécification.</t>
   </si>
   <si>
@@ -479,16 +373,7 @@
     <t>Apport de modifications sur le tableau de classement des équipes en fin de partie. Création d'une nouvelle fenêtre de type "A propos". Création d'un choix de nombre de joueurs sur la fenêtre de lancement et liaison avec la base de données.</t>
   </si>
   <si>
-    <t>Récupération de l'id du superviseur qui modifie un créneau (toujour en cours)</t>
-  </si>
-  <si>
-    <t>Affichage d'une alert avec le numéro de téléphone quand le superviseur supprime un créneau réservé</t>
-  </si>
-  <si>
     <t>Faire en sorte de ne pas pouvoir inserer un creneaux déjà existant et qu'il y ai un minimum de 30 min entre les créneaux (toujours en cours)</t>
-  </si>
-  <si>
-    <t>Ecriture de commentaires dans le code. Reprise de certains boutons et trie des données dans la base de données. Point de projet.</t>
   </si>
   <si>
     <t>Commentage de la partie code. Poursuite du rapport de conception avec l'étude du réseau Wi-Fi pour la partie physique appliquée.</t>
@@ -677,6 +562,124 @@
   <si>
     <t>Recherches et création d'une requête SQL permettant d'insérer l'heure de fin de partie dans le dernier enregistrement (correspondant à l'équipe en cours). Mise en place dans l'application et tests validés. Création d'une méthode de mise à jour du score en fin de partie, non terminée.</t>
   </si>
+  <si>
+    <t>Recherches sur la récupération de données SQL dans une listbox et mise en place avec la fenêtre d'envoi d'indice à l'afficheur. Il est désormais possible de selectionner un indice prédéfini (actualisation systématique) et d'en créer un nouveau (enregistrement après envoi).</t>
+  </si>
+  <si>
+    <t>Modification des interfaces graphiques de l'application et poursuite de la récupération du nom de l'équipe et du dernier indice envoyé. Réalisation de tests de l'ensemble des fonctions.</t>
+  </si>
+  <si>
+    <t>Résolution de quelques erreurs de programmation dans l'application de supervision. Poursuite du rapport de conception. Création de la structure complète du rapport d'analyse et de spécifications et intégration du diagramme de classe, des diagrammes de séquences, présentation du projet dans celui-ci.</t>
+  </si>
+  <si>
+    <t>Ecriture de commentaires dans le code. Reprise de certains boutons et tri des données dans la base de données. Point de projet.</t>
+  </si>
+  <si>
+    <t>Lancement du projet : Annalyse du dossier, création du GitHub (GitKraken),  recherches d'informations sur Boostrap et Apache. Debut de rédaction de mon document Word de documentation.</t>
+  </si>
+  <si>
+    <t>Recherches d'informations sur le developpement sur Arduino et sur le materiel (buzzer, écran LCD). Poursuite de la rédaction de mon fichier word.</t>
+  </si>
+  <si>
+    <t>Rédaction d'un Gantt commun. Rédaction de mon diaporama pour la revue de projet n°1. Poursuite de la rédaction de mon fichier word.</t>
+  </si>
+  <si>
+    <t>Mise à jour de mon diaporama, poursuite des recherches.</t>
+  </si>
+  <si>
+    <t>Poursuite des recherches, de la rédaction du diaporama et de la rédaction de la documentation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mise au point de l'oral. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalisation du diagramme de Gantt, ainsi que de la revue. 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passage de la revue 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Réflexions générales sur mes deux parties</t>
+  </si>
+  <si>
+    <t>Poursuite des modifications du diaporama, finalisation des diragrammes, ajout des documentations sur le gantt.</t>
+  </si>
+  <si>
+    <t>Correction des diagrammes de séquences et de classes, poursuite des modification du diaporama pour la revue 2.</t>
+  </si>
+  <si>
+    <t>Amorce du cablage de l'arduino avec ses differents composants et amorce de la programmation sur l'arduino.</t>
+  </si>
+  <si>
+    <t>Programmation de la page de connexion. Recherches sur comment avoir deux mots de passe differents pour deux pages differentes</t>
+  </si>
+  <si>
+    <t>Programmation de la page d'administrateur, recherches de comment supprimer, ajouter, modifier la bdd depuis la page web</t>
+  </si>
+  <si>
+    <t>Mise à jour bdd, programmation sur l'application Arduino</t>
+  </si>
+  <si>
+    <t>Programmation du lien entre l'ajout de créneaux et le calendrier</t>
+  </si>
+  <si>
+    <t>Programmation d'un événement cliquable et d'une page de résérvation de créneaux avec les informations du créneau cliqué.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation site web en général, nettyage, graphisme. </t>
+  </si>
+  <si>
+    <t>Programmation Arduino, connexion de tous les composants + programme permettant d'activer buzzer et afficheur lcd  quand le bon code est saisi.</t>
+  </si>
+  <si>
+    <t>Développement web, gestions de créneaux</t>
+  </si>
+  <si>
+    <t>Développement de l'esthétisme et de quelques améliorations de la page web et rédaction du rapport.</t>
+  </si>
+  <si>
+    <t>Développement de la gestion utilisateur (admin et superviseur), redirection en fonction du mot de passe.</t>
+  </si>
+  <si>
+    <t>Développement des exigences du système, essai de récuperer l'id du superviseur qui modifie, supprime ou ajoute un créneau.</t>
+  </si>
+  <si>
+    <t>Poursuite du développement des exigences du système et de la rédaction du rapport.</t>
+  </si>
+  <si>
+    <t>Poursuite de la rédaction du rapport et programmation de la musique "au claire de la lune" du buzzer</t>
+  </si>
+  <si>
+    <t>Récupération de l'id du superviseur qui modifie un créneau (toujours en cours)</t>
+  </si>
+  <si>
+    <t>Affichage d'une alerte avec le numéro de téléphone quand le superviseur supprime un créneau réservé</t>
+  </si>
 </sst>
 </file>
 
@@ -685,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,15 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
@@ -788,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,12 +803,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,32 +949,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1309,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1359,7 @@
         <v>0.125</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="I2" s="1">
         <v>0.125</v>
@@ -1379,7 +1370,7 @@
         <v>43845</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1">
         <v>0.13541666666666666</v>
@@ -1391,7 +1382,7 @@
         <v>0.125</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="I3" s="1">
         <v>0.125</v>
@@ -1408,7 +1399,7 @@
         <v>43847</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>0.20833333333333334</v>
@@ -1420,7 +1411,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1">
         <v>0.20833333333333334</v>
@@ -1464,7 +1455,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1475,19 +1466,19 @@
         <v>43852</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1">
         <v>0.125</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6">
         <v>0.125</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I10" s="1">
         <v>0.125</v>
@@ -1528,19 +1519,19 @@
         <v>43858</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I16" s="1">
         <v>0.16666666666666666</v>
@@ -1551,19 +1542,19 @@
         <v>43859</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1580,13 +1571,13 @@
         <v>43861</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>0.125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="F19" s="6">
         <v>0.125</v>
@@ -1613,24 +1604,24 @@
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43865</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="I23" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1641,19 +1632,19 @@
         <v>43866</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1">
         <v>0.125</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24" s="6">
         <v>0.125</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1">
         <v>0.125</v>
@@ -1670,19 +1661,19 @@
         <v>43868</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1">
         <v>0.2638888888888889</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="6">
         <v>0.27083333333333331</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1">
         <v>0.25</v>
@@ -1711,19 +1702,19 @@
         <v>43872</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F30" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I30" s="1">
         <v>0.16666666666666666</v>
@@ -1734,19 +1725,19 @@
         <v>43873</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F31" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I31" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1763,19 +1754,19 @@
         <v>43875</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1">
         <v>0.25</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="F33" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1">
         <v>0.25</v>
@@ -1811,7 +1802,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F38" s="6">
         <v>0.125</v>
@@ -1860,7 +1851,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="E45" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F45" s="6">
         <v>8.3333333333333329E-2</v>
@@ -1872,7 +1863,7 @@
         <v>43888</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
         <v>6.25E-2</v>
@@ -1907,19 +1898,19 @@
         <v>43893</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F51" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I51" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1930,19 +1921,19 @@
         <v>43894</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1">
         <v>0.125</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F52" s="6">
         <v>0.125</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I52" s="1">
         <v>0.125</v>
@@ -1959,19 +1950,19 @@
         <v>43896</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1">
         <v>0.25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F54" s="6">
         <v>0.25</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I54" s="1">
         <v>0.25</v>
@@ -2000,19 +1991,19 @@
         <v>43900</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F58" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I58" s="1">
         <v>0.16666666666666666</v>
@@ -2023,19 +2014,19 @@
         <v>43901</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F59" s="6">
         <v>0.125</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="I59" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2052,19 +2043,19 @@
         <v>43903</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1">
         <v>0.25</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F61" s="6">
         <v>0.25</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I61" s="1">
         <v>0.25</v>
@@ -2088,13 +2079,13 @@
       </c>
       <c r="B64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F64" s="6">
         <v>0.14583333333333334</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="I64" s="1">
         <v>0.16666666666666666</v>
@@ -2105,19 +2096,19 @@
         <v>43907</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1">
         <v>0.125</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F65" s="6">
         <v>0.1875</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I65" s="1">
         <v>0.20833333333333334</v>
@@ -2128,19 +2119,19 @@
         <v>43908</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C66" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F66" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I66" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2152,13 +2143,13 @@
       </c>
       <c r="B67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F67" s="6">
         <v>0.125</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="I67" s="1">
         <v>0.16666666666666666</v>
@@ -2169,13 +2160,13 @@
         <v>43910</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F68" s="6">
         <v>0.16666666666666666</v>
@@ -2198,19 +2189,19 @@
         <v>43913</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C71" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F71" s="6">
         <v>0.125</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I71" s="1">
         <v>6.25E-2</v>
@@ -2221,19 +2212,19 @@
         <v>43914</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C72" s="1">
         <v>0.125</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="F72" s="6">
         <v>0.125</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I72" s="1">
         <v>0.20833333333333334</v>
@@ -2245,13 +2236,13 @@
       </c>
       <c r="B73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F73" s="6">
         <v>0.20833333333333334</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I73" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2262,19 +2253,19 @@
         <v>43916</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F74" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I74" s="1">
         <v>0.20833333333333334</v>
@@ -2285,19 +2276,19 @@
         <v>43917</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1">
         <v>0.125</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="F75" s="6">
         <v>0.1875</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I75" s="1">
         <v>0.125</v>
@@ -2320,19 +2311,19 @@
         <v>43920</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F78" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I78" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2343,19 +2334,19 @@
         <v>43921</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F79" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2364,13 +2355,13 @@
       </c>
       <c r="B80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F80" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I80" s="1">
         <v>0.125</v>
@@ -2388,19 +2379,19 @@
         <v>43924</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F82" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="I82" s="1">
         <v>0.125</v>
@@ -2424,19 +2415,19 @@
         <v>43927</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C85" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F85" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="I85" s="1">
         <v>0.16666666666666666</v>
@@ -2447,19 +2438,19 @@
         <v>43928</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C86" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F86" s="6">
         <v>0.125</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="I86" s="1">
         <v>0.16666666666666666</v>
@@ -2470,19 +2461,19 @@
         <v>43929</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C87" s="1">
         <v>0.125</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F87" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="I87" s="1">
         <v>0.125</v>
@@ -2493,19 +2484,19 @@
         <v>43930</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C88" s="1">
         <v>0.125</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F88" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="I88" s="1">
         <v>0.20833333333333334</v>
@@ -2516,19 +2507,19 @@
         <v>43931</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C89" s="1">
         <v>0.125</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F89" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="I89" s="1">
         <v>0.125</v>
@@ -2551,15 +2542,16 @@
         <v>43934</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C92" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="27"/>
       <c r="H92" s="5" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="I92" s="1">
         <v>0.20833333333333334</v>
@@ -2570,13 +2562,13 @@
         <v>43935</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C93" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F93" s="6">
         <v>0.16666666666666666</v>
@@ -2587,13 +2579,13 @@
         <v>43936</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C94" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F94" s="6">
         <v>0.16666666666666666</v>
@@ -2605,13 +2597,13 @@
       </c>
       <c r="B95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F95" s="6">
         <v>0.1875</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I95" s="1">
         <v>0.125</v>
@@ -2623,13 +2615,13 @@
       </c>
       <c r="B96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F96" s="6">
         <v>0.1875</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I96" s="1">
         <v>0.20833333333333334</v>
@@ -2652,19 +2644,19 @@
         <v>43941</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C99" s="1">
         <v>0.125</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F99" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I99" s="1">
         <v>0.125</v>
@@ -2675,19 +2667,19 @@
         <v>43942</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C100" s="1">
         <v>0.125</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F100" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I100" s="1">
         <v>0.125</v>
@@ -2698,19 +2690,19 @@
         <v>43943</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C101" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F101" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I101" s="1">
         <v>0.125</v>
@@ -2721,19 +2713,19 @@
         <v>43944</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C102" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F102" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="I102" s="1">
         <v>0.20833333333333334</v>
@@ -2744,19 +2736,19 @@
         <v>43945</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C103" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F103" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="I103" s="1">
         <v>0.20833333333333334</v>
@@ -2779,19 +2771,19 @@
         <v>43948</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C106" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F106" s="6">
         <v>0.1875</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="I106" s="1">
         <v>0.20833333333333334</v>
@@ -2802,19 +2794,19 @@
         <v>43949</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C107" s="1">
         <v>0.25</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="F107" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="I107" s="1">
         <v>0.20833333333333334</v>
@@ -2825,19 +2817,19 @@
         <v>43950</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C108" s="1">
         <v>0.39583333333333331</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F108" s="6">
         <v>0.1875</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="I108" s="1">
         <v>0.125</v>
@@ -2848,19 +2840,19 @@
         <v>43951</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C109" s="1">
         <v>0.125</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F109" s="6">
         <v>0.25</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I109" s="1">
         <v>0.20833333333333334</v>
@@ -2871,19 +2863,19 @@
         <v>43952</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F110" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I110" s="1">
         <v>0.20833333333333334</v>
@@ -2894,19 +2886,19 @@
         <v>43953</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C111" s="1">
         <v>0.25</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F111" s="6">
         <v>0.10416666666666667</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I111" s="1">
         <v>0.125</v>
@@ -2917,13 +2909,13 @@
         <v>43954</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C112" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I112" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2934,19 +2926,19 @@
         <v>43955</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C113" s="1">
         <v>0.1875</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F113" s="6">
         <v>0.1875</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="I113" s="1">
         <v>0.20833333333333334</v>
@@ -2957,19 +2949,19 @@
         <v>43956</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C114" s="1">
         <v>0.15277777777777776</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F114" s="6">
-        <v>0.10416666666666667</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="I114" s="1">
         <v>0.16666666666666666</v>
@@ -2981,13 +2973,13 @@
       </c>
       <c r="B115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F115" s="6">
         <v>0.125</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I115" s="1">
         <v>0.16666666666666666</v>
@@ -2998,19 +2990,19 @@
         <v>43958</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C116" s="1">
         <v>0.125</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F116" s="6">
         <v>0.14583333333333334</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="I116" s="1">
         <v>0.20833333333333334</v>
@@ -3021,7 +3013,7 @@
         <v>43959</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C117" s="1">
         <v>0.20833333333333334</v>
@@ -3044,19 +3036,19 @@
         <v>43962</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C120" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F120" s="6">
         <v>0.125</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I120" s="1">
         <v>0.125</v>
@@ -3067,19 +3059,19 @@
         <v>43963</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C121" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F121" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="I121" s="1">
         <v>0.125</v>
@@ -3090,19 +3082,19 @@
         <v>43964</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C122" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F122" s="6">
         <v>0.22916666666666666</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I122" s="1">
         <v>0.20833333333333334</v>
@@ -3113,13 +3105,13 @@
         <v>43965</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C123" s="1">
         <v>0.1875</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I123" s="1">
         <v>0.1875</v>
@@ -3130,19 +3122,19 @@
         <v>43966</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C124" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F124" s="6">
         <v>0.27083333333333331</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I124" s="1">
         <v>0.16666666666666666</v>
@@ -3153,7 +3145,7 @@
         <v>43967</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C125" s="1">
         <v>0.20833333333333334</v>
@@ -3164,7 +3156,7 @@
         <v>43968</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C126" s="1">
         <v>0.25</v>
@@ -3175,19 +3167,19 @@
         <v>43969</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C127" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="F127" s="6">
         <v>0.14583333333333334</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I127" s="1">
         <v>0.125</v>
@@ -3198,13 +3190,13 @@
         <v>43970</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C128" s="1">
         <v>0.125</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I128" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3245,7 +3237,7 @@
         <v>43976</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C134" s="1">
         <v>0.16666666666666666</v>
@@ -3256,7 +3248,7 @@
         <v>43977</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C135" s="1">
         <v>0.16666666666666666</v>
@@ -3267,7 +3259,7 @@
         <v>43978</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C136" s="1">
         <v>0.20833333333333334</v>
@@ -3278,13 +3270,13 @@
         <v>43979</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C137" s="1">
         <v>0.125</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F137" s="6">
         <v>8.3333333333333329E-2</v>
@@ -3295,13 +3287,13 @@
         <v>43980</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C138" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F138" s="6">
         <v>0.125</v>
@@ -3324,7 +3316,7 @@
         <v>43983</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C141" s="1">
         <v>0.33333333333333331</v>
@@ -3335,13 +3327,13 @@
         <v>43984</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C142" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F142" s="6">
         <v>0.14583333333333334</v>
@@ -3353,7 +3345,7 @@
       </c>
       <c r="B143" s="5"/>
       <c r="E143" s="5" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F143" s="6">
         <v>0.16666666666666666</v>
@@ -3393,23 +3385,23 @@
       <c r="A149" s="3">
         <v>43991</v>
       </c>
-      <c r="B149" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="20">
+      <c r="B149" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F149" s="21">
+      <c r="D149" s="20"/>
+      <c r="E149" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H149" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I149" s="20">
+      <c r="H149" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I149" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -3453,15 +3445,15 @@
       <c r="A159" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="25">
+      <c r="C159" s="23">
         <f>SUM(C2:C155)</f>
         <v>11.260416666666664</v>
       </c>
-      <c r="F159" s="25">
+      <c r="F159" s="23">
         <f>SUM(F2:F155)</f>
-        <v>10.375000000000002</v>
-      </c>
-      <c r="I159" s="26">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="I159" s="24">
         <f>SUM(I2:I155)</f>
         <v>9.6666666666666643</v>
       </c>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8E973-8031-4AF5-A0D8-899DB9A87E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341DAD3-0396-438D-A95D-0F6FFFE36C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="184">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Affichage d'une alerte avec le numéro de téléphone quand le superviseur supprime un créneau réservé</t>
+  </si>
+  <si>
+    <t>Apport de modifications dans l'application de supervision : Changement des paramètres de la caméra IP. Reconfiguration de la caméra IP et poursuite de la préparation à la revue finale.</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,11 +3354,17 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
       <c r="B144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F144" s="6">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
@@ -3405,60 +3414,24 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>43992</v>
-      </c>
-      <c r="B150" s="5"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>43993</v>
-      </c>
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>43994</v>
-      </c>
-      <c r="B152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>43995</v>
-      </c>
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>43996</v>
-      </c>
-      <c r="B154" s="5"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>43997</v>
-      </c>
-      <c r="B155" s="5"/>
-    </row>
-    <row r="159" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+    <row r="153" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="23">
-        <f>SUM(C2:C155)</f>
+      <c r="C153" s="23">
+        <f>SUM(C2:C149)</f>
         <v>11.260416666666664</v>
       </c>
-      <c r="F159" s="23">
-        <f>SUM(F2:F155)</f>
-        <v>10.41666666666667</v>
-      </c>
-      <c r="I159" s="24">
-        <f>SUM(I2:I155)</f>
+      <c r="F153" s="23">
+        <f>SUM(F2:F149)</f>
+        <v>10.60416666666667</v>
+      </c>
+      <c r="I153" s="24">
+        <f>SUM(I2:I149)</f>
         <v>9.6666666666666643</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341DAD3-0396-438D-A95D-0F6FFFE36C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A841D-7CBD-42D1-A2F0-EEA205856083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Apport de modifications dans l'application de supervision : Changement des paramètres de la caméra IP. Reconfiguration de la caméra IP et poursuite de la préparation à la revue finale.</t>
+  </si>
+  <si>
+    <t>Poursuite de la préparation de la revue finale (diaporama, entraînements…).</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,11 +3369,17 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43987</v>
       </c>
       <c r="B145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F145" s="6">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
@@ -3424,7 +3433,7 @@
       </c>
       <c r="F153" s="23">
         <f>SUM(F2:F149)</f>
-        <v>10.60416666666667</v>
+        <v>10.770833333333336</v>
       </c>
       <c r="I153" s="24">
         <f>SUM(I2:I149)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A841D-7CBD-42D1-A2F0-EEA205856083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330D6601-28B6-4CD2-A1CD-8ADF99876AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -685,6 +685,27 @@
   </si>
   <si>
     <t>Poursuite de la préparation de la revue finale (diaporama, entraînements…).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du diaporama pour la revue final </t>
+  </si>
+  <si>
+    <t>Mise à jour jour du diaporama pour la revue final, modification des taches réalisées.</t>
+  </si>
+  <si>
+    <t>Modification du code pour empecher que des créneaux se chevauche</t>
+  </si>
+  <si>
+    <t>Poursuite de la rédaction du diaporama de la revue final</t>
+  </si>
+  <si>
+    <t>Poursuite de la rédacation du rapport, apport de modification</t>
+  </si>
+  <si>
+    <t>Test pour la partie physique</t>
+  </si>
+  <si>
+    <t>Vidéo pour montrer le fonctionnement de l'application Arduino et poursuite du diaporama</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,37 +3229,37 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43971</v>
       </c>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43972</v>
       </c>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43973</v>
       </c>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43974</v>
       </c>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43975</v>
       </c>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43976</v>
       </c>
@@ -3249,7 +3270,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43977</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43978</v>
       </c>
@@ -3270,8 +3291,14 @@
       <c r="C136" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="H136" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43979</v>
       </c>
@@ -3287,8 +3314,14 @@
       <c r="F137" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="H137" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I137" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43980</v>
       </c>
@@ -3305,19 +3338,19 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43981</v>
       </c>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43982</v>
       </c>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43983</v>
       </c>
@@ -3327,8 +3360,14 @@
       <c r="C141" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H141" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43984</v>
       </c>
@@ -3344,8 +3383,14 @@
       <c r="F142" s="6">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="H142" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43985</v>
       </c>
@@ -3356,8 +3401,14 @@
       <c r="F143" s="6">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="H143" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43986</v>
       </c>
@@ -3368,6 +3419,12 @@
       <c r="F144" s="6">
         <v>0.1875</v>
       </c>
+      <c r="H144" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
@@ -3380,6 +3437,12 @@
       <c r="F145" s="6">
         <v>0.16666666666666666</v>
       </c>
+      <c r="H145" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
@@ -3437,7 +3500,7 @@
       </c>
       <c r="I153" s="24">
         <f>SUM(I2:I149)</f>
-        <v>9.6666666666666643</v>
+        <v>10.70833333333333</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330D6601-28B6-4CD2-A1CD-8ADF99876AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210D313-1CA7-4F4E-A85F-B1669E3FC3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="196">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -706,6 +706,18 @@
   </si>
   <si>
     <t>Vidéo pour montrer le fonctionnement de l'application Arduino et poursuite du diaporama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentative de mise en fonctionnement de la fonction de lecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation revue final + commentation du code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation revue final </t>
+  </si>
+  <si>
+    <t>Préparation revue final</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1340,7 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3406,12 @@
       <c r="A143" s="3">
         <v>43985</v>
       </c>
-      <c r="B143" s="5"/>
+      <c r="B143" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.25</v>
+      </c>
       <c r="E143" s="5" t="s">
         <v>117</v>
       </c>
@@ -3412,7 +3429,12 @@
       <c r="A144" s="3">
         <v>43986</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E144" s="5" t="s">
         <v>183</v>
       </c>
@@ -3430,7 +3452,12 @@
       <c r="A145" s="3">
         <v>43987</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="E145" s="5" t="s">
         <v>184</v>
       </c>
@@ -3448,7 +3475,12 @@
       <c r="A146" s="3">
         <v>43988</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -3492,7 +3524,7 @@
       </c>
       <c r="C153" s="23">
         <f>SUM(C2:C149)</f>
-        <v>11.260416666666664</v>
+        <v>12.218749999999998</v>
       </c>
       <c r="F153" s="23">
         <f>SUM(F2:F149)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Guillaume\BTS SN\Projet Systeme-Escape-Game-Telethon\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210D313-1CA7-4F4E-A85F-B1669E3FC3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C7134F-F883-4A53-B75A-5888C545873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="198">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>Préparation revue final</t>
+  </si>
+  <si>
+    <t>Entrainement au passage de la revue finale.</t>
+  </si>
+  <si>
+    <t>Finalisation du diaporama (chemin de fer, mise en forme, mise à jour de certains élements…). Entrainements à la présentation, tests du fonctionnement du matériel avec le suivi des fiches recettes. Préparation de la présentation matérielle.</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,6 +3487,12 @@
       <c r="C146" s="1">
         <v>0.20833333333333334</v>
       </c>
+      <c r="E146" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -3488,11 +3500,17 @@
       </c>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43990</v>
       </c>
       <c r="B148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
@@ -3528,7 +3546,7 @@
       </c>
       <c r="F153" s="23">
         <f>SUM(F2:F149)</f>
-        <v>10.770833333333336</v>
+        <v>11.020833333333336</v>
       </c>
       <c r="I153" s="24">
         <f>SUM(I2:I149)</f>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C7134F-F883-4A53-B75A-5888C545873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569492D3-8117-4B5D-BFC5-8BE46FF70125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
@@ -723,7 +723,7 @@
     <t>Entrainement au passage de la revue finale.</t>
   </si>
   <si>
-    <t>Finalisation du diaporama (chemin de fer, mise en forme, mise à jour de certains élements…). Entrainements à la présentation, tests du fonctionnement du matériel avec le suivi des fiches recettes. Préparation de la présentation matérielle.</t>
+    <t>Finalisation du diaporama (chemin de fer, mise en forme, mise à jour de certains élements…). Entrainements à la présentation, tests du fonctionnement du matériel avec le suivi des fiches recettes. Préparation de la présentation du fonctionnement.</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Commun/Journal d'activités.xlsx
+++ b/Commun/Journal d'activités.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Systeme-Escape-Game-Telethon\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569492D3-8117-4B5D-BFC5-8BE46FF70125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C96DD-0737-4EB8-984B-141B29ED638B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4456A671-B883-4442-B94A-6163F7130CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>Finalisation du diaporama (chemin de fer, mise en forme, mise à jour de certains élements…). Entrainements à la présentation, tests du fonctionnement du matériel avec le suivi des fiches recettes. Préparation de la présentation du fonctionnement.</t>
+  </si>
+  <si>
+    <t>Finalisation du diaporama. Tests du fonctionnement du matériel avec le suivi des fiches recettes. Préparation de la présentation du fonctionnement.</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E91A-450F-447C-A131-782583851794}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,6 +3496,9 @@
       <c r="F146" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="H146" s="17" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -3510,6 +3516,9 @@
       </c>
       <c r="F148" s="6">
         <v>0.20833333333333334</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
